--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9DBDA39-B8EA-42A5-9073-B11885031F8E}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790A9ECB-8B99-459F-B868-587D6F2F5755}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
     <sheet name="Punktlighet2" sheetId="4" r:id="rId2"/>
     <sheet name="Antall avganger" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Punktlighet2!$E$1:$E$649</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="37">
   <si>
     <t>År</t>
   </si>
@@ -144,15 +147,22 @@
   <si>
     <t>Fra Oslo 24</t>
   </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>OBS*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +178,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,16 +216,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61B44F-32A1-498F-A001-7F97A32A16A6}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection sqref="A1:T73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5034,6 +5079,68 @@
         <v>71.118530884808024</v>
       </c>
     </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>94.417862838915468</v>
+      </c>
+      <c r="D74" s="2">
+        <v>85.691823899371073</v>
+      </c>
+      <c r="E74" s="2">
+        <v>92.534992223950226</v>
+      </c>
+      <c r="F74" s="2">
+        <v>78.560250391236309</v>
+      </c>
+      <c r="G74" s="2">
+        <v>91.795665634674918</v>
+      </c>
+      <c r="H74" s="2">
+        <v>83.591331269349851</v>
+      </c>
+      <c r="I74" s="2">
+        <v>89.802130898021318</v>
+      </c>
+      <c r="J74" s="2">
+        <v>80.715396578538105</v>
+      </c>
+      <c r="K74" s="2">
+        <v>89.833080424886191</v>
+      </c>
+      <c r="L74" s="2">
+        <v>81.845688350983352</v>
+      </c>
+      <c r="M74" s="2">
+        <v>89.15094339622641</v>
+      </c>
+      <c r="N74" s="2">
+        <v>83.30781010719754</v>
+      </c>
+      <c r="O74" s="2">
+        <v>87.869362363919137</v>
+      </c>
+      <c r="P74" s="2">
+        <v>75.705329153605021</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>85.426356589147289</v>
+      </c>
+      <c r="R74" s="2">
+        <v>82.043343653250773</v>
+      </c>
+      <c r="S74" s="2">
+        <v>85.579937304075244</v>
+      </c>
+      <c r="T74" s="2">
+        <v>82.426127527216181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5045,10 +5152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:W640"/>
+  <dimension ref="A1:X649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K541" sqref="K541"/>
+    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L500" sqref="L500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5091,7 +5198,9 @@
       <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5392,7 +5501,9 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -5908,7 +6019,9 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -6424,7 +6537,9 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -6940,7 +7055,9 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -7456,7 +7573,9 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="3"/>
+      <c r="L56" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -7691,11 +7810,11 @@
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="2">
-        <v>85.369532428355953</v>
-      </c>
-      <c r="D62" s="2">
-        <v>86.10687022900764</v>
+      <c r="C62" s="6">
+        <v>82.424242424242422</v>
+      </c>
+      <c r="D62" s="6">
+        <v>82.469512195121951</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
@@ -7734,11 +7853,11 @@
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="2">
-        <v>76.666666666666657</v>
-      </c>
-      <c r="D63" s="2">
-        <v>70.945945945945937</v>
+      <c r="C63" s="6">
+        <v>74.247491638795978</v>
+      </c>
+      <c r="D63" s="6">
+        <v>70.62818336162988</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
@@ -7777,11 +7896,11 @@
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="2">
-        <v>90.045941807044414</v>
-      </c>
-      <c r="D64" s="2">
-        <v>85.05392912172573</v>
+      <c r="C64" s="6">
+        <v>87.442572741194496</v>
+      </c>
+      <c r="D64" s="6">
+        <v>86.021505376344081</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>9</v>
@@ -7820,11 +7939,11 @@
       <c r="B65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="2">
-        <v>90.878378378378372</v>
-      </c>
-      <c r="D65" s="2">
-        <v>83.564013840830455</v>
+      <c r="C65" s="6">
+        <v>88.344594594594597</v>
+      </c>
+      <c r="D65" s="6">
+        <v>84.909090909090907</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
@@ -7863,11 +7982,11 @@
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="2">
-        <v>85.18518518518519</v>
-      </c>
-      <c r="D66" s="2">
-        <v>71.384136858475884</v>
+      <c r="C66" s="6">
+        <v>81.916537867078816</v>
+      </c>
+      <c r="D66" s="6">
+        <v>71.339563862928344</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
@@ -7906,11 +8025,11 @@
       <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="2">
-        <v>78.103837471783294</v>
-      </c>
-      <c r="D67" s="2">
-        <v>75.688073394495419</v>
+      <c r="C67" s="6">
+        <v>75.169300225733636</v>
+      </c>
+      <c r="D67" s="6">
+        <v>74.94252873563218</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>9</v>
@@ -7949,10 +8068,10 @@
       <c r="B68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="6">
         <v>100</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="6">
         <v>100</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -7972,7 +8091,9 @@
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -7992,11 +8113,11 @@
       <c r="B69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="2">
-        <v>81.569965870307172</v>
-      </c>
-      <c r="D69" s="2">
-        <v>68.16608996539793</v>
+      <c r="C69" s="6">
+        <v>79.010238907849825</v>
+      </c>
+      <c r="D69" s="6">
+        <v>68.7170474516696</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
@@ -8035,11 +8156,11 @@
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="2">
-        <v>85.44600938967136</v>
-      </c>
-      <c r="D70" s="2">
-        <v>78.69634340222575</v>
+      <c r="C70" s="6">
+        <v>81.875</v>
+      </c>
+      <c r="D70" s="6">
+        <v>78.70216306156405</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
@@ -8078,11 +8199,11 @@
       <c r="B71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="2">
-        <v>84.375</v>
-      </c>
-      <c r="D71" s="2">
-        <v>76.018099547511312</v>
+      <c r="C71" s="6">
+        <v>83.035714285714278</v>
+      </c>
+      <c r="D71" s="6">
+        <v>75.981873111782477</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>9</v>
@@ -8121,11 +8242,11 @@
       <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="2">
-        <v>84.267912772585674</v>
-      </c>
-      <c r="D72" s="2">
-        <v>76.959247648902817</v>
+      <c r="C72" s="6">
+        <v>86.625194401244158</v>
+      </c>
+      <c r="D72" s="6">
+        <v>80.281690140845072</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
@@ -8164,11 +8285,11 @@
       <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="2">
-        <v>84.244372990353696</v>
-      </c>
-      <c r="D73" s="2">
-        <v>82.53706754530478</v>
+      <c r="C73" s="6">
+        <v>84.991843393148443</v>
+      </c>
+      <c r="D73" s="6">
+        <v>83.55048859934854</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -8404,8 +8525,11 @@
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2019</v>
       </c>
@@ -8436,7 +8560,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2019</v>
       </c>
@@ -8467,7 +8591,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2019</v>
       </c>
@@ -8498,7 +8622,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2019</v>
       </c>
@@ -8529,7 +8653,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2019</v>
       </c>
@@ -8560,7 +8684,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2019</v>
       </c>
@@ -8591,7 +8715,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2019</v>
       </c>
@@ -8622,7 +8746,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2019</v>
       </c>
@@ -8653,7 +8777,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2019</v>
       </c>
@@ -8684,7 +8808,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2019</v>
       </c>
@@ -8715,7 +8839,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2019</v>
       </c>
@@ -8746,7 +8870,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2019</v>
       </c>
@@ -8776,8 +8900,11 @@
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2019</v>
       </c>
@@ -8808,7 +8935,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2019</v>
       </c>
@@ -8839,7 +8966,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2019</v>
       </c>
@@ -8870,7 +8997,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>2019</v>
       </c>
@@ -8901,7 +9028,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2019</v>
       </c>
@@ -8932,7 +9059,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2019</v>
       </c>
@@ -8963,7 +9090,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>2019</v>
       </c>
@@ -8994,7 +9121,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>2019</v>
       </c>
@@ -9025,7 +9152,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2019</v>
       </c>
@@ -9056,7 +9183,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2019</v>
       </c>
@@ -9087,7 +9214,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2019</v>
       </c>
@@ -9118,7 +9245,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2019</v>
       </c>
@@ -9148,8 +9275,11 @@
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2019</v>
       </c>
@@ -9180,7 +9310,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2019</v>
       </c>
@@ -9211,7 +9341,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2019</v>
       </c>
@@ -9242,7 +9372,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2019</v>
       </c>
@@ -9273,7 +9403,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2019</v>
       </c>
@@ -9304,7 +9434,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2020</v>
       </c>
@@ -9335,7 +9465,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2020</v>
       </c>
@@ -9366,7 +9496,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2020</v>
       </c>
@@ -9397,7 +9527,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2020</v>
       </c>
@@ -9428,7 +9558,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2020</v>
       </c>
@@ -9459,7 +9589,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2020</v>
       </c>
@@ -9490,7 +9620,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2020</v>
       </c>
@@ -9520,8 +9650,11 @@
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2020</v>
       </c>
@@ -9552,7 +9685,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2020</v>
       </c>
@@ -9583,7 +9716,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2020</v>
       </c>
@@ -9614,7 +9747,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2020</v>
       </c>
@@ -9645,7 +9778,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2020</v>
       </c>
@@ -9676,7 +9809,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2020</v>
       </c>
@@ -9707,7 +9840,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2020</v>
       </c>
@@ -9738,7 +9871,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2020</v>
       </c>
@@ -9769,7 +9902,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2020</v>
       </c>
@@ -9800,7 +9933,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2020</v>
       </c>
@@ -9831,7 +9964,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2020</v>
       </c>
@@ -9862,7 +9995,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2020</v>
       </c>
@@ -9892,8 +10025,11 @@
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2020</v>
       </c>
@@ -9924,7 +10060,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2020</v>
       </c>
@@ -9955,7 +10091,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2020</v>
       </c>
@@ -9986,7 +10122,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2020</v>
       </c>
@@ -10017,7 +10153,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2020</v>
       </c>
@@ -10048,7 +10184,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2020</v>
       </c>
@@ -10079,7 +10215,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2020</v>
       </c>
@@ -10110,7 +10246,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2020</v>
       </c>
@@ -10141,7 +10277,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2020</v>
       </c>
@@ -10172,7 +10308,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2020</v>
       </c>
@@ -10203,7 +10339,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2020</v>
       </c>
@@ -10234,7 +10370,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2020</v>
       </c>
@@ -10264,8 +10400,11 @@
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2020</v>
       </c>
@@ -10296,7 +10435,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2020</v>
       </c>
@@ -10327,7 +10466,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2020</v>
       </c>
@@ -10358,7 +10497,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2020</v>
       </c>
@@ -10389,7 +10528,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2020</v>
       </c>
@@ -10420,7 +10559,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2020</v>
       </c>
@@ -10451,7 +10590,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2020</v>
       </c>
@@ -10482,7 +10621,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2020</v>
       </c>
@@ -10513,7 +10652,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2020</v>
       </c>
@@ -10544,7 +10683,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2020</v>
       </c>
@@ -10575,7 +10714,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2020</v>
       </c>
@@ -10606,7 +10745,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2020</v>
       </c>
@@ -10636,8 +10775,11 @@
       </c>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L152" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2020</v>
       </c>
@@ -10668,7 +10810,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2020</v>
       </c>
@@ -10699,7 +10841,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2020</v>
       </c>
@@ -10730,7 +10872,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2020</v>
       </c>
@@ -10761,7 +10903,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2020</v>
       </c>
@@ -10792,7 +10934,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2020</v>
       </c>
@@ -10823,7 +10965,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2020</v>
       </c>
@@ -10854,7 +10996,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2020</v>
       </c>
@@ -10885,7 +11027,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2020</v>
       </c>
@@ -10916,7 +11058,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2020</v>
       </c>
@@ -10947,7 +11089,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2020</v>
       </c>
@@ -10978,7 +11120,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>2020</v>
       </c>
@@ -11008,8 +11150,11 @@
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L164" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2020</v>
       </c>
@@ -11040,7 +11185,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2020</v>
       </c>
@@ -11071,7 +11216,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2020</v>
       </c>
@@ -11102,7 +11247,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2020</v>
       </c>
@@ -11133,7 +11278,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2020</v>
       </c>
@@ -11164,18 +11309,18 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>2020</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C170" s="2">
-        <v>75.071225071225072</v>
-      </c>
-      <c r="D170" s="2">
-        <v>76.602086438152</v>
+      <c r="C170" s="6">
+        <v>77.058823529411768</v>
+      </c>
+      <c r="D170" s="6">
+        <v>78.179190751445077</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>9</v>
@@ -11195,18 +11340,18 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2020</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C171" s="2">
-        <v>85.779122541603627</v>
-      </c>
-      <c r="D171" s="2">
-        <v>82.38095238095238</v>
+      <c r="C171" s="6">
+        <v>87.363494539781598</v>
+      </c>
+      <c r="D171" s="6">
+        <v>85.846153846153854</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
@@ -11226,18 +11371,18 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>2020</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C172" s="2">
-        <v>93.233082706766908</v>
-      </c>
-      <c r="D172" s="2">
-        <v>92.633228840125398</v>
+      <c r="C172" s="6">
+        <v>94.401244167962673</v>
+      </c>
+      <c r="D172" s="6">
+        <v>93.040847201210283</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>9</v>
@@ -11257,18 +11402,18 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2020</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="2">
-        <v>90.952380952380949</v>
-      </c>
-      <c r="D173" s="2">
-        <v>94</v>
+      <c r="C173" s="6">
+        <v>91.521197007481291</v>
+      </c>
+      <c r="D173" s="6">
+        <v>95.465393794749403</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>9</v>
@@ -11288,18 +11433,18 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>2020</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C174" s="2">
-        <v>82.142857142857139</v>
-      </c>
-      <c r="D174" s="2">
-        <v>91.157556270096464</v>
+      <c r="C174" s="6">
+        <v>83.386581469648576</v>
+      </c>
+      <c r="D174" s="6">
+        <v>91.912908242612758</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>9</v>
@@ -11319,18 +11464,18 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>2020</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="2">
-        <v>88.248337028824835</v>
-      </c>
-      <c r="D175" s="2">
-        <v>83.91608391608392</v>
+      <c r="C175" s="6">
+        <v>89.583333333333343</v>
+      </c>
+      <c r="D175" s="6">
+        <v>86.966292134831463</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>9</v>
@@ -11349,19 +11494,20 @@
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L175" s="3"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>2020</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C176" s="2">
-        <v>98</v>
-      </c>
-      <c r="D176" s="2">
-        <v>96.296296296296305</v>
+      <c r="C176" s="6">
+        <v>100</v>
+      </c>
+      <c r="D176" s="6">
+        <v>100</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
@@ -11380,19 +11526,22 @@
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L176" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>2020</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C177" s="2">
-        <v>87.361769352290679</v>
-      </c>
-      <c r="D177" s="2">
-        <v>86.591276252019384</v>
+      <c r="C177" s="6">
+        <v>88.743882544861336</v>
+      </c>
+      <c r="D177" s="6">
+        <v>88.75</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>9</v>
@@ -11412,18 +11561,18 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>2020</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C178" s="2">
-        <v>88.740740740740748</v>
-      </c>
-      <c r="D178" s="2">
-        <v>86.50306748466258</v>
+      <c r="C178" s="6">
+        <v>90.978593272171253</v>
+      </c>
+      <c r="D178" s="6">
+        <v>89.120715350223549</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>9</v>
@@ -11443,18 +11592,18 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>2020</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C179" s="2">
-        <v>89.629629629629619</v>
-      </c>
-      <c r="D179" s="2">
-        <v>87.07692307692308</v>
+      <c r="C179" s="6">
+        <v>92.201834862385326</v>
+      </c>
+      <c r="D179" s="6">
+        <v>88.24404761904762</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>9</v>
@@ -11474,18 +11623,18 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>2020</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="2">
-        <v>85.735294117647072</v>
-      </c>
-      <c r="D180" s="2">
-        <v>82.280431432973813</v>
+      <c r="C180" s="6">
+        <v>89.833080424886191</v>
+      </c>
+      <c r="D180" s="6">
+        <v>81.641791044776113</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>9</v>
@@ -11505,18 +11654,18 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>2020</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C181" s="2">
-        <v>93.11926605504587</v>
-      </c>
-      <c r="D181" s="2">
-        <v>88.906497622820922</v>
+      <c r="C181" s="6">
+        <v>94.654088050314471</v>
+      </c>
+      <c r="D181" s="6">
+        <v>91.499227202472952</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>9</v>
@@ -11536,7 +11685,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>2020</v>
       </c>
@@ -11567,7 +11716,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>2020</v>
       </c>
@@ -11598,7 +11747,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2020</v>
       </c>
@@ -11629,7 +11778,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>2020</v>
       </c>
@@ -11660,7 +11809,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2020</v>
       </c>
@@ -11691,7 +11840,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2020</v>
       </c>
@@ -11722,7 +11871,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2020</v>
       </c>
@@ -11752,8 +11901,11 @@
       </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2020</v>
       </c>
@@ -11784,7 +11936,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2020</v>
       </c>
@@ -11815,7 +11967,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>2020</v>
       </c>
@@ -11846,7 +11998,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>2020</v>
       </c>
@@ -11877,7 +12029,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>2020</v>
       </c>
@@ -11908,7 +12060,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>2020</v>
       </c>
@@ -11939,7 +12091,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>2020</v>
       </c>
@@ -11970,7 +12122,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>2020</v>
       </c>
@@ -12001,7 +12153,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2020</v>
       </c>
@@ -12032,7 +12184,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2020</v>
       </c>
@@ -12063,7 +12215,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2020</v>
       </c>
@@ -12094,7 +12246,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2020</v>
       </c>
@@ -12124,8 +12276,11 @@
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L200" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2020</v>
       </c>
@@ -12156,7 +12311,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2020</v>
       </c>
@@ -12187,7 +12342,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>2020</v>
       </c>
@@ -12218,7 +12373,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>2020</v>
       </c>
@@ -12249,7 +12404,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>2020</v>
       </c>
@@ -12280,7 +12435,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>2020</v>
       </c>
@@ -12311,7 +12466,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>2020</v>
       </c>
@@ -12342,7 +12497,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2020</v>
       </c>
@@ -12373,7 +12528,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2020</v>
       </c>
@@ -12404,7 +12559,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2020</v>
       </c>
@@ -12435,7 +12590,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2020</v>
       </c>
@@ -12466,7 +12621,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2020</v>
       </c>
@@ -12496,8 +12651,11 @@
       </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L212" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2020</v>
       </c>
@@ -12528,7 +12686,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>2020</v>
       </c>
@@ -12559,7 +12717,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>2020</v>
       </c>
@@ -12590,7 +12748,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>2020</v>
       </c>
@@ -12621,7 +12779,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>2020</v>
       </c>
@@ -12652,7 +12810,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2021</v>
       </c>
@@ -12683,7 +12841,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2021</v>
       </c>
@@ -12714,7 +12872,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>2021</v>
       </c>
@@ -12745,7 +12903,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2021</v>
       </c>
@@ -12776,7 +12934,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2021</v>
       </c>
@@ -12807,7 +12965,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2021</v>
       </c>
@@ -12838,7 +12996,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2021</v>
       </c>
@@ -12868,8 +13026,11 @@
       </c>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L224" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2021</v>
       </c>
@@ -12892,7 +13053,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2021</v>
       </c>
@@ -12923,7 +13084,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>2021</v>
       </c>
@@ -12954,7 +13115,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>2021</v>
       </c>
@@ -12985,7 +13146,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>2021</v>
       </c>
@@ -13016,7 +13177,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>2021</v>
       </c>
@@ -13047,7 +13208,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2021</v>
       </c>
@@ -13078,7 +13239,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>2021</v>
       </c>
@@ -13109,7 +13270,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>2021</v>
       </c>
@@ -13140,7 +13301,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>2021</v>
       </c>
@@ -13171,7 +13332,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>2021</v>
       </c>
@@ -13202,7 +13363,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>2021</v>
       </c>
@@ -13232,8 +13393,11 @@
       </c>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L236" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>2021</v>
       </c>
@@ -13256,7 +13420,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>2021</v>
       </c>
@@ -13287,7 +13451,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>2021</v>
       </c>
@@ -13318,7 +13482,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>2021</v>
       </c>
@@ -13349,7 +13513,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>2021</v>
       </c>
@@ -13380,7 +13544,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>2021</v>
       </c>
@@ -13411,7 +13575,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>2021</v>
       </c>
@@ -13442,7 +13606,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>2021</v>
       </c>
@@ -13473,7 +13637,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>2021</v>
       </c>
@@ -13504,7 +13668,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>2021</v>
       </c>
@@ -13535,7 +13699,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>2021</v>
       </c>
@@ -13566,7 +13730,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>2021</v>
       </c>
@@ -13596,8 +13760,11 @@
       </c>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>2021</v>
       </c>
@@ -13620,7 +13787,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>2021</v>
       </c>
@@ -13651,7 +13818,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>2021</v>
       </c>
@@ -13682,7 +13849,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>2021</v>
       </c>
@@ -13713,7 +13880,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>2021</v>
       </c>
@@ -13744,7 +13911,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>2021</v>
       </c>
@@ -13775,7 +13942,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>2021</v>
       </c>
@@ -13806,7 +13973,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>2021</v>
       </c>
@@ -13837,7 +14004,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>2021</v>
       </c>
@@ -13868,7 +14035,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>2021</v>
       </c>
@@ -13899,7 +14066,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>2021</v>
       </c>
@@ -13930,7 +14097,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>2021</v>
       </c>
@@ -13960,8 +14127,11 @@
       </c>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L260" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>2021</v>
       </c>
@@ -13984,7 +14154,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>2021</v>
       </c>
@@ -14015,7 +14185,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>2021</v>
       </c>
@@ -14046,7 +14216,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>2021</v>
       </c>
@@ -14077,7 +14247,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>2021</v>
       </c>
@@ -14108,7 +14278,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>2021</v>
       </c>
@@ -14139,7 +14309,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>2021</v>
       </c>
@@ -14170,7 +14340,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>2021</v>
       </c>
@@ -14201,7 +14371,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>2021</v>
       </c>
@@ -14232,7 +14402,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>2021</v>
       </c>
@@ -14263,7 +14433,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>2021</v>
       </c>
@@ -14294,7 +14464,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>2021</v>
       </c>
@@ -14324,8 +14494,11 @@
       </c>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L272" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>2021</v>
       </c>
@@ -14348,7 +14521,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>2021</v>
       </c>
@@ -14379,7 +14552,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>2021</v>
       </c>
@@ -14410,7 +14583,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>2021</v>
       </c>
@@ -14441,7 +14614,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>2021</v>
       </c>
@@ -14472,18 +14645,18 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>2021</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C278" s="2">
-        <v>89.296187683284458</v>
-      </c>
-      <c r="D278" s="2">
-        <v>86.596385542168676</v>
+      <c r="C278" s="6">
+        <v>90.298507462686572</v>
+      </c>
+      <c r="D278" s="6">
+        <v>89.747399702823188</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>9</v>
@@ -14502,19 +14675,20 @@
       </c>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X278" s="6"/>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>2021</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C279" s="2">
-        <v>91.76090468497577</v>
-      </c>
-      <c r="D279" s="2">
-        <v>89.965986394557817</v>
+      <c r="C279" s="6">
+        <v>92.953020134228197</v>
+      </c>
+      <c r="D279" s="6">
+        <v>90.655737704918039</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>9</v>
@@ -14533,19 +14707,20 @@
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X279" s="6"/>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>2021</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C280" s="2">
-        <v>86.890756302521012</v>
-      </c>
-      <c r="D280" s="2">
-        <v>91.696113074204945</v>
+      <c r="C280" s="6">
+        <v>88.869565217391298</v>
+      </c>
+      <c r="D280" s="6">
+        <v>91.652470187393533</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>9</v>
@@ -14564,19 +14739,20 @@
       </c>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X280" s="6"/>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>2021</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="2">
-        <v>91.91049913941481</v>
-      </c>
-      <c r="D281" s="2">
-        <v>88.72987477638641</v>
+      <c r="C281" s="6">
+        <v>93.61702127659575</v>
+      </c>
+      <c r="D281" s="6">
+        <v>90.311418685121097</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>9</v>
@@ -14595,19 +14771,20 @@
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X281" s="6"/>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>2021</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C282" s="2">
-        <v>88.767550702028089</v>
-      </c>
-      <c r="D282" s="2">
-        <v>89.198036006546644</v>
+      <c r="C282" s="6">
+        <v>90.369181380417345</v>
+      </c>
+      <c r="D282" s="6">
+        <v>90.158730158730165</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>9</v>
@@ -14626,19 +14803,20 @@
       </c>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X282" s="6"/>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>2021</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="2">
-        <v>87.912087912087912</v>
-      </c>
-      <c r="D283" s="2">
-        <v>85.328185328185327</v>
+      <c r="C283" s="6">
+        <v>89.694656488549612</v>
+      </c>
+      <c r="D283" s="6">
+        <v>87.615526802218113</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>9</v>
@@ -14657,19 +14835,20 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X283" s="6"/>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>2021</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C284" s="2">
-        <v>95.833333333333343</v>
-      </c>
-      <c r="D284" s="2">
-        <v>100</v>
+      <c r="C284" s="6">
+        <v>80</v>
+      </c>
+      <c r="D284" s="6">
+        <v>95.121951219512198</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>9</v>
@@ -14688,18 +14867,22 @@
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L284" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X284" s="6"/>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>2021</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2">
-        <v>76.133651551312653</v>
-      </c>
+      <c r="C285" s="6">
+        <v>90.845070422535215</v>
+      </c>
+      <c r="D285" s="6"/>
       <c r="E285" s="1" t="s">
         <v>9</v>
       </c>
@@ -14715,19 +14898,20 @@
       </c>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X285" s="6"/>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>2021</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C286" s="2">
-        <v>51.041666666666671</v>
-      </c>
-      <c r="D286" s="2">
-        <v>80.742049469964655</v>
+      <c r="C286" s="6">
+        <v>86.067019400352734</v>
+      </c>
+      <c r="D286" s="6">
+        <v>77.173913043478265</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>9</v>
@@ -14746,19 +14930,20 @@
       </c>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X286" s="6"/>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>2021</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C287" s="2">
-        <v>79.266347687400312</v>
-      </c>
-      <c r="D287" s="2">
-        <v>83.387096774193552</v>
+      <c r="C287" s="6">
+        <v>82.961783439490446</v>
+      </c>
+      <c r="D287" s="6">
+        <v>84.641068447412351</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>9</v>
@@ -14777,19 +14962,20 @@
       </c>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X287" s="6"/>
+    </row>
+    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>2021</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C288" s="2">
-        <v>77.272727272727266</v>
-      </c>
-      <c r="D288" s="2">
-        <v>78.887070376432078</v>
+      <c r="C288" s="6">
+        <v>80.875202593192881</v>
+      </c>
+      <c r="D288" s="6">
+        <v>80.984719864176569</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>9</v>
@@ -14808,19 +14994,20 @@
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X288" s="6"/>
+    </row>
+    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>2021</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C289" s="2">
-        <v>82.362459546925564</v>
-      </c>
-      <c r="D289" s="2">
-        <v>80.944625407166129</v>
+      <c r="C289" s="6">
+        <v>87.055016181229774</v>
+      </c>
+      <c r="D289" s="6">
+        <v>81.205673758865245</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>9</v>
@@ -14839,8 +15026,9 @@
       </c>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X289" s="6"/>
+    </row>
+    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>2021</v>
       </c>
@@ -14870,8 +15058,9 @@
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X290" s="6"/>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>2021</v>
       </c>
@@ -14901,8 +15090,9 @@
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X291" s="6"/>
+    </row>
+    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>2021</v>
       </c>
@@ -14932,8 +15122,9 @@
       </c>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X292" s="6"/>
+    </row>
+    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>2021</v>
       </c>
@@ -14963,8 +15154,9 @@
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X293" s="6"/>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>2021</v>
       </c>
@@ -14994,8 +15186,9 @@
       </c>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X294" s="6"/>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>2021</v>
       </c>
@@ -15025,8 +15218,9 @@
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X295" s="6"/>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>2021</v>
       </c>
@@ -15056,8 +15250,12 @@
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L296" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X296" s="6"/>
+    </row>
+    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>2021</v>
       </c>
@@ -15087,8 +15285,9 @@
       </c>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X297" s="6"/>
+    </row>
+    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>2021</v>
       </c>
@@ -15118,8 +15317,9 @@
       </c>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X298" s="6"/>
+    </row>
+    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>2021</v>
       </c>
@@ -15149,8 +15349,9 @@
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X299" s="6"/>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>2021</v>
       </c>
@@ -15180,8 +15381,9 @@
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X300" s="6"/>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>2021</v>
       </c>
@@ -15211,8 +15413,9 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X301" s="6"/>
+    </row>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>2021</v>
       </c>
@@ -15242,8 +15445,9 @@
       </c>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X302" s="6"/>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>2021</v>
       </c>
@@ -15273,8 +15477,9 @@
       </c>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X303" s="6"/>
+    </row>
+    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>2021</v>
       </c>
@@ -15304,8 +15509,9 @@
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X304" s="6"/>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>2021</v>
       </c>
@@ -15335,8 +15541,9 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X305" s="6"/>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>2021</v>
       </c>
@@ -15366,8 +15573,9 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X306" s="6"/>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>2021</v>
       </c>
@@ -15397,8 +15605,9 @@
       </c>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X307" s="6"/>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>2021</v>
       </c>
@@ -15428,8 +15637,12 @@
       </c>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L308" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X308" s="6"/>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>2021</v>
       </c>
@@ -15459,8 +15672,9 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X309" s="6"/>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>2021</v>
       </c>
@@ -15490,8 +15704,9 @@
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X310" s="6"/>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>2021</v>
       </c>
@@ -15521,8 +15736,9 @@
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X311" s="6"/>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>2021</v>
       </c>
@@ -15552,8 +15768,9 @@
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X312" s="6"/>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>2021</v>
       </c>
@@ -15583,8 +15800,9 @@
       </c>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X313" s="6"/>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>2021</v>
       </c>
@@ -15614,8 +15832,9 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X314" s="6"/>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>2021</v>
       </c>
@@ -15645,8 +15864,9 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X315" s="6"/>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>2021</v>
       </c>
@@ -15676,8 +15896,9 @@
       </c>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X316" s="6"/>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>2021</v>
       </c>
@@ -15707,8 +15928,9 @@
       </c>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X317" s="6"/>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>2021</v>
       </c>
@@ -15738,8 +15960,9 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X318" s="6"/>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>2021</v>
       </c>
@@ -15769,8 +15992,9 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X319" s="6"/>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>2021</v>
       </c>
@@ -15800,8 +16024,12 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L320" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X320" s="6"/>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>2021</v>
       </c>
@@ -15831,8 +16059,9 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X321" s="6"/>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>2021</v>
       </c>
@@ -15862,8 +16091,9 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X322" s="6"/>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>2021</v>
       </c>
@@ -15893,8 +16123,9 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X323" s="6"/>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>2021</v>
       </c>
@@ -15924,8 +16155,9 @@
       </c>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X324" s="6"/>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>2021</v>
       </c>
@@ -15955,8 +16187,9 @@
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X325" s="6"/>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>2022</v>
       </c>
@@ -15986,8 +16219,9 @@
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X326" s="6"/>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>2022</v>
       </c>
@@ -16017,8 +16251,9 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X327" s="6"/>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>2022</v>
       </c>
@@ -16048,8 +16283,9 @@
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X328" s="6"/>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>2022</v>
       </c>
@@ -16079,8 +16315,9 @@
       </c>
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X329" s="6"/>
+    </row>
+    <row r="330" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>2022</v>
       </c>
@@ -16110,8 +16347,9 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X330" s="6"/>
+    </row>
+    <row r="331" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>2022</v>
       </c>
@@ -16141,8 +16379,9 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X331" s="6"/>
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>2022</v>
       </c>
@@ -16172,8 +16411,12 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L332" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X332" s="6"/>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>2022</v>
       </c>
@@ -16203,8 +16446,9 @@
       </c>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X333" s="6"/>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>2022</v>
       </c>
@@ -16234,8 +16478,9 @@
       </c>
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X334" s="6"/>
+    </row>
+    <row r="335" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>2022</v>
       </c>
@@ -16265,8 +16510,9 @@
       </c>
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X335" s="6"/>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>2022</v>
       </c>
@@ -16296,8 +16542,9 @@
       </c>
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X336" s="6"/>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>2022</v>
       </c>
@@ -16327,8 +16574,9 @@
       </c>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X337" s="6"/>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>2022</v>
       </c>
@@ -16358,8 +16606,9 @@
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X338" s="6"/>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>2022</v>
       </c>
@@ -16389,8 +16638,9 @@
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X339" s="6"/>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>2022</v>
       </c>
@@ -16420,8 +16670,9 @@
       </c>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X340" s="6"/>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>2022</v>
       </c>
@@ -16451,8 +16702,9 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X341" s="6"/>
+    </row>
+    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>2022</v>
       </c>
@@ -16482,8 +16734,9 @@
       </c>
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X342" s="6"/>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>2022</v>
       </c>
@@ -16513,8 +16766,9 @@
       </c>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X343" s="6"/>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>2022</v>
       </c>
@@ -16544,8 +16798,12 @@
       </c>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L344" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X344" s="6"/>
+    </row>
+    <row r="345" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>2022</v>
       </c>
@@ -16575,8 +16833,9 @@
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X345" s="6"/>
+    </row>
+    <row r="346" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>2022</v>
       </c>
@@ -16606,8 +16865,9 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X346" s="6"/>
+    </row>
+    <row r="347" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>2022</v>
       </c>
@@ -16637,8 +16897,9 @@
       </c>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X347" s="6"/>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>2022</v>
       </c>
@@ -16668,8 +16929,9 @@
       </c>
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="X348" s="6"/>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>2022</v>
       </c>
@@ -16700,7 +16962,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>2022</v>
       </c>
@@ -16731,7 +16993,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>2022</v>
       </c>
@@ -16762,7 +17024,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>2022</v>
       </c>
@@ -16793,7 +17055,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>2022</v>
       </c>
@@ -16824,7 +17086,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>2022</v>
       </c>
@@ -16855,7 +17117,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>2022</v>
       </c>
@@ -16886,7 +17148,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>2022</v>
       </c>
@@ -16916,8 +17178,11 @@
       </c>
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L356" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>2022</v>
       </c>
@@ -16948,7 +17213,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>2022</v>
       </c>
@@ -16979,7 +17244,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>2022</v>
       </c>
@@ -17010,7 +17275,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>2022</v>
       </c>
@@ -17041,7 +17306,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>2022</v>
       </c>
@@ -17072,7 +17337,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>2022</v>
       </c>
@@ -17103,7 +17368,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>2022</v>
       </c>
@@ -17134,7 +17399,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>2022</v>
       </c>
@@ -17165,7 +17430,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>2022</v>
       </c>
@@ -17196,7 +17461,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>2022</v>
       </c>
@@ -17227,7 +17492,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>2022</v>
       </c>
@@ -17258,7 +17523,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>2022</v>
       </c>
@@ -17288,8 +17553,11 @@
       </c>
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L368" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>2022</v>
       </c>
@@ -17320,7 +17588,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>2022</v>
       </c>
@@ -17351,7 +17619,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>2022</v>
       </c>
@@ -17382,7 +17650,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>2022</v>
       </c>
@@ -17413,7 +17681,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>2022</v>
       </c>
@@ -17444,7 +17712,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>2022</v>
       </c>
@@ -17475,7 +17743,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>2022</v>
       </c>
@@ -17506,7 +17774,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>2022</v>
       </c>
@@ -17537,7 +17805,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>2022</v>
       </c>
@@ -17568,7 +17836,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>2022</v>
       </c>
@@ -17599,7 +17867,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>2022</v>
       </c>
@@ -17630,7 +17898,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>2022</v>
       </c>
@@ -17660,8 +17928,11 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L380" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>2022</v>
       </c>
@@ -17692,7 +17963,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>2022</v>
       </c>
@@ -17723,7 +17994,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>2022</v>
       </c>
@@ -17754,7 +18025,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>2022</v>
       </c>
@@ -17785,7 +18056,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>2022</v>
       </c>
@@ -17816,18 +18087,18 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>2022</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C386" s="2">
-        <v>87.247278382581655</v>
-      </c>
-      <c r="D386" s="2">
-        <v>80.715396578538105</v>
+      <c r="C386" s="6">
+        <v>89.580093312597199</v>
+      </c>
+      <c r="D386" s="6">
+        <v>85.35773710482529</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>9</v>
@@ -17847,18 +18118,18 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>2022</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C387" s="2">
-        <v>91.260504201680675</v>
-      </c>
-      <c r="D387" s="2">
-        <v>86.757215619694392</v>
+      <c r="C387" s="6">
+        <v>92.592592592592595</v>
+      </c>
+      <c r="D387" s="6">
+        <v>90.528233151183969</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>9</v>
@@ -17878,18 +18149,18 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>2022</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C388" s="2">
-        <v>92.514970059880241</v>
-      </c>
-      <c r="D388" s="2">
-        <v>87.652439024390233</v>
+      <c r="C388" s="6">
+        <v>92.664670658682638</v>
+      </c>
+      <c r="D388" s="6">
+        <v>89.838709677419359</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>9</v>
@@ -17909,18 +18180,18 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>2022</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C389" s="2">
-        <v>85.232067510548532</v>
-      </c>
-      <c r="D389" s="2">
-        <v>79.237288135593218</v>
+      <c r="C389" s="6">
+        <v>88.396624472573833</v>
+      </c>
+      <c r="D389" s="6">
+        <v>84.615384615384613</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>9</v>
@@ -17940,18 +18211,18 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>2022</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C390" s="2">
-        <v>89.411764705882362</v>
-      </c>
-      <c r="D390" s="2">
-        <v>82.623509369676313</v>
+      <c r="C390" s="6">
+        <v>91.932773109243698</v>
+      </c>
+      <c r="D390" s="6">
+        <v>86</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>9</v>
@@ -17971,18 +18242,18 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>2022</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C391" s="2">
-        <v>75.122749590834687</v>
-      </c>
-      <c r="D391" s="2">
-        <v>67.612687813021694</v>
+      <c r="C391" s="6">
+        <v>78.887070376432078</v>
+      </c>
+      <c r="D391" s="6">
+        <v>71.929824561403507</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>9</v>
@@ -18002,18 +18273,18 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>2022</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C392" s="2">
-        <v>91.304347826086968</v>
-      </c>
-      <c r="D392" s="2">
-        <v>89.130434782608688</v>
+      <c r="C392" s="6">
+        <v>97.826086956521735</v>
+      </c>
+      <c r="D392" s="6">
+        <v>88.888888888888886</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>9</v>
@@ -18032,19 +18303,22 @@
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L392" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>2022</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C393" s="2">
-        <v>81.470588235294116</v>
-      </c>
-      <c r="D393" s="2">
-        <v>74.332344213649847</v>
+      <c r="C393" s="6">
+        <v>82.916053019145792</v>
+      </c>
+      <c r="D393" s="6">
+        <v>78.199052132701425</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>9</v>
@@ -18064,18 +18338,18 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>2022</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C394" s="2">
-        <v>81.78913738019169</v>
-      </c>
-      <c r="D394" s="2">
-        <v>74.363057324840767</v>
+      <c r="C394" s="6">
+        <v>84.16</v>
+      </c>
+      <c r="D394" s="6">
+        <v>80</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>9</v>
@@ -18095,18 +18369,18 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>2022</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C395" s="2">
-        <v>84.85316846986089</v>
-      </c>
-      <c r="D395" s="2">
-        <v>78.825347758887162</v>
+      <c r="C395" s="6">
+        <v>87.037037037037038</v>
+      </c>
+      <c r="D395" s="6">
+        <v>83.993399339934001</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>9</v>
@@ -18126,18 +18400,18 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>2022</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C396" s="2">
-        <v>90.205371248025273</v>
-      </c>
-      <c r="D396" s="2">
-        <v>79.810725552050471</v>
+      <c r="C396" s="6">
+        <v>91.31121642969984</v>
+      </c>
+      <c r="D396" s="6">
+        <v>87.390542907180375</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>9</v>
@@ -18157,18 +18431,18 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>2022</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C397" s="2">
-        <v>80.3125</v>
-      </c>
-      <c r="D397" s="2">
-        <v>70.900321543408367</v>
+      <c r="C397" s="6">
+        <v>76.198083067092654</v>
+      </c>
+      <c r="D397" s="6">
+        <v>69.086651053864173</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>9</v>
@@ -18188,7 +18462,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>2022</v>
       </c>
@@ -18219,7 +18493,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>2022</v>
       </c>
@@ -18250,7 +18524,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>2022</v>
       </c>
@@ -18281,7 +18555,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>2022</v>
       </c>
@@ -18312,7 +18586,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>2022</v>
       </c>
@@ -18343,7 +18617,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>2022</v>
       </c>
@@ -18374,7 +18648,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>2022</v>
       </c>
@@ -18404,8 +18678,11 @@
       </c>
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L404" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>2022</v>
       </c>
@@ -18436,7 +18713,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>2022</v>
       </c>
@@ -18467,7 +18744,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>2022</v>
       </c>
@@ -18498,7 +18775,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>2022</v>
       </c>
@@ -18529,7 +18806,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>2022</v>
       </c>
@@ -18560,7 +18837,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>2022</v>
       </c>
@@ -18591,7 +18868,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>2022</v>
       </c>
@@ -18622,7 +18899,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>2022</v>
       </c>
@@ -18653,7 +18930,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>2022</v>
       </c>
@@ -18684,7 +18961,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>2022</v>
       </c>
@@ -18715,7 +18992,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>2022</v>
       </c>
@@ -18746,7 +19023,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>2022</v>
       </c>
@@ -18776,8 +19053,11 @@
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L416" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>2022</v>
       </c>
@@ -18808,7 +19088,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2022</v>
       </c>
@@ -18839,7 +19119,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>2022</v>
       </c>
@@ -18870,7 +19150,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>2022</v>
       </c>
@@ -18901,7 +19181,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>2022</v>
       </c>
@@ -18932,7 +19212,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>2022</v>
       </c>
@@ -18963,7 +19243,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>2022</v>
       </c>
@@ -18994,7 +19274,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>2022</v>
       </c>
@@ -19025,7 +19305,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>2022</v>
       </c>
@@ -19056,7 +19336,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>2022</v>
       </c>
@@ -19087,7 +19367,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>2022</v>
       </c>
@@ -19118,7 +19398,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>2022</v>
       </c>
@@ -19148,8 +19428,11 @@
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L428" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>2022</v>
       </c>
@@ -19180,7 +19463,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>2022</v>
       </c>
@@ -19211,7 +19494,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>2022</v>
       </c>
@@ -19242,7 +19525,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>2022</v>
       </c>
@@ -19273,7 +19556,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>2022</v>
       </c>
@@ -19304,7 +19587,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>2023</v>
       </c>
@@ -19335,7 +19618,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>2023</v>
       </c>
@@ -19366,7 +19649,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>2023</v>
       </c>
@@ -19397,7 +19680,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>2023</v>
       </c>
@@ -19428,7 +19711,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>2023</v>
       </c>
@@ -19459,7 +19742,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>2023</v>
       </c>
@@ -19490,7 +19773,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>2023</v>
       </c>
@@ -19520,8 +19803,11 @@
       </c>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L440" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>2023</v>
       </c>
@@ -19552,7 +19838,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>2023</v>
       </c>
@@ -19583,7 +19869,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>2023</v>
       </c>
@@ -19614,7 +19900,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>2023</v>
       </c>
@@ -19645,7 +19931,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>2023</v>
       </c>
@@ -19676,7 +19962,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>2023</v>
       </c>
@@ -19707,7 +19993,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>2023</v>
       </c>
@@ -19738,7 +20024,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>2023</v>
       </c>
@@ -19769,7 +20055,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>2023</v>
       </c>
@@ -19800,7 +20086,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>2023</v>
       </c>
@@ -19831,7 +20117,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>2023</v>
       </c>
@@ -19862,7 +20148,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>2023</v>
       </c>
@@ -19892,8 +20178,11 @@
       </c>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L452" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>2023</v>
       </c>
@@ -19924,7 +20213,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>2023</v>
       </c>
@@ -19955,7 +20244,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>2023</v>
       </c>
@@ -19986,7 +20275,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>2023</v>
       </c>
@@ -20017,7 +20306,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>2023</v>
       </c>
@@ -20048,7 +20337,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>2023</v>
       </c>
@@ -20079,7 +20368,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>2023</v>
       </c>
@@ -20110,7 +20399,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>2023</v>
       </c>
@@ -20141,7 +20430,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>2023</v>
       </c>
@@ -20172,7 +20461,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>2023</v>
       </c>
@@ -20203,7 +20492,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>2023</v>
       </c>
@@ -20234,7 +20523,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>2023</v>
       </c>
@@ -20264,8 +20553,11 @@
       </c>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L464" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>2023</v>
       </c>
@@ -20296,7 +20588,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>2023</v>
       </c>
@@ -20327,7 +20619,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>2023</v>
       </c>
@@ -20358,7 +20650,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>2023</v>
       </c>
@@ -20389,7 +20681,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>2023</v>
       </c>
@@ -20420,7 +20712,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>2023</v>
       </c>
@@ -20451,7 +20743,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>2023</v>
       </c>
@@ -20482,7 +20774,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>2023</v>
       </c>
@@ -20513,7 +20805,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>2023</v>
       </c>
@@ -20544,7 +20836,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>2023</v>
       </c>
@@ -20575,7 +20867,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>2023</v>
       </c>
@@ -20606,7 +20898,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>2023</v>
       </c>
@@ -20636,8 +20928,11 @@
       </c>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L476" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>2023</v>
       </c>
@@ -20668,7 +20963,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>2023</v>
       </c>
@@ -20699,7 +20994,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>2023</v>
       </c>
@@ -20730,7 +21025,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>2023</v>
       </c>
@@ -20761,7 +21056,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>2023</v>
       </c>
@@ -20792,7 +21087,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>2023</v>
       </c>
@@ -20823,7 +21118,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>2023</v>
       </c>
@@ -20854,7 +21149,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>2023</v>
       </c>
@@ -20885,7 +21180,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>2023</v>
       </c>
@@ -20916,7 +21211,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>2023</v>
       </c>
@@ -20947,7 +21242,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>2023</v>
       </c>
@@ -20978,7 +21273,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>2023</v>
       </c>
@@ -21008,8 +21303,11 @@
       </c>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L488" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>2023</v>
       </c>
@@ -21040,7 +21338,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>2023</v>
       </c>
@@ -21071,7 +21369,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>2023</v>
       </c>
@@ -21102,7 +21400,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>2023</v>
       </c>
@@ -21133,7 +21431,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>2023</v>
       </c>
@@ -21164,18 +21462,18 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>2023</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C494" s="2">
-        <v>76.445698166431598</v>
-      </c>
-      <c r="D494" s="2">
-        <v>70.640834575260797</v>
+      <c r="C494" s="6">
+        <v>78.717201166180757</v>
+      </c>
+      <c r="D494" s="6">
+        <v>75.180375180375179</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>9</v>
@@ -21195,18 +21493,18 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>2023</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C495" s="2">
-        <v>83.089430894308947</v>
-      </c>
-      <c r="D495" s="2">
-        <v>81.081081081081081</v>
+      <c r="C495" s="6">
+        <v>85.378151260504197</v>
+      </c>
+      <c r="D495" s="6">
+        <v>83.496732026143789</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>9</v>
@@ -21226,18 +21524,18 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>2023</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C496" s="2">
-        <v>83.959537572254334</v>
-      </c>
-      <c r="D496" s="2">
-        <v>73.676248108925861</v>
+      <c r="C496" s="6">
+        <v>84.925373134328353</v>
+      </c>
+      <c r="D496" s="6">
+        <v>80.087847730600288</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>9</v>
@@ -21257,18 +21555,18 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>2023</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C497" s="2">
-        <v>81.875</v>
-      </c>
-      <c r="D497" s="2">
-        <v>77.777777777777786</v>
+      <c r="C497" s="6">
+        <v>82.974137931034491</v>
+      </c>
+      <c r="D497" s="6">
+        <v>80.672268907563023</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>9</v>
@@ -21288,18 +21586,18 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>2023</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C498" s="2">
-        <v>83.70607028753993</v>
-      </c>
-      <c r="D498" s="2">
-        <v>76.782752902155877</v>
+      <c r="C498" s="6">
+        <v>83.855024711696871</v>
+      </c>
+      <c r="D498" s="6">
+        <v>77.652733118971057</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>9</v>
@@ -21319,18 +21617,18 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>2023</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C499" s="2">
-        <v>77.137176938369777</v>
-      </c>
-      <c r="D499" s="2">
-        <v>61.894736842105267</v>
+      <c r="C499" s="6">
+        <v>75.308641975308646</v>
+      </c>
+      <c r="D499" s="6">
+        <v>66.938775510204081</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>9</v>
@@ -21350,19 +21648,17 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>2023</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C500" s="2" t="s">
+      <c r="C500" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D500" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D500" s="6"/>
       <c r="E500" s="1" t="s">
         <v>9</v>
       </c>
@@ -21380,19 +21676,22 @@
       </c>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L500" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>2023</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C501" s="2">
-        <v>65.129151291512912</v>
-      </c>
-      <c r="D501" s="2">
-        <v>40.690978886756234</v>
+      <c r="C501" s="6">
+        <v>68.26003824091778</v>
+      </c>
+      <c r="D501" s="6">
+        <v>48.333333333333329</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>9</v>
@@ -21412,18 +21711,18 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>2023</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C502" s="2">
-        <v>79.441997063142438</v>
-      </c>
-      <c r="D502" s="2">
-        <v>70.303030303030297</v>
+      <c r="C502" s="6">
+        <v>81.240544629349472</v>
+      </c>
+      <c r="D502" s="6">
+        <v>74.815905743740799</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>9</v>
@@ -21443,18 +21742,18 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>2023</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C503" s="2">
-        <v>73.391812865497073</v>
-      </c>
-      <c r="D503" s="2">
-        <v>72.629969418960243</v>
+      <c r="C503" s="6">
+        <v>76.92307692307692</v>
+      </c>
+      <c r="D503" s="6">
+        <v>76.148148148148138</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>9</v>
@@ -21474,18 +21773,18 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>2023</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C504" s="2">
-        <v>71.715610510046375</v>
-      </c>
-      <c r="D504" s="2">
-        <v>68.012924071082395</v>
+      <c r="C504" s="6">
+        <v>76.517571884984022</v>
+      </c>
+      <c r="D504" s="6">
+        <v>72.854914196567861</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>9</v>
@@ -21505,18 +21804,18 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>2023</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C505" s="2">
-        <v>75.38699690402477</v>
-      </c>
-      <c r="D505" s="2">
-        <v>68.189233278955953</v>
+      <c r="C505" s="6">
+        <v>76.592356687898089</v>
+      </c>
+      <c r="D505" s="6">
+        <v>71.835443037974684</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>9</v>
@@ -21536,7 +21835,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>2023</v>
       </c>
@@ -21567,7 +21866,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>2023</v>
       </c>
@@ -21598,7 +21897,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>2023</v>
       </c>
@@ -21629,7 +21928,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>2023</v>
       </c>
@@ -21660,7 +21959,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>2023</v>
       </c>
@@ -21691,7 +21990,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>2023</v>
       </c>
@@ -21722,7 +22021,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>2023</v>
       </c>
@@ -21752,8 +22051,11 @@
       </c>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
-    </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L512" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>2023</v>
       </c>
@@ -21784,7 +22086,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>2023</v>
       </c>
@@ -21815,7 +22117,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>2023</v>
       </c>
@@ -21846,7 +22148,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>2023</v>
       </c>
@@ -21877,7 +22179,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>2023</v>
       </c>
@@ -21908,7 +22210,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>2023</v>
       </c>
@@ -21939,7 +22241,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>2023</v>
       </c>
@@ -21970,7 +22272,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>2023</v>
       </c>
@@ -22001,7 +22303,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>2023</v>
       </c>
@@ -22032,7 +22334,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>2023</v>
       </c>
@@ -22063,7 +22365,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>2023</v>
       </c>
@@ -22094,7 +22396,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>2023</v>
       </c>
@@ -22124,8 +22426,11 @@
       </c>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
-    </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L524" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>2023</v>
       </c>
@@ -22156,7 +22461,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>2023</v>
       </c>
@@ -22187,7 +22492,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>2023</v>
       </c>
@@ -22218,7 +22523,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>2023</v>
       </c>
@@ -22249,7 +22554,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>2023</v>
       </c>
@@ -22280,7 +22585,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>2023</v>
       </c>
@@ -22311,7 +22616,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>2023</v>
       </c>
@@ -22342,7 +22647,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>2023</v>
       </c>
@@ -22373,7 +22678,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>2023</v>
       </c>
@@ -22404,7 +22709,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>2023</v>
       </c>
@@ -22435,7 +22740,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>2023</v>
       </c>
@@ -22466,7 +22771,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>2023</v>
       </c>
@@ -22496,8 +22801,11 @@
       </c>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
-    </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L536" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>2023</v>
       </c>
@@ -22528,7 +22836,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>2023</v>
       </c>
@@ -22559,7 +22867,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>2023</v>
       </c>
@@ -22590,7 +22898,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>2023</v>
       </c>
@@ -22621,7 +22929,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>2023</v>
       </c>
@@ -22652,7 +22960,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>2024</v>
       </c>
@@ -22683,7 +22991,7 @@
         <v>63.880126182965299</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>2024</v>
       </c>
@@ -22714,7 +23022,7 @@
         <v>75.238095238095241</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>2024</v>
       </c>
@@ -22745,7 +23053,7 @@
         <v>81.104033970276006</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>2024</v>
       </c>
@@ -22776,7 +23084,7 @@
         <v>81.744749596122773</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>2024</v>
       </c>
@@ -22807,7 +23115,7 @@
         <v>76.573426573426573</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>2024</v>
       </c>
@@ -22838,7 +23146,7 @@
         <v>83.720930232558132</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>2024</v>
       </c>
@@ -22868,8 +23176,11 @@
       <c r="K548" s="2">
         <v>82.608695652173907</v>
       </c>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L548" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>2024</v>
       </c>
@@ -22900,7 +23211,7 @@
         <v>78.89908256880733</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>2024</v>
       </c>
@@ -22931,7 +23242,7 @@
         <v>79.968203497615264</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>2024</v>
       </c>
@@ -22962,7 +23273,7 @@
         <v>75.958702064896755</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>2024</v>
       </c>
@@ -22993,7 +23304,7 @@
         <v>77.871621621621628</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>2024</v>
       </c>
@@ -23024,7 +23335,7 @@
         <v>51.892744479495271</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>2024</v>
       </c>
@@ -23055,7 +23366,7 @@
         <v>67.777777777777786</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>2024</v>
       </c>
@@ -23086,7 +23397,7 @@
         <v>70.824524312896415</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>2024</v>
       </c>
@@ -23117,7 +23428,7 @@
         <v>74.110032362459549</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>2024</v>
       </c>
@@ -23148,7 +23459,7 @@
         <v>70.877192982456137</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>2024</v>
       </c>
@@ -23179,7 +23490,7 @@
         <v>76.207513416815743</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>2024</v>
       </c>
@@ -23209,8 +23520,11 @@
       <c r="K559" s="2">
         <v>75.362318840579718</v>
       </c>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L559" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>2024</v>
       </c>
@@ -23241,7 +23555,7 @@
         <v>70.257966616084971</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>2024</v>
       </c>
@@ -23272,7 +23586,7 @@
         <v>74.203821656050948</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>2024</v>
       </c>
@@ -23303,7 +23617,7 @@
         <v>71.32352941176471</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>2024</v>
       </c>
@@ -23334,7 +23648,7 @@
         <v>67.003367003367003</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>2024</v>
       </c>
@@ -23365,7 +23679,7 @@
         <v>61.189358372456958</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>2024</v>
       </c>
@@ -23396,7 +23710,7 @@
         <v>72.65500794912559</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>2024</v>
       </c>
@@ -23427,7 +23741,7 @@
         <v>77.167019027484145</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>2024</v>
       </c>
@@ -23458,7 +23772,7 @@
         <v>77.600000000000009</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>2024</v>
       </c>
@@ -23489,7 +23803,7 @@
         <v>74.650349650349639</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>2024</v>
       </c>
@@ -23520,7 +23834,7 @@
         <v>81.105169340463462</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>2024</v>
       </c>
@@ -23550,8 +23864,11 @@
       <c r="K570" s="2">
         <v>79.710144927536234</v>
       </c>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L570" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>2024</v>
       </c>
@@ -23582,7 +23899,7 @@
         <v>77.828054298642542</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>2024</v>
       </c>
@@ -23613,7 +23930,7 @@
         <v>80.317460317460316</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>2024</v>
       </c>
@@ -23644,7 +23961,7 @@
         <v>78.005865102639291</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>2024</v>
       </c>
@@ -23675,7 +23992,7 @@
         <v>75.12605042016807</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>2024</v>
       </c>
@@ -23706,7 +24023,7 @@
         <v>55.521472392638039</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>2024</v>
       </c>
@@ -23737,7 +24054,7 @@
         <v>66.984126984126988</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>2024</v>
       </c>
@@ -23768,7 +24085,7 @@
         <v>71.15789473684211</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>2024</v>
       </c>
@@ -23799,7 +24116,7 @@
         <v>71.118012422360238</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>2024</v>
       </c>
@@ -23830,7 +24147,7 @@
         <v>70.537261698440219</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>2024</v>
       </c>
@@ -23861,7 +24178,7 @@
         <v>76.470588235294116</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>2024</v>
       </c>
@@ -23891,8 +24208,11 @@
       <c r="K581" s="2">
         <v>72.857142857142861</v>
       </c>
-    </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L581" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>2024</v>
       </c>
@@ -23923,7 +24243,7 @@
         <v>75.037369207772798</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>2024</v>
       </c>
@@ -23954,7 +24274,7 @@
         <v>78.996865203761757</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>2024</v>
       </c>
@@ -23985,7 +24305,7 @@
         <v>76.169590643274859</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>2024</v>
       </c>
@@ -24016,7 +24336,7 @@
         <v>69.191919191919197</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>2024</v>
       </c>
@@ -24047,7 +24367,7 @@
         <v>51.940298507462693</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>2024</v>
       </c>
@@ -24078,7 +24398,7 @@
         <v>64.055299539170505</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>2024</v>
       </c>
@@ -24109,7 +24429,7 @@
         <v>66.869918699186996</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>2024</v>
       </c>
@@ -24140,7 +24460,7 @@
         <v>67.819548872180448</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>2024</v>
       </c>
@@ -24171,7 +24491,7 @@
         <v>68.907563025210081</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>2024</v>
       </c>
@@ -24202,7 +24522,7 @@
         <v>73.321858864027533</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>2024</v>
       </c>
@@ -24232,8 +24552,11 @@
       <c r="K592" s="2">
         <v>67.123287671232873</v>
       </c>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L592" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>2024</v>
       </c>
@@ -24264,7 +24587,7 @@
         <v>72.937771345875532</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>2024</v>
       </c>
@@ -24295,7 +24618,7 @@
         <v>76.783004552352054</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>2024</v>
       </c>
@@ -24326,7 +24649,7 @@
         <v>73.587570621468927</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>2024</v>
       </c>
@@ -24357,18 +24680,18 @@
         <v>70.358306188925084</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>2024</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C597" s="2">
-        <v>58.197932053175784</v>
-      </c>
-      <c r="D597" s="2">
-        <v>48.470948012232419</v>
+      <c r="C597" s="6">
+        <v>58.805513016845332</v>
+      </c>
+      <c r="D597" s="6">
+        <v>52.16095380029806</v>
       </c>
       <c r="E597" s="1" t="s">
         <v>9</v>
@@ -24381,25 +24704,25 @@
       </c>
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
-      <c r="J597" s="2">
-        <v>58.197932053175784</v>
-      </c>
-      <c r="K597" s="2">
-        <v>48.470948012232419</v>
-      </c>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J597" s="6">
+        <v>58.805513016845332</v>
+      </c>
+      <c r="K597" s="6">
+        <v>52.16095380029806</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>2024</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C598" s="2">
-        <v>68.56702619414483</v>
-      </c>
-      <c r="D598" s="2">
-        <v>56.962025316455687</v>
+      <c r="C598" s="6">
+        <v>71.725239616613408</v>
+      </c>
+      <c r="D598" s="6">
+        <v>60.643185298621738</v>
       </c>
       <c r="E598" s="1" t="s">
         <v>9</v>
@@ -24412,25 +24735,25 @@
       </c>
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
-      <c r="J598" s="2">
-        <v>68.56702619414483</v>
-      </c>
-      <c r="K598" s="2">
-        <v>56.962025316455687</v>
-      </c>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J598" s="6">
+        <v>71.725239616613408</v>
+      </c>
+      <c r="K598" s="6">
+        <v>60.643185298621738</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>2024</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C599" s="2">
-        <v>79.158699808795404</v>
-      </c>
-      <c r="D599" s="2">
-        <v>65.805168986083501</v>
+      <c r="C599" s="6">
+        <v>81.262327416173562</v>
+      </c>
+      <c r="D599" s="6">
+        <v>73.410404624277461</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>9</v>
@@ -24443,25 +24766,25 @@
       </c>
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
-      <c r="J599" s="2">
-        <v>79.158699808795404</v>
-      </c>
-      <c r="K599" s="2">
-        <v>65.805168986083501</v>
-      </c>
-    </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J599" s="6">
+        <v>81.262327416173562</v>
+      </c>
+      <c r="K599" s="6">
+        <v>73.410404624277461</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>2024</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C600" s="2">
-        <v>77.526395173454006</v>
-      </c>
-      <c r="D600" s="2">
-        <v>58.914728682170534</v>
+      <c r="C600" s="6">
+        <v>80.529595015576334</v>
+      </c>
+      <c r="D600" s="6">
+        <v>65.315315315315317</v>
       </c>
       <c r="E600" s="1" t="s">
         <v>9</v>
@@ -24474,25 +24797,25 @@
       </c>
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
-      <c r="J600" s="2">
-        <v>77.526395173454006</v>
-      </c>
-      <c r="K600" s="2">
-        <v>58.914728682170534</v>
-      </c>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J600" s="6">
+        <v>80.529595015576334</v>
+      </c>
+      <c r="K600" s="6">
+        <v>65.315315315315317</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>2024</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C601" s="2">
-        <v>74.53936348408709</v>
-      </c>
-      <c r="D601" s="2">
-        <v>59.826086956521742</v>
+      <c r="C601" s="6">
+        <v>76.511226252158892</v>
+      </c>
+      <c r="D601" s="6">
+        <v>64.87394957983193</v>
       </c>
       <c r="E601" s="1" t="s">
         <v>9</v>
@@ -24505,25 +24828,25 @@
       </c>
       <c r="H601" s="2"/>
       <c r="I601" s="2"/>
-      <c r="J601" s="2">
-        <v>74.53936348408709</v>
-      </c>
-      <c r="K601" s="2">
-        <v>59.826086956521742</v>
-      </c>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J601" s="6">
+        <v>76.511226252158892</v>
+      </c>
+      <c r="K601" s="6">
+        <v>64.87394957983193</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>2024</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C602" s="2">
-        <v>81.724137931034477</v>
-      </c>
-      <c r="D602" s="2">
-        <v>64.946619217081846</v>
+      <c r="C602" s="6">
+        <v>84.464285714285708</v>
+      </c>
+      <c r="D602" s="6">
+        <v>70.446735395188995</v>
       </c>
       <c r="E602" s="1" t="s">
         <v>9</v>
@@ -24536,25 +24859,25 @@
       </c>
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
-      <c r="J602" s="2">
-        <v>81.724137931034477</v>
-      </c>
-      <c r="K602" s="2">
-        <v>64.946619217081846</v>
-      </c>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J602" s="6">
+        <v>84.464285714285708</v>
+      </c>
+      <c r="K602" s="6">
+        <v>70.446735395188995</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>2024</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C603" s="2">
+      <c r="C603" s="6">
         <v>66.666666666666671</v>
       </c>
-      <c r="D603" s="2">
-        <v>46.666666666666664</v>
+      <c r="D603" s="6">
+        <v>56.944444444444443</v>
       </c>
       <c r="E603" s="1" t="s">
         <v>9</v>
@@ -24567,25 +24890,28 @@
       </c>
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
-      <c r="J603" s="2">
+      <c r="J603" s="6">
         <v>66.666666666666671</v>
       </c>
-      <c r="K603" s="2">
-        <v>46.666666666666664</v>
-      </c>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K603" s="6">
+        <v>56.944444444444443</v>
+      </c>
+      <c r="L603" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>2024</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C604" s="2">
-        <v>82.043795620437947</v>
-      </c>
-      <c r="D604" s="2">
-        <v>64.275037369207766</v>
+      <c r="C604" s="6">
+        <v>84.592145015105743</v>
+      </c>
+      <c r="D604" s="6">
+        <v>70.332850940665708</v>
       </c>
       <c r="E604" s="1" t="s">
         <v>9</v>
@@ -24598,25 +24924,25 @@
       </c>
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
-      <c r="J604" s="2">
-        <v>82.043795620437947</v>
-      </c>
-      <c r="K604" s="2">
-        <v>64.275037369207766</v>
-      </c>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J604" s="6">
+        <v>84.592145015105743</v>
+      </c>
+      <c r="K604" s="6">
+        <v>70.332850940665708</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>2024</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C605" s="2">
-        <v>82.956259426847652</v>
-      </c>
-      <c r="D605" s="2">
-        <v>70.278637770897831</v>
+      <c r="C605" s="6">
+        <v>86.604361370716504</v>
+      </c>
+      <c r="D605" s="6">
+        <v>73.873873873873876</v>
       </c>
       <c r="E605" s="1" t="s">
         <v>9</v>
@@ -24629,25 +24955,25 @@
       </c>
       <c r="H605" s="2"/>
       <c r="I605" s="2"/>
-      <c r="J605" s="2">
-        <v>82.956259426847652</v>
-      </c>
-      <c r="K605" s="2">
-        <v>70.278637770897831</v>
-      </c>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J605" s="6">
+        <v>86.604361370716504</v>
+      </c>
+      <c r="K605" s="6">
+        <v>73.873873873873876</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>2024</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C606" s="2">
-        <v>79.49438202247191</v>
-      </c>
-      <c r="D606" s="2">
-        <v>68.367346938775512</v>
+      <c r="C606" s="6">
+        <v>83.599419448476056</v>
+      </c>
+      <c r="D606" s="6">
+        <v>71.791255289139627</v>
       </c>
       <c r="E606" s="1" t="s">
         <v>9</v>
@@ -24660,25 +24986,25 @@
       </c>
       <c r="H606" s="2"/>
       <c r="I606" s="2"/>
-      <c r="J606" s="2">
-        <v>79.49438202247191</v>
-      </c>
-      <c r="K606" s="2">
-        <v>68.367346938775512</v>
-      </c>
-    </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J606" s="6">
+        <v>83.599419448476056</v>
+      </c>
+      <c r="K606" s="6">
+        <v>71.791255289139627</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>2024</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C607" s="2">
-        <v>75.121163166397409</v>
-      </c>
-      <c r="D607" s="2">
-        <v>64.141414141414145</v>
+      <c r="C607" s="6">
+        <v>79.899497487437188</v>
+      </c>
+      <c r="D607" s="6">
+        <v>70.731707317073173</v>
       </c>
       <c r="E607" s="1" t="s">
         <v>9</v>
@@ -24691,14 +25017,14 @@
       </c>
       <c r="H607" s="2"/>
       <c r="I607" s="2"/>
-      <c r="J607" s="2">
-        <v>75.121163166397409</v>
-      </c>
-      <c r="K607" s="2">
-        <v>64.141414141414145</v>
-      </c>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J607" s="6">
+        <v>79.899497487437188</v>
+      </c>
+      <c r="K607" s="6">
+        <v>70.731707317073173</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>2024</v>
       </c>
@@ -24729,7 +25055,7 @@
         <v>50.55467511885896</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>2024</v>
       </c>
@@ -24760,7 +25086,7 @@
         <v>61.550632911392398</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>2024</v>
       </c>
@@ -24791,7 +25117,7 @@
         <v>71.96819085487077</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>2024</v>
       </c>
@@ -24822,7 +25148,7 @@
         <v>62.945736434108525</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>2024</v>
       </c>
@@ -24853,7 +25179,7 @@
         <v>61.979166666666671</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>2024</v>
       </c>
@@ -24884,7 +25210,7 @@
         <v>66.72597864768683</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>2024</v>
       </c>
@@ -24914,8 +25240,11 @@
       <c r="K614" s="2">
         <v>44.999999999999993</v>
       </c>
-    </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L614" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>2024</v>
       </c>
@@ -24946,7 +25275,7 @@
         <v>62.182361733931238</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>2024</v>
       </c>
@@ -24977,7 +25306,7 @@
         <v>68.217054263565885</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>2024</v>
       </c>
@@ -25008,7 +25337,7 @@
         <v>67.540029112081513</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>2024</v>
       </c>
@@ -25039,7 +25368,7 @@
         <v>62.521008403361343</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>2024</v>
       </c>
@@ -25070,7 +25399,7 @@
         <v>59.692307692307686</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>2024</v>
       </c>
@@ -25101,7 +25430,7 @@
         <v>73.692551505546746</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>2024</v>
       </c>
@@ -25132,7 +25461,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>2024</v>
       </c>
@@ -25163,7 +25492,7 @@
         <v>69.922480620155042</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>2024</v>
       </c>
@@ -25194,7 +25523,7 @@
         <v>69.097222222222214</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>2024</v>
       </c>
@@ -25225,7 +25554,7 @@
         <v>76.827094474153299</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>2024</v>
       </c>
@@ -25255,8 +25584,11 @@
       <c r="K625" s="2">
         <v>79.66101694915254</v>
       </c>
-    </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L625" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>2024</v>
       </c>
@@ -25287,7 +25619,7 @@
         <v>73.134328358208961</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>2024</v>
       </c>
@@ -25318,7 +25650,7 @@
         <v>73.602484472049696</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>2024</v>
       </c>
@@ -25349,7 +25681,7 @@
         <v>75.691411935953425</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>2024</v>
       </c>
@@ -25380,7 +25712,7 @@
         <v>71.333333333333343</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>2024</v>
       </c>
@@ -25411,7 +25743,7 @@
         <v>66.060606060606062</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>2024</v>
       </c>
@@ -25442,7 +25774,7 @@
         <v>75.552050473186114</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>2024</v>
       </c>
@@ -25473,7 +25805,7 @@
         <v>77.839851024208556</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>2024</v>
       </c>
@@ -25504,7 +25836,7 @@
         <v>74.689440993788821</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>2024</v>
       </c>
@@ -25535,7 +25867,7 @@
         <v>72.40773286467487</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>2024</v>
       </c>
@@ -25566,7 +25898,7 @@
         <v>77.22419928825623</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>2024</v>
       </c>
@@ -25596,8 +25928,11 @@
       <c r="K636" s="2">
         <v>87.931034482758619</v>
       </c>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L636" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>2024</v>
       </c>
@@ -25628,7 +25963,7 @@
         <v>72.876304023845009</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>2024</v>
       </c>
@@ -25659,7 +25994,7 @@
         <v>74.767801857585141</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>2024</v>
       </c>
@@ -25690,7 +26025,7 @@
         <v>75.726744186046517</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>2024</v>
       </c>
@@ -25721,20 +26056,301 @@
         <v>71.118530884808024</v>
       </c>
     </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A641" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C641" s="2">
+        <v>94.417862838915468</v>
+      </c>
+      <c r="D641" s="2">
+        <v>85.691823899371073</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F641" s="5">
+        <v>627</v>
+      </c>
+      <c r="G641" s="5">
+        <v>637</v>
+      </c>
+      <c r="H641" s="2"/>
+      <c r="I641" s="2"/>
+      <c r="J641" s="2">
+        <v>94.417862838915468</v>
+      </c>
+      <c r="K641" s="2">
+        <v>85.691823899371073</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A642" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C642" s="2">
+        <v>92.534992223950226</v>
+      </c>
+      <c r="D642" s="2">
+        <v>78.560250391236309</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F642" s="5">
+        <v>643</v>
+      </c>
+      <c r="G642" s="5">
+        <v>640</v>
+      </c>
+      <c r="H642" s="2"/>
+      <c r="I642" s="2"/>
+      <c r="J642" s="2">
+        <v>92.534992223950226</v>
+      </c>
+      <c r="K642" s="2">
+        <v>78.560250391236309</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A643" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C643" s="2">
+        <v>91.795665634674918</v>
+      </c>
+      <c r="D643" s="2">
+        <v>83.591331269349851</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F643" s="5">
+        <v>646</v>
+      </c>
+      <c r="G643" s="5">
+        <v>646</v>
+      </c>
+      <c r="H643" s="2"/>
+      <c r="I643" s="2"/>
+      <c r="J643" s="2">
+        <v>91.795665634674918</v>
+      </c>
+      <c r="K643" s="2">
+        <v>83.591331269349851</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A644" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C644" s="2">
+        <v>89.802130898021318</v>
+      </c>
+      <c r="D644" s="2">
+        <v>80.715396578538105</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F644" s="5">
+        <v>657</v>
+      </c>
+      <c r="G644" s="5">
+        <v>662</v>
+      </c>
+      <c r="H644" s="2"/>
+      <c r="I644" s="2"/>
+      <c r="J644" s="2">
+        <v>89.802130898021318</v>
+      </c>
+      <c r="K644" s="2">
+        <v>80.715396578538105</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A645" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C645" s="2">
+        <v>89.833080424886191</v>
+      </c>
+      <c r="D645" s="2">
+        <v>81.845688350983352</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F645" s="5">
+        <v>660</v>
+      </c>
+      <c r="G645" s="5">
+        <v>661</v>
+      </c>
+      <c r="H645" s="2"/>
+      <c r="I645" s="2"/>
+      <c r="J645" s="2">
+        <v>89.833080424886191</v>
+      </c>
+      <c r="K645" s="2">
+        <v>81.845688350983352</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C646" s="2">
+        <v>89.15094339622641</v>
+      </c>
+      <c r="D646" s="2">
+        <v>83.30781010719754</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F646" s="5">
+        <v>655</v>
+      </c>
+      <c r="G646" s="5">
+        <v>653</v>
+      </c>
+      <c r="H646" s="2"/>
+      <c r="I646" s="2"/>
+      <c r="J646" s="2">
+        <v>89.15094339622641</v>
+      </c>
+      <c r="K646" s="2">
+        <v>83.30781010719754</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C647" s="2">
+        <v>87.869362363919137</v>
+      </c>
+      <c r="D647" s="2">
+        <v>75.705329153605021</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F647" s="5">
+        <v>644</v>
+      </c>
+      <c r="G647" s="5">
+        <v>639</v>
+      </c>
+      <c r="H647" s="2"/>
+      <c r="I647" s="2"/>
+      <c r="J647" s="2">
+        <v>87.869362363919137</v>
+      </c>
+      <c r="K647" s="2">
+        <v>75.705329153605021</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A648" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C648" s="2">
+        <v>85.426356589147289</v>
+      </c>
+      <c r="D648" s="2">
+        <v>82.043343653250773</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F648" s="5">
+        <v>645</v>
+      </c>
+      <c r="G648" s="5">
+        <v>646</v>
+      </c>
+      <c r="H648" s="2"/>
+      <c r="I648" s="2"/>
+      <c r="J648" s="2">
+        <v>85.426356589147289</v>
+      </c>
+      <c r="K648" s="2">
+        <v>82.043343653250773</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A649" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C649" s="2">
+        <v>85.579937304075244</v>
+      </c>
+      <c r="D649" s="2">
+        <v>82.426127527216181</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F649" s="5">
+        <v>638</v>
+      </c>
+      <c r="G649" s="5">
+        <v>644</v>
+      </c>
+      <c r="H649" s="2"/>
+      <c r="I649" s="2"/>
+      <c r="J649" s="2">
+        <v>85.579937304075244</v>
+      </c>
+      <c r="K649" s="2">
+        <v>82.426127527216181</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G640">
     <sortCondition ref="A1:A640"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91360E5-3FAF-4111-9778-F3AC24004057}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:T73"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25804,45 +26420,45 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -25904,7 +26520,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -25964,7 +26580,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -26024,7 +26640,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -26084,7 +26700,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -26144,7 +26760,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -26204,7 +26820,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -26264,7 +26880,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -26324,7 +26940,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -26384,7 +27000,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -26444,7 +27060,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -26504,7 +27120,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -26564,7 +27180,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -26626,7 +27242,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -26686,7 +27302,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -26746,7 +27362,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -26806,7 +27422,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -26866,7 +27482,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -26926,7 +27542,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -26986,7 +27602,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -27046,7 +27662,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -27106,7 +27722,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -27166,7 +27782,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -27226,7 +27842,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -27286,7 +27902,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="7">
         <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -27348,7 +27964,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -27408,7 +28024,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -27468,7 +28084,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
@@ -27528,7 +28144,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
@@ -27588,7 +28204,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -27648,7 +28264,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -27708,7 +28324,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
@@ -27768,7 +28384,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -27828,7 +28444,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
@@ -27888,7 +28504,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
@@ -27948,7 +28564,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -28008,7 +28624,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="7">
         <v>2022</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -28070,7 +28686,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -28130,7 +28746,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -28190,7 +28806,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -28250,7 +28866,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -28310,7 +28926,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -28370,7 +28986,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -28430,7 +29046,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -28490,7 +29106,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
@@ -28550,7 +29166,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
@@ -28610,7 +29226,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
@@ -28670,7 +29286,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -28730,7 +29346,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="7">
         <v>2023</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -28792,7 +29408,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
@@ -28852,7 +29468,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -28912,7 +29528,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
@@ -28972,7 +29588,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
@@ -29032,7 +29648,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -29092,7 +29708,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
@@ -29152,7 +29768,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
@@ -29212,7 +29828,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
@@ -29272,7 +29888,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
@@ -29332,7 +29948,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
@@ -29392,7 +30008,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
@@ -29452,7 +30068,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="8">
         <v>2024</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -29514,7 +30130,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
@@ -29574,7 +30190,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -29634,7 +30250,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
         <v>16</v>
       </c>
@@ -29694,7 +30310,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
@@ -29754,7 +30370,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
@@ -29814,7 +30430,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
@@ -29874,7 +30490,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
@@ -29934,7 +30550,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
@@ -29994,7 +30610,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
@@ -30054,7 +30670,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
@@ -30113,8 +30729,73 @@
         <v>601</v>
       </c>
     </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="5">
+        <v>627</v>
+      </c>
+      <c r="D74" s="5">
+        <v>637</v>
+      </c>
+      <c r="E74" s="5">
+        <v>643</v>
+      </c>
+      <c r="F74" s="5">
+        <v>640</v>
+      </c>
+      <c r="G74" s="5">
+        <v>646</v>
+      </c>
+      <c r="H74" s="5">
+        <v>646</v>
+      </c>
+      <c r="I74" s="5">
+        <v>657</v>
+      </c>
+      <c r="J74" s="5">
+        <v>662</v>
+      </c>
+      <c r="K74" s="5">
+        <v>660</v>
+      </c>
+      <c r="L74" s="5">
+        <v>661</v>
+      </c>
+      <c r="M74" s="5">
+        <v>655</v>
+      </c>
+      <c r="N74" s="5">
+        <v>653</v>
+      </c>
+      <c r="O74" s="5">
+        <v>644</v>
+      </c>
+      <c r="P74" s="5">
+        <v>639</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>645</v>
+      </c>
+      <c r="R74" s="5">
+        <v>646</v>
+      </c>
+      <c r="S74" s="5">
+        <v>638</v>
+      </c>
+      <c r="T74" s="5">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -30125,12 +30806,8 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="A63:A73"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial"&amp;10&amp;KFF8C00 I N T E R N&amp;1#_x000D_</oddHeader>
@@ -30140,26 +30817,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -30414,26 +31071,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30450,4 +31108,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790A9ECB-8B99-459F-B868-587D6F2F5755}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C876AB-F9BE-4E6E-8ED9-5BFE5AB2AA05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="39">
   <si>
     <t>År</t>
   </si>
@@ -153,6 +153,12 @@
   <si>
     <t>OBS*</t>
   </si>
+  <si>
+    <t>Mot Oslo 25</t>
+  </si>
+  <si>
+    <t>Fra Oslo 25</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -257,6 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61B44F-32A1-498F-A001-7F97A32A16A6}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:T2"/>
     </sheetView>
   </sheetViews>
@@ -5152,16 +5159,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:X649"/>
+  <dimension ref="A1:AJ667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L500" sqref="L500"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q648" sqref="Q648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -5201,8 +5210,12 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -25554,7 +25567,7 @@
         <v>76.827094474153299</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>2024</v>
       </c>
@@ -25588,7 +25601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>2024</v>
       </c>
@@ -25619,7 +25632,7 @@
         <v>73.134328358208961</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>2024</v>
       </c>
@@ -25650,7 +25663,7 @@
         <v>73.602484472049696</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>2024</v>
       </c>
@@ -25681,7 +25694,7 @@
         <v>75.691411935953425</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>2024</v>
       </c>
@@ -25711,8 +25724,9 @@
       <c r="K629" s="2">
         <v>71.333333333333343</v>
       </c>
-    </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O629" s="2"/>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>2024</v>
       </c>
@@ -25742,8 +25756,9 @@
       <c r="K630" s="2">
         <v>66.060606060606062</v>
       </c>
-    </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O630" s="2"/>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>2024</v>
       </c>
@@ -25773,8 +25788,9 @@
       <c r="K631" s="2">
         <v>75.552050473186114</v>
       </c>
-    </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O631" s="2"/>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>2024</v>
       </c>
@@ -25804,8 +25820,9 @@
       <c r="K632" s="2">
         <v>77.839851024208556</v>
       </c>
-    </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O632" s="2"/>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>2024</v>
       </c>
@@ -25835,8 +25852,9 @@
       <c r="K633" s="2">
         <v>74.689440993788821</v>
       </c>
-    </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O633" s="2"/>
+    </row>
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>2024</v>
       </c>
@@ -25866,8 +25884,9 @@
       <c r="K634" s="2">
         <v>72.40773286467487</v>
       </c>
-    </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O634" s="2"/>
+    </row>
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>2024</v>
       </c>
@@ -25897,8 +25916,9 @@
       <c r="K635" s="2">
         <v>77.22419928825623</v>
       </c>
-    </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O635" s="2"/>
+    </row>
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>2024</v>
       </c>
@@ -25931,8 +25951,9 @@
       <c r="L636" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O636" s="2"/>
+    </row>
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>2024</v>
       </c>
@@ -25962,8 +25983,9 @@
       <c r="K637" s="2">
         <v>72.876304023845009</v>
       </c>
-    </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O637" s="2"/>
+    </row>
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>2024</v>
       </c>
@@ -25993,8 +26015,9 @@
       <c r="K638" s="2">
         <v>74.767801857585141</v>
       </c>
-    </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O638" s="2"/>
+    </row>
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>2024</v>
       </c>
@@ -26024,8 +26047,9 @@
       <c r="K639" s="2">
         <v>75.726744186046517</v>
       </c>
-    </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O639" s="6"/>
+    </row>
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>2024</v>
       </c>
@@ -26055,8 +26079,9 @@
       <c r="K640" s="2">
         <v>71.118530884808024</v>
       </c>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O640" s="6"/>
+    </row>
+    <row r="641" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A641" s="4">
         <v>2024</v>
       </c>
@@ -26086,8 +26111,9 @@
       <c r="K641" s="2">
         <v>85.691823899371073</v>
       </c>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O641" s="2"/>
+    </row>
+    <row r="642" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A642" s="4">
         <v>2024</v>
       </c>
@@ -26117,8 +26143,9 @@
       <c r="K642" s="2">
         <v>78.560250391236309</v>
       </c>
-    </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O642" s="2"/>
+    </row>
+    <row r="643" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A643" s="4">
         <v>2024</v>
       </c>
@@ -26148,8 +26175,9 @@
       <c r="K643" s="2">
         <v>83.591331269349851</v>
       </c>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O643" s="2"/>
+    </row>
+    <row r="644" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A644" s="4">
         <v>2024</v>
       </c>
@@ -26179,8 +26207,9 @@
       <c r="K644" s="2">
         <v>80.715396578538105</v>
       </c>
-    </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O644" s="2"/>
+    </row>
+    <row r="645" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A645" s="4">
         <v>2024</v>
       </c>
@@ -26210,8 +26239,9 @@
       <c r="K645" s="2">
         <v>81.845688350983352</v>
       </c>
-    </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O645" s="2"/>
+    </row>
+    <row r="646" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A646" s="4">
         <v>2024</v>
       </c>
@@ -26241,8 +26271,9 @@
       <c r="K646" s="2">
         <v>83.30781010719754</v>
       </c>
-    </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O646" s="2"/>
+    </row>
+    <row r="647" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A647" s="4">
         <v>2024</v>
       </c>
@@ -26273,7 +26304,7 @@
         <v>75.705329153605021</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A648" s="4">
         <v>2024</v>
       </c>
@@ -26303,8 +26334,27 @@
       <c r="K648" s="2">
         <v>82.043343653250773</v>
       </c>
-    </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R648" s="10"/>
+      <c r="S648" s="3"/>
+      <c r="T648" s="3"/>
+      <c r="U648" s="3"/>
+      <c r="V648" s="3"/>
+      <c r="W648" s="3"/>
+      <c r="X648" s="3"/>
+      <c r="Y648" s="3"/>
+      <c r="Z648" s="3"/>
+      <c r="AA648" s="3"/>
+      <c r="AB648" s="3"/>
+      <c r="AC648" s="3"/>
+      <c r="AD648" s="3"/>
+      <c r="AE648" s="3"/>
+      <c r="AF648" s="3"/>
+      <c r="AG648" s="3"/>
+      <c r="AH648" s="3"/>
+      <c r="AI648" s="3"/>
+      <c r="AJ648" s="3"/>
+    </row>
+    <row r="649" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A649" s="4">
         <v>2024</v>
       </c>
@@ -26334,6 +26384,295 @@
       <c r="K649" s="2">
         <v>82.426127527216181</v>
       </c>
+    </row>
+    <row r="650" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A650" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B650" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C650" s="2">
+        <v>93.34319526627219</v>
+      </c>
+      <c r="D650" s="2">
+        <v>81.804733727810657</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F650" s="3">
+        <v>676</v>
+      </c>
+      <c r="G650" s="3">
+        <v>694</v>
+      </c>
+      <c r="M650" s="2">
+        <v>93.34319526627219</v>
+      </c>
+      <c r="N650" s="2">
+        <v>81.804733727810657</v>
+      </c>
+    </row>
+    <row r="651" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A651" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B651" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C651" s="2">
+        <v>90.510948905109487</v>
+      </c>
+      <c r="D651" s="2">
+        <v>74.370370370370381</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F651" s="3">
+        <v>686</v>
+      </c>
+      <c r="G651" s="3">
+        <v>684</v>
+      </c>
+      <c r="M651" s="2">
+        <v>90.510948905109487</v>
+      </c>
+      <c r="N651" s="2">
+        <v>74.370370370370381</v>
+      </c>
+    </row>
+    <row r="652" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A652" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B652" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C652" s="2">
+        <v>88.936781609195407</v>
+      </c>
+      <c r="D652" s="2">
+        <v>79.239766081871338</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F652" s="3">
+        <v>696</v>
+      </c>
+      <c r="G652" s="3">
+        <v>692</v>
+      </c>
+      <c r="M652" s="2">
+        <v>88.936781609195407</v>
+      </c>
+      <c r="N652" s="2">
+        <v>79.239766081871338</v>
+      </c>
+    </row>
+    <row r="653" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A653" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B653" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C653" s="2">
+        <v>88.28451882845188</v>
+      </c>
+      <c r="D653" s="2">
+        <v>74.963820549927647</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F653" s="3">
+        <v>718</v>
+      </c>
+      <c r="G653" s="3">
+        <v>714</v>
+      </c>
+      <c r="M653" s="2">
+        <v>88.28451882845188</v>
+      </c>
+      <c r="N653" s="2">
+        <v>74.963820549927647</v>
+      </c>
+    </row>
+    <row r="654" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A654" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B654" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654" s="2">
+        <v>85.793871866295262</v>
+      </c>
+      <c r="D654" s="2">
+        <v>72.829131652661076</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F654" s="3">
+        <v>718</v>
+      </c>
+      <c r="G654" s="3">
+        <v>714</v>
+      </c>
+      <c r="M654" s="2">
+        <v>85.793871866295262</v>
+      </c>
+      <c r="N654" s="2">
+        <v>72.829131652661076</v>
+      </c>
+    </row>
+    <row r="655" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A655" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B655" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C655" s="6">
+        <v>80.406386066763417</v>
+      </c>
+      <c r="D655" s="6">
+        <v>72.331460674157299</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F655" s="3">
+        <v>718</v>
+      </c>
+      <c r="G655" s="3">
+        <v>715</v>
+      </c>
+      <c r="M655" s="6">
+        <v>80.406386066763417</v>
+      </c>
+      <c r="N655" s="6">
+        <v>72.331460674157299</v>
+      </c>
+    </row>
+    <row r="656" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A656" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B656" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C656" s="2">
+        <v>79.856115107913666</v>
+      </c>
+      <c r="D656" s="2">
+        <v>61.32756132756132</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F656" s="3">
+        <v>696</v>
+      </c>
+      <c r="G656" s="3">
+        <v>693</v>
+      </c>
+      <c r="M656" s="2">
+        <v>79.856115107913666</v>
+      </c>
+      <c r="N656" s="2">
+        <v>61.32756132756132</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A657" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B657" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C657" s="2">
+        <v>76.690647482014384</v>
+      </c>
+      <c r="D657" s="2">
+        <v>69.696969696969703</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F657" s="3">
+        <v>695</v>
+      </c>
+      <c r="G657" s="3">
+        <v>693</v>
+      </c>
+      <c r="M657" s="2">
+        <v>76.690647482014384</v>
+      </c>
+      <c r="N657" s="2">
+        <v>69.696969696969703</v>
+      </c>
+    </row>
+    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A658" s="10">
+        <v>2025</v>
+      </c>
+      <c r="B658" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C658" s="2">
+        <v>75.326560232220601</v>
+      </c>
+      <c r="D658" s="2">
+        <v>68.214804063860669</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F658" s="3">
+        <v>689</v>
+      </c>
+      <c r="G658" s="3">
+        <v>689</v>
+      </c>
+      <c r="M658" s="2">
+        <v>75.326560232220601</v>
+      </c>
+      <c r="N658" s="2">
+        <v>68.214804063860669</v>
+      </c>
+    </row>
+    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C659" s="2"/>
+      <c r="M659" s="2"/>
+    </row>
+    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M660" s="6"/>
+    </row>
+    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M661" s="6"/>
+    </row>
+    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M662" s="2"/>
+    </row>
+    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M663" s="2"/>
+    </row>
+    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M664" s="2"/>
+    </row>
+    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M665" s="2"/>
+    </row>
+    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M666" s="2"/>
+    </row>
+    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M667" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -26347,10 +26686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91360E5-3FAF-4111-9778-F3AC24004057}">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:T74"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30789,13 +31128,70 @@
         <v>644</v>
       </c>
     </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="3">
+        <v>676</v>
+      </c>
+      <c r="D75" s="3">
+        <v>694</v>
+      </c>
+      <c r="E75" s="3">
+        <v>686</v>
+      </c>
+      <c r="F75" s="3">
+        <v>684</v>
+      </c>
+      <c r="G75" s="3">
+        <v>696</v>
+      </c>
+      <c r="H75" s="3">
+        <v>692</v>
+      </c>
+      <c r="I75" s="3">
+        <v>718</v>
+      </c>
+      <c r="J75" s="3">
+        <v>714</v>
+      </c>
+      <c r="K75" s="3">
+        <v>718</v>
+      </c>
+      <c r="L75" s="3">
+        <v>714</v>
+      </c>
+      <c r="M75" s="3">
+        <v>718</v>
+      </c>
+      <c r="N75" s="3">
+        <v>715</v>
+      </c>
+      <c r="O75" s="3">
+        <v>696</v>
+      </c>
+      <c r="P75" s="3">
+        <v>693</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>695</v>
+      </c>
+      <c r="R75" s="3">
+        <v>693</v>
+      </c>
+      <c r="S75" s="3">
+        <v>689</v>
+      </c>
+      <c r="T75" s="3">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -30806,6 +31202,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30817,6 +31218,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -31071,27 +31492,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31108,23 +31528,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C876AB-F9BE-4E6E-8ED9-5BFE5AB2AA05}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7DC226E-0C2F-4D21-A497-4A0F20B0319E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="39">
   <si>
     <t>År</t>
   </si>
@@ -5159,10 +5159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ667"/>
+  <dimension ref="A1:AJ676"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q648" sqref="Q648"/>
+    <sheetView tabSelected="1" topLeftCell="A645" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C667" sqref="C667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26334,7 +26334,7 @@
       <c r="K648" s="2">
         <v>82.043343653250773</v>
       </c>
-      <c r="R648" s="10"/>
+      <c r="R648" s="4"/>
       <c r="S648" s="3"/>
       <c r="T648" s="3"/>
       <c r="U648" s="3"/>
@@ -26386,10 +26386,10 @@
       </c>
     </row>
     <row r="650" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A650" s="10">
+      <c r="A650" s="4">
         <v>2025</v>
       </c>
-      <c r="B650" s="10" t="s">
+      <c r="B650" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C650" s="2">
@@ -26415,10 +26415,10 @@
       </c>
     </row>
     <row r="651" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A651" s="10">
+      <c r="A651" s="4">
         <v>2025</v>
       </c>
-      <c r="B651" s="10" t="s">
+      <c r="B651" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C651" s="2">
@@ -26444,10 +26444,10 @@
       </c>
     </row>
     <row r="652" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A652" s="10">
+      <c r="A652" s="4">
         <v>2025</v>
       </c>
-      <c r="B652" s="10" t="s">
+      <c r="B652" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C652" s="2">
@@ -26473,10 +26473,10 @@
       </c>
     </row>
     <row r="653" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A653" s="10">
+      <c r="A653" s="4">
         <v>2025</v>
       </c>
-      <c r="B653" s="10" t="s">
+      <c r="B653" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C653" s="2">
@@ -26502,10 +26502,10 @@
       </c>
     </row>
     <row r="654" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A654" s="10">
+      <c r="A654" s="4">
         <v>2025</v>
       </c>
-      <c r="B654" s="10" t="s">
+      <c r="B654" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C654" s="2">
@@ -26531,10 +26531,10 @@
       </c>
     </row>
     <row r="655" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A655" s="10">
+      <c r="A655" s="4">
         <v>2025</v>
       </c>
-      <c r="B655" s="10" t="s">
+      <c r="B655" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C655" s="6">
@@ -26560,10 +26560,10 @@
       </c>
     </row>
     <row r="656" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A656" s="10">
+      <c r="A656" s="4">
         <v>2025</v>
       </c>
-      <c r="B656" s="10" t="s">
+      <c r="B656" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C656" s="2">
@@ -26589,10 +26589,10 @@
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A657" s="10">
+      <c r="A657" s="4">
         <v>2025</v>
       </c>
-      <c r="B657" s="10" t="s">
+      <c r="B657" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C657" s="2">
@@ -26618,10 +26618,10 @@
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A658" s="10">
+      <c r="A658" s="4">
         <v>2025</v>
       </c>
-      <c r="B658" s="10" t="s">
+      <c r="B658" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C658" s="2">
@@ -26647,32 +26647,323 @@
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C659" s="2"/>
-      <c r="M659" s="2"/>
+      <c r="A659" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B659" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C659" s="2">
+        <v>95.367412140575084</v>
+      </c>
+      <c r="D659" s="2">
+        <v>87.301587301587304</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F659" s="3">
+        <v>626</v>
+      </c>
+      <c r="G659" s="3">
+        <v>638</v>
+      </c>
+      <c r="H659" s="3"/>
+      <c r="I659" s="2"/>
+      <c r="M659" s="2">
+        <v>95.367412140575084</v>
+      </c>
+      <c r="N659" s="2">
+        <v>87.301587301587304</v>
+      </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M660" s="6"/>
+      <c r="A660" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B660" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C660" s="2">
+        <v>93.36492890995261</v>
+      </c>
+      <c r="D660" s="2">
+        <v>80.379746835443044</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F660" s="3">
+        <v>633</v>
+      </c>
+      <c r="G660" s="3">
+        <v>635</v>
+      </c>
+      <c r="H660" s="3"/>
+      <c r="I660" s="2"/>
+      <c r="M660" s="2">
+        <v>93.36492890995261</v>
+      </c>
+      <c r="N660" s="2">
+        <v>80.379746835443044</v>
+      </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M661" s="6"/>
+      <c r="A661" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B661" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C661" s="2">
+        <v>94.173228346456696</v>
+      </c>
+      <c r="D661" s="2">
+        <v>85.308056872037923</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F661" s="3">
+        <v>635</v>
+      </c>
+      <c r="G661" s="3">
+        <v>634</v>
+      </c>
+      <c r="H661" s="3"/>
+      <c r="I661" s="2"/>
+      <c r="M661" s="2">
+        <v>94.173228346456696</v>
+      </c>
+      <c r="N661" s="2">
+        <v>85.308056872037923</v>
+      </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M662" s="2"/>
+      <c r="A662" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B662" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C662" s="2">
+        <v>92.201834862385326</v>
+      </c>
+      <c r="D662" s="2">
+        <v>81.072555205047323</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F662" s="3">
+        <v>654</v>
+      </c>
+      <c r="G662" s="3">
+        <v>654</v>
+      </c>
+      <c r="H662" s="3"/>
+      <c r="I662" s="2"/>
+      <c r="M662" s="2">
+        <v>92.201834862385326</v>
+      </c>
+      <c r="N662" s="2">
+        <v>81.072555205047323</v>
+      </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M663" s="2"/>
+      <c r="A663" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B663" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C663" s="2">
+        <v>90.199081163859105</v>
+      </c>
+      <c r="D663" s="2">
+        <v>79.019908116385906</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F663" s="3">
+        <v>654</v>
+      </c>
+      <c r="G663" s="3">
+        <v>653</v>
+      </c>
+      <c r="H663" s="3"/>
+      <c r="I663" s="2"/>
+      <c r="M663" s="2">
+        <v>90.199081163859105</v>
+      </c>
+      <c r="N663" s="2">
+        <v>79.019908116385906</v>
+      </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M664" s="2"/>
+      <c r="A664" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B664" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C664" s="6">
+        <v>88.801261829653001</v>
+      </c>
+      <c r="D664" s="6">
+        <v>78.407350689127114</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F664" s="3">
+        <v>654</v>
+      </c>
+      <c r="G664" s="3">
+        <v>653</v>
+      </c>
+      <c r="H664" s="3"/>
+      <c r="I664" s="2"/>
+      <c r="M664" s="6">
+        <v>88.801261829653001</v>
+      </c>
+      <c r="N664" s="6">
+        <v>78.407350689127114</v>
+      </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M665" s="2"/>
+      <c r="A665" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B665" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C665" s="2">
+        <v>88.141025641025635</v>
+      </c>
+      <c r="D665" s="2">
+        <v>63.70839936608558</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F665" s="3">
+        <v>626</v>
+      </c>
+      <c r="G665" s="3">
+        <v>631</v>
+      </c>
+      <c r="H665" s="3"/>
+      <c r="I665" s="2"/>
+      <c r="M665" s="2">
+        <v>88.141025641025635</v>
+      </c>
+      <c r="N665" s="2">
+        <v>63.70839936608558</v>
+      </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M666" s="2"/>
+      <c r="A666" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B666" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C666" s="2">
+        <v>84.518167456556085</v>
+      </c>
+      <c r="D666" s="2">
+        <v>68.789808917197462</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F666" s="3">
+        <v>633</v>
+      </c>
+      <c r="G666" s="3">
+        <v>636</v>
+      </c>
+      <c r="H666" s="3"/>
+      <c r="I666" s="2"/>
+      <c r="M666" s="2">
+        <v>84.518167456556085</v>
+      </c>
+      <c r="N666" s="2">
+        <v>68.789808917197462</v>
+      </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M667" s="2"/>
+      <c r="A667" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B667" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C667" s="2">
+        <v>80.568720379146924</v>
+      </c>
+      <c r="D667" s="2">
+        <v>72.527472527472526</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F667" s="3">
+        <v>634</v>
+      </c>
+      <c r="G667" s="3">
+        <v>638</v>
+      </c>
+      <c r="H667" s="3"/>
+      <c r="I667" s="2"/>
+      <c r="M667" s="2">
+        <v>80.568720379146924</v>
+      </c>
+      <c r="N667" s="2">
+        <v>72.527472527472526</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A668" s="4"/>
+      <c r="B668" s="10"/>
+      <c r="H668" s="3"/>
+      <c r="I668" s="2"/>
+    </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A669" s="4"/>
+      <c r="B669" s="10"/>
+      <c r="H669" s="3"/>
+      <c r="I669" s="6"/>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H670" s="3"/>
+      <c r="I670" s="6"/>
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H671" s="3"/>
+      <c r="I671" s="2"/>
+    </row>
+    <row r="672" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H672" s="3"/>
+      <c r="I672" s="2"/>
+    </row>
+    <row r="673" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H673" s="3"/>
+      <c r="I673" s="2"/>
+    </row>
+    <row r="674" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H674" s="3"/>
+      <c r="I674" s="2"/>
+    </row>
+    <row r="675" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H675" s="3"/>
+      <c r="I675" s="2"/>
+    </row>
+    <row r="676" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H676" s="3"/>
+      <c r="I676" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -31132,7 +31423,7 @@
       <c r="A75">
         <v>2025</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="3">
@@ -31192,6 +31483,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -31202,11 +31498,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31218,26 +31509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -31492,26 +31763,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31528,4 +31800,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7DC226E-0C2F-4D21-A497-4A0F20B0319E}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A1597BF-626F-4197-ABC9-963D891AC08B}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="67095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="39">
   <si>
     <t>År</t>
   </si>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -263,7 +263,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,9 +583,9 @@
       <selection activeCell="C2" sqref="C2:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -706,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -768,7 +767,7 @@
         <v>86.656441717791409</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
@@ -830,7 +829,7 @@
         <v>75.597269624573386</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -892,7 +891,7 @@
         <v>86.769230769230759</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
@@ -954,7 +953,7 @@
         <v>86.296296296296291</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>77.10280373831776</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2019</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>81.609195402298852</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2019</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>95.652173913043484</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>73.103448275862064</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>81.170886075949369</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2019</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>82.33438485804416</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>83.255086071987478</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2019</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>85.901639344262293</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2020</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>81.710914454277287</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2020</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>94.514106583072106</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2020</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>96.75</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2020</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>94.863563402889255</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>86.774941995359626</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>90.9967845659164</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2020</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>90.168970814132109</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>89.007633587786259</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>89.263803680981596</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2020</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>90.127388535031855</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2021</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>86.766917293233078</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2021</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>91.047297297297305</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2021</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>93.859649122807014</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2021</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>91.489361702127653</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2021</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>91.489361702127653</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>88.394584139264992</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2021</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2021</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>83.21995464852607</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2021</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>83.904109589041099</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2021</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>84.440842787682328</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2021</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>80.23064250411862</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2021</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>83.061889250814332</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2022</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>83.981337480559873</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2022</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>88.794567062818345</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2022</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>89.955022488755617</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2022</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>80.430107526881727</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2022</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>84.201680672268907</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2022</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>74.367088607594937</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2022</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>85.714285714285722</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2022</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>79.555555555555557</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2022</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>79.904306220095705</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2022</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>82.170542635658919</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2022</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>82.33438485804416</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2022</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>77.652733118971057</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2023</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>72.362555720653788</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2023</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>82.571912013536377</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2023</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>80.362537764350449</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2023</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>81.659388646288207</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2023</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>82.421227197346596</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2023</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>71.641791044776127</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2023</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2023</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>69.615384615384613</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>76.783004552352054</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2023</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>79.969418960244653</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2023</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>82.038834951456309</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2023</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>78.211382113821131</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2024</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>66.060606060606062</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2024</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>75.552050473186114</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2024</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>77.839851024208556</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2024</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>74.689440993788821</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2024</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>72.40773286467487</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2024</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>77.22419928825623</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2024</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>87.931034482758619</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2024</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>72.876304023845009</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2024</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>74.767801857585141</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2024</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>75.726744186046517</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2024</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>71.118530884808024</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>2024</v>
       </c>
@@ -5161,19 +5160,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
   <dimension ref="A1:AJ676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C667" sqref="C667"/>
+    <sheetView tabSelected="1" topLeftCell="A653" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H676" sqref="H676"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5226,7 +5225,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
@@ -5269,7 +5268,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -5312,7 +5311,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
@@ -5355,7 +5354,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -5398,7 +5397,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2019</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -5484,7 +5483,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2019</v>
       </c>
@@ -5529,7 +5528,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2019</v>
       </c>
@@ -5572,7 +5571,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
@@ -5615,7 +5614,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
@@ -5658,7 +5657,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2019</v>
       </c>
@@ -5701,7 +5700,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
@@ -5744,7 +5743,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2019</v>
       </c>
@@ -5787,7 +5786,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
@@ -5830,7 +5829,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2019</v>
       </c>
@@ -5873,7 +5872,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2019</v>
       </c>
@@ -5916,7 +5915,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2019</v>
       </c>
@@ -5959,7 +5958,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -6002,7 +6001,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2019</v>
       </c>
@@ -6047,7 +6046,7 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -6090,7 +6089,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2019</v>
       </c>
@@ -6133,7 +6132,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -6176,7 +6175,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2019</v>
       </c>
@@ -6219,7 +6218,7 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2019</v>
       </c>
@@ -6262,7 +6261,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2019</v>
       </c>
@@ -6305,7 +6304,7 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2019</v>
       </c>
@@ -6348,7 +6347,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2019</v>
       </c>
@@ -6391,7 +6390,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2019</v>
       </c>
@@ -6434,7 +6433,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -6477,7 +6476,7 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2019</v>
       </c>
@@ -6520,7 +6519,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2019</v>
       </c>
@@ -6565,7 +6564,7 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2019</v>
       </c>
@@ -6608,7 +6607,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2019</v>
       </c>
@@ -6651,7 +6650,7 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2019</v>
       </c>
@@ -6694,7 +6693,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2019</v>
       </c>
@@ -6737,7 +6736,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2019</v>
       </c>
@@ -6780,7 +6779,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2019</v>
       </c>
@@ -6823,7 +6822,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2019</v>
       </c>
@@ -6866,7 +6865,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2019</v>
       </c>
@@ -6909,7 +6908,7 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2019</v>
       </c>
@@ -6952,7 +6951,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2019</v>
       </c>
@@ -6995,7 +6994,7 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2019</v>
       </c>
@@ -7038,7 +7037,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2019</v>
       </c>
@@ -7083,7 +7082,7 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2019</v>
       </c>
@@ -7126,7 +7125,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2019</v>
       </c>
@@ -7169,7 +7168,7 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2019</v>
       </c>
@@ -7212,7 +7211,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2019</v>
       </c>
@@ -7255,7 +7254,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2019</v>
       </c>
@@ -7298,7 +7297,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2019</v>
       </c>
@@ -7341,7 +7340,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2019</v>
       </c>
@@ -7384,7 +7383,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2019</v>
       </c>
@@ -7427,7 +7426,7 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2019</v>
       </c>
@@ -7470,7 +7469,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2019</v>
       </c>
@@ -7513,7 +7512,7 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -7556,7 +7555,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2019</v>
       </c>
@@ -7601,7 +7600,7 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2019</v>
       </c>
@@ -7644,7 +7643,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2019</v>
       </c>
@@ -7687,7 +7686,7 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2019</v>
       </c>
@@ -7730,7 +7729,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2019</v>
       </c>
@@ -7773,7 +7772,7 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2019</v>
       </c>
@@ -7816,7 +7815,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2019</v>
       </c>
@@ -7859,7 +7858,7 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2019</v>
       </c>
@@ -7902,7 +7901,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2019</v>
       </c>
@@ -7945,7 +7944,7 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2019</v>
       </c>
@@ -7988,7 +7987,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2019</v>
       </c>
@@ -8031,7 +8030,7 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2019</v>
       </c>
@@ -8074,7 +8073,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2019</v>
       </c>
@@ -8119,7 +8118,7 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2019</v>
       </c>
@@ -8162,7 +8161,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2019</v>
       </c>
@@ -8205,7 +8204,7 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2019</v>
       </c>
@@ -8248,7 +8247,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2019</v>
       </c>
@@ -8291,7 +8290,7 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2019</v>
       </c>
@@ -8322,7 +8321,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2019</v>
       </c>
@@ -8353,7 +8352,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2019</v>
       </c>
@@ -8384,7 +8383,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2019</v>
       </c>
@@ -8415,7 +8414,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2019</v>
       </c>
@@ -8446,7 +8445,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2019</v>
       </c>
@@ -8477,7 +8476,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2019</v>
       </c>
@@ -8508,7 +8507,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2019</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2019</v>
       </c>
@@ -8573,7 +8572,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2019</v>
       </c>
@@ -8604,7 +8603,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2019</v>
       </c>
@@ -8635,7 +8634,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2019</v>
       </c>
@@ -8666,7 +8665,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2019</v>
       </c>
@@ -8697,7 +8696,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2019</v>
       </c>
@@ -8728,7 +8727,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2019</v>
       </c>
@@ -8759,7 +8758,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2019</v>
       </c>
@@ -8790,7 +8789,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2019</v>
       </c>
@@ -8821,7 +8820,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2019</v>
       </c>
@@ -8852,7 +8851,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2019</v>
       </c>
@@ -8883,7 +8882,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2019</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2019</v>
       </c>
@@ -8948,7 +8947,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2019</v>
       </c>
@@ -8979,7 +8978,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2019</v>
       </c>
@@ -9010,7 +9009,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2019</v>
       </c>
@@ -9041,7 +9040,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2019</v>
       </c>
@@ -9072,7 +9071,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2019</v>
       </c>
@@ -9103,7 +9102,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2019</v>
       </c>
@@ -9134,7 +9133,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2019</v>
       </c>
@@ -9165,7 +9164,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2019</v>
       </c>
@@ -9196,7 +9195,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2019</v>
       </c>
@@ -9227,7 +9226,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2019</v>
       </c>
@@ -9258,7 +9257,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2019</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2019</v>
       </c>
@@ -9323,7 +9322,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2019</v>
       </c>
@@ -9354,7 +9353,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2019</v>
       </c>
@@ -9385,7 +9384,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2019</v>
       </c>
@@ -9416,7 +9415,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2019</v>
       </c>
@@ -9447,7 +9446,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2020</v>
       </c>
@@ -9478,7 +9477,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2020</v>
       </c>
@@ -9509,7 +9508,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2020</v>
       </c>
@@ -9540,7 +9539,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2020</v>
       </c>
@@ -9571,7 +9570,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2020</v>
       </c>
@@ -9602,7 +9601,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2020</v>
       </c>
@@ -9633,7 +9632,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2020</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2020</v>
       </c>
@@ -9698,7 +9697,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2020</v>
       </c>
@@ -9729,7 +9728,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2020</v>
       </c>
@@ -9760,7 +9759,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2020</v>
       </c>
@@ -9791,7 +9790,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2020</v>
       </c>
@@ -9822,7 +9821,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2020</v>
       </c>
@@ -9853,7 +9852,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2020</v>
       </c>
@@ -9884,7 +9883,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2020</v>
       </c>
@@ -9915,7 +9914,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2020</v>
       </c>
@@ -9946,7 +9945,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2020</v>
       </c>
@@ -9977,7 +9976,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2020</v>
       </c>
@@ -10008,7 +10007,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2020</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2020</v>
       </c>
@@ -10073,7 +10072,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2020</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2020</v>
       </c>
@@ -10135,7 +10134,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2020</v>
       </c>
@@ -10166,7 +10165,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2020</v>
       </c>
@@ -10197,7 +10196,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2020</v>
       </c>
@@ -10228,7 +10227,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2020</v>
       </c>
@@ -10259,7 +10258,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2020</v>
       </c>
@@ -10290,7 +10289,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2020</v>
       </c>
@@ -10321,7 +10320,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2020</v>
       </c>
@@ -10352,7 +10351,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2020</v>
       </c>
@@ -10383,7 +10382,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2020</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2020</v>
       </c>
@@ -10448,7 +10447,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2020</v>
       </c>
@@ -10479,7 +10478,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2020</v>
       </c>
@@ -10510,7 +10509,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2020</v>
       </c>
@@ -10541,7 +10540,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2020</v>
       </c>
@@ -10572,7 +10571,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2020</v>
       </c>
@@ -10603,7 +10602,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2020</v>
       </c>
@@ -10634,7 +10633,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2020</v>
       </c>
@@ -10665,7 +10664,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2020</v>
       </c>
@@ -10696,7 +10695,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2020</v>
       </c>
@@ -10727,7 +10726,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2020</v>
       </c>
@@ -10758,7 +10757,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2020</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2020</v>
       </c>
@@ -10823,7 +10822,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2020</v>
       </c>
@@ -10854,7 +10853,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2020</v>
       </c>
@@ -10885,7 +10884,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2020</v>
       </c>
@@ -10916,7 +10915,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2020</v>
       </c>
@@ -10947,7 +10946,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2020</v>
       </c>
@@ -10978,7 +10977,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2020</v>
       </c>
@@ -11009,7 +11008,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2020</v>
       </c>
@@ -11040,7 +11039,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2020</v>
       </c>
@@ -11071,7 +11070,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2020</v>
       </c>
@@ -11102,7 +11101,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2020</v>
       </c>
@@ -11133,7 +11132,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2020</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2020</v>
       </c>
@@ -11198,7 +11197,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2020</v>
       </c>
@@ -11229,7 +11228,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2020</v>
       </c>
@@ -11260,7 +11259,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2020</v>
       </c>
@@ -11291,7 +11290,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2020</v>
       </c>
@@ -11322,7 +11321,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2020</v>
       </c>
@@ -11353,7 +11352,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2020</v>
       </c>
@@ -11384,7 +11383,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2020</v>
       </c>
@@ -11415,7 +11414,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2020</v>
       </c>
@@ -11446,7 +11445,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2020</v>
       </c>
@@ -11477,7 +11476,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2020</v>
       </c>
@@ -11509,7 +11508,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2020</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2020</v>
       </c>
@@ -11574,7 +11573,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2020</v>
       </c>
@@ -11605,7 +11604,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2020</v>
       </c>
@@ -11636,7 +11635,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2020</v>
       </c>
@@ -11667,7 +11666,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2020</v>
       </c>
@@ -11698,7 +11697,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2020</v>
       </c>
@@ -11729,7 +11728,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2020</v>
       </c>
@@ -11760,7 +11759,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2020</v>
       </c>
@@ -11791,7 +11790,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2020</v>
       </c>
@@ -11822,7 +11821,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2020</v>
       </c>
@@ -11853,7 +11852,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2020</v>
       </c>
@@ -11884,7 +11883,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2020</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2020</v>
       </c>
@@ -11949,7 +11948,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2020</v>
       </c>
@@ -11980,7 +11979,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2020</v>
       </c>
@@ -12011,7 +12010,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2020</v>
       </c>
@@ -12042,7 +12041,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2020</v>
       </c>
@@ -12073,7 +12072,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2020</v>
       </c>
@@ -12104,7 +12103,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2020</v>
       </c>
@@ -12135,7 +12134,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2020</v>
       </c>
@@ -12166,7 +12165,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2020</v>
       </c>
@@ -12197,7 +12196,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2020</v>
       </c>
@@ -12228,7 +12227,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2020</v>
       </c>
@@ -12259,7 +12258,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2020</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2020</v>
       </c>
@@ -12324,7 +12323,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2020</v>
       </c>
@@ -12355,7 +12354,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2020</v>
       </c>
@@ -12386,7 +12385,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2020</v>
       </c>
@@ -12417,7 +12416,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2020</v>
       </c>
@@ -12448,7 +12447,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2020</v>
       </c>
@@ -12479,7 +12478,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2020</v>
       </c>
@@ -12510,7 +12509,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2020</v>
       </c>
@@ -12541,7 +12540,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2020</v>
       </c>
@@ -12572,7 +12571,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2020</v>
       </c>
@@ -12603,7 +12602,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2020</v>
       </c>
@@ -12634,7 +12633,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2020</v>
       </c>
@@ -12668,7 +12667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2020</v>
       </c>
@@ -12699,7 +12698,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2020</v>
       </c>
@@ -12730,7 +12729,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2020</v>
       </c>
@@ -12761,7 +12760,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2020</v>
       </c>
@@ -12792,7 +12791,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2020</v>
       </c>
@@ -12823,7 +12822,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2021</v>
       </c>
@@ -12854,7 +12853,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2021</v>
       </c>
@@ -12885,7 +12884,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2021</v>
       </c>
@@ -12916,7 +12915,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2021</v>
       </c>
@@ -12947,7 +12946,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2021</v>
       </c>
@@ -12978,7 +12977,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2021</v>
       </c>
@@ -13009,7 +13008,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2021</v>
       </c>
@@ -13043,7 +13042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2021</v>
       </c>
@@ -13066,7 +13065,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2021</v>
       </c>
@@ -13097,7 +13096,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2021</v>
       </c>
@@ -13128,7 +13127,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2021</v>
       </c>
@@ -13159,7 +13158,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2021</v>
       </c>
@@ -13190,7 +13189,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2021</v>
       </c>
@@ -13221,7 +13220,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2021</v>
       </c>
@@ -13252,7 +13251,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2021</v>
       </c>
@@ -13283,7 +13282,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2021</v>
       </c>
@@ -13314,7 +13313,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2021</v>
       </c>
@@ -13345,7 +13344,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2021</v>
       </c>
@@ -13376,7 +13375,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2021</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2021</v>
       </c>
@@ -13433,7 +13432,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2021</v>
       </c>
@@ -13464,7 +13463,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2021</v>
       </c>
@@ -13495,7 +13494,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2021</v>
       </c>
@@ -13526,7 +13525,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2021</v>
       </c>
@@ -13557,7 +13556,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2021</v>
       </c>
@@ -13588,7 +13587,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2021</v>
       </c>
@@ -13619,7 +13618,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2021</v>
       </c>
@@ -13650,7 +13649,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2021</v>
       </c>
@@ -13681,7 +13680,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2021</v>
       </c>
@@ -13712,7 +13711,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2021</v>
       </c>
@@ -13743,7 +13742,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2021</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2021</v>
       </c>
@@ -13800,7 +13799,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2021</v>
       </c>
@@ -13831,7 +13830,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2021</v>
       </c>
@@ -13862,7 +13861,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2021</v>
       </c>
@@ -13893,7 +13892,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>2021</v>
       </c>
@@ -13924,7 +13923,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2021</v>
       </c>
@@ -13955,7 +13954,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2021</v>
       </c>
@@ -13986,7 +13985,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2021</v>
       </c>
@@ -14017,7 +14016,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2021</v>
       </c>
@@ -14048,7 +14047,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2021</v>
       </c>
@@ -14079,7 +14078,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2021</v>
       </c>
@@ -14110,7 +14109,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2021</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>2021</v>
       </c>
@@ -14167,7 +14166,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2021</v>
       </c>
@@ -14198,7 +14197,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2021</v>
       </c>
@@ -14229,7 +14228,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>2021</v>
       </c>
@@ -14260,7 +14259,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2021</v>
       </c>
@@ -14291,7 +14290,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2021</v>
       </c>
@@ -14322,7 +14321,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2021</v>
       </c>
@@ -14353,7 +14352,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2021</v>
       </c>
@@ -14384,7 +14383,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2021</v>
       </c>
@@ -14415,7 +14414,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2021</v>
       </c>
@@ -14446,7 +14445,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2021</v>
       </c>
@@ -14477,7 +14476,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2021</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2021</v>
       </c>
@@ -14534,7 +14533,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2021</v>
       </c>
@@ -14565,7 +14564,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2021</v>
       </c>
@@ -14596,7 +14595,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2021</v>
       </c>
@@ -14627,7 +14626,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2021</v>
       </c>
@@ -14658,7 +14657,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2021</v>
       </c>
@@ -14690,7 +14689,7 @@
       <c r="K278" s="2"/>
       <c r="X278" s="6"/>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2021</v>
       </c>
@@ -14722,7 +14721,7 @@
       <c r="K279" s="2"/>
       <c r="X279" s="6"/>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2021</v>
       </c>
@@ -14754,7 +14753,7 @@
       <c r="K280" s="2"/>
       <c r="X280" s="6"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2021</v>
       </c>
@@ -14786,7 +14785,7 @@
       <c r="K281" s="2"/>
       <c r="X281" s="6"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2021</v>
       </c>
@@ -14818,7 +14817,7 @@
       <c r="K282" s="2"/>
       <c r="X282" s="6"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2021</v>
       </c>
@@ -14850,7 +14849,7 @@
       <c r="K283" s="2"/>
       <c r="X283" s="6"/>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2021</v>
       </c>
@@ -14885,7 +14884,7 @@
       </c>
       <c r="X284" s="6"/>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2021</v>
       </c>
@@ -14913,7 +14912,7 @@
       <c r="K285" s="2"/>
       <c r="X285" s="6"/>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>2021</v>
       </c>
@@ -14945,7 +14944,7 @@
       <c r="K286" s="2"/>
       <c r="X286" s="6"/>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2021</v>
       </c>
@@ -14977,7 +14976,7 @@
       <c r="K287" s="2"/>
       <c r="X287" s="6"/>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2021</v>
       </c>
@@ -15009,7 +15008,7 @@
       <c r="K288" s="2"/>
       <c r="X288" s="6"/>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2021</v>
       </c>
@@ -15041,7 +15040,7 @@
       <c r="K289" s="2"/>
       <c r="X289" s="6"/>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2021</v>
       </c>
@@ -15073,7 +15072,7 @@
       <c r="K290" s="2"/>
       <c r="X290" s="6"/>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2021</v>
       </c>
@@ -15105,7 +15104,7 @@
       <c r="K291" s="2"/>
       <c r="X291" s="6"/>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2021</v>
       </c>
@@ -15137,7 +15136,7 @@
       <c r="K292" s="2"/>
       <c r="X292" s="6"/>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2021</v>
       </c>
@@ -15169,7 +15168,7 @@
       <c r="K293" s="2"/>
       <c r="X293" s="6"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2021</v>
       </c>
@@ -15201,7 +15200,7 @@
       <c r="K294" s="2"/>
       <c r="X294" s="6"/>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2021</v>
       </c>
@@ -15233,7 +15232,7 @@
       <c r="K295" s="2"/>
       <c r="X295" s="6"/>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2021</v>
       </c>
@@ -15268,7 +15267,7 @@
       </c>
       <c r="X296" s="6"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2021</v>
       </c>
@@ -15300,7 +15299,7 @@
       <c r="K297" s="2"/>
       <c r="X297" s="6"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2021</v>
       </c>
@@ -15332,7 +15331,7 @@
       <c r="K298" s="2"/>
       <c r="X298" s="6"/>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2021</v>
       </c>
@@ -15364,7 +15363,7 @@
       <c r="K299" s="2"/>
       <c r="X299" s="6"/>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2021</v>
       </c>
@@ -15396,7 +15395,7 @@
       <c r="K300" s="2"/>
       <c r="X300" s="6"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2021</v>
       </c>
@@ -15428,7 +15427,7 @@
       <c r="K301" s="2"/>
       <c r="X301" s="6"/>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>2021</v>
       </c>
@@ -15460,7 +15459,7 @@
       <c r="K302" s="2"/>
       <c r="X302" s="6"/>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2021</v>
       </c>
@@ -15492,7 +15491,7 @@
       <c r="K303" s="2"/>
       <c r="X303" s="6"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2021</v>
       </c>
@@ -15524,7 +15523,7 @@
       <c r="K304" s="2"/>
       <c r="X304" s="6"/>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2021</v>
       </c>
@@ -15556,7 +15555,7 @@
       <c r="K305" s="2"/>
       <c r="X305" s="6"/>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2021</v>
       </c>
@@ -15588,7 +15587,7 @@
       <c r="K306" s="2"/>
       <c r="X306" s="6"/>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2021</v>
       </c>
@@ -15620,7 +15619,7 @@
       <c r="K307" s="2"/>
       <c r="X307" s="6"/>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2021</v>
       </c>
@@ -15655,7 +15654,7 @@
       </c>
       <c r="X308" s="6"/>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2021</v>
       </c>
@@ -15687,7 +15686,7 @@
       <c r="K309" s="2"/>
       <c r="X309" s="6"/>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2021</v>
       </c>
@@ -15719,7 +15718,7 @@
       <c r="K310" s="2"/>
       <c r="X310" s="6"/>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2021</v>
       </c>
@@ -15751,7 +15750,7 @@
       <c r="K311" s="2"/>
       <c r="X311" s="6"/>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2021</v>
       </c>
@@ -15783,7 +15782,7 @@
       <c r="K312" s="2"/>
       <c r="X312" s="6"/>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2021</v>
       </c>
@@ -15815,7 +15814,7 @@
       <c r="K313" s="2"/>
       <c r="X313" s="6"/>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2021</v>
       </c>
@@ -15847,7 +15846,7 @@
       <c r="K314" s="2"/>
       <c r="X314" s="6"/>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2021</v>
       </c>
@@ -15879,7 +15878,7 @@
       <c r="K315" s="2"/>
       <c r="X315" s="6"/>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2021</v>
       </c>
@@ -15911,7 +15910,7 @@
       <c r="K316" s="2"/>
       <c r="X316" s="6"/>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2021</v>
       </c>
@@ -15943,7 +15942,7 @@
       <c r="K317" s="2"/>
       <c r="X317" s="6"/>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2021</v>
       </c>
@@ -15975,7 +15974,7 @@
       <c r="K318" s="2"/>
       <c r="X318" s="6"/>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2021</v>
       </c>
@@ -16007,7 +16006,7 @@
       <c r="K319" s="2"/>
       <c r="X319" s="6"/>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2021</v>
       </c>
@@ -16042,7 +16041,7 @@
       </c>
       <c r="X320" s="6"/>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>2021</v>
       </c>
@@ -16074,7 +16073,7 @@
       <c r="K321" s="2"/>
       <c r="X321" s="6"/>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>2021</v>
       </c>
@@ -16106,7 +16105,7 @@
       <c r="K322" s="2"/>
       <c r="X322" s="6"/>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2021</v>
       </c>
@@ -16138,7 +16137,7 @@
       <c r="K323" s="2"/>
       <c r="X323" s="6"/>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2021</v>
       </c>
@@ -16170,7 +16169,7 @@
       <c r="K324" s="2"/>
       <c r="X324" s="6"/>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>2021</v>
       </c>
@@ -16202,7 +16201,7 @@
       <c r="K325" s="2"/>
       <c r="X325" s="6"/>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2022</v>
       </c>
@@ -16234,7 +16233,7 @@
       <c r="K326" s="2"/>
       <c r="X326" s="6"/>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2022</v>
       </c>
@@ -16266,7 +16265,7 @@
       <c r="K327" s="2"/>
       <c r="X327" s="6"/>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>2022</v>
       </c>
@@ -16298,7 +16297,7 @@
       <c r="K328" s="2"/>
       <c r="X328" s="6"/>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2022</v>
       </c>
@@ -16330,7 +16329,7 @@
       <c r="K329" s="2"/>
       <c r="X329" s="6"/>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2022</v>
       </c>
@@ -16362,7 +16361,7 @@
       <c r="K330" s="2"/>
       <c r="X330" s="6"/>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>2022</v>
       </c>
@@ -16394,7 +16393,7 @@
       <c r="K331" s="2"/>
       <c r="X331" s="6"/>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>2022</v>
       </c>
@@ -16429,7 +16428,7 @@
       </c>
       <c r="X332" s="6"/>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2022</v>
       </c>
@@ -16461,7 +16460,7 @@
       <c r="K333" s="2"/>
       <c r="X333" s="6"/>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>2022</v>
       </c>
@@ -16493,7 +16492,7 @@
       <c r="K334" s="2"/>
       <c r="X334" s="6"/>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2022</v>
       </c>
@@ -16525,7 +16524,7 @@
       <c r="K335" s="2"/>
       <c r="X335" s="6"/>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2022</v>
       </c>
@@ -16557,7 +16556,7 @@
       <c r="K336" s="2"/>
       <c r="X336" s="6"/>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2022</v>
       </c>
@@ -16589,7 +16588,7 @@
       <c r="K337" s="2"/>
       <c r="X337" s="6"/>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2022</v>
       </c>
@@ -16621,7 +16620,7 @@
       <c r="K338" s="2"/>
       <c r="X338" s="6"/>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2022</v>
       </c>
@@ -16653,7 +16652,7 @@
       <c r="K339" s="2"/>
       <c r="X339" s="6"/>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>2022</v>
       </c>
@@ -16685,7 +16684,7 @@
       <c r="K340" s="2"/>
       <c r="X340" s="6"/>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>2022</v>
       </c>
@@ -16717,7 +16716,7 @@
       <c r="K341" s="2"/>
       <c r="X341" s="6"/>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>2022</v>
       </c>
@@ -16749,7 +16748,7 @@
       <c r="K342" s="2"/>
       <c r="X342" s="6"/>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>2022</v>
       </c>
@@ -16781,7 +16780,7 @@
       <c r="K343" s="2"/>
       <c r="X343" s="6"/>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>2022</v>
       </c>
@@ -16816,7 +16815,7 @@
       </c>
       <c r="X344" s="6"/>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>2022</v>
       </c>
@@ -16848,7 +16847,7 @@
       <c r="K345" s="2"/>
       <c r="X345" s="6"/>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>2022</v>
       </c>
@@ -16880,7 +16879,7 @@
       <c r="K346" s="2"/>
       <c r="X346" s="6"/>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2022</v>
       </c>
@@ -16912,7 +16911,7 @@
       <c r="K347" s="2"/>
       <c r="X347" s="6"/>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2022</v>
       </c>
@@ -16944,7 +16943,7 @@
       <c r="K348" s="2"/>
       <c r="X348" s="6"/>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2022</v>
       </c>
@@ -16975,7 +16974,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>2022</v>
       </c>
@@ -17006,7 +17005,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>2022</v>
       </c>
@@ -17037,7 +17036,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2022</v>
       </c>
@@ -17068,7 +17067,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>2022</v>
       </c>
@@ -17099,7 +17098,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>2022</v>
       </c>
@@ -17130,7 +17129,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>2022</v>
       </c>
@@ -17161,7 +17160,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2022</v>
       </c>
@@ -17195,7 +17194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>2022</v>
       </c>
@@ -17226,7 +17225,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2022</v>
       </c>
@@ -17257,7 +17256,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2022</v>
       </c>
@@ -17288,7 +17287,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2022</v>
       </c>
@@ -17319,7 +17318,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2022</v>
       </c>
@@ -17350,7 +17349,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2022</v>
       </c>
@@ -17381,7 +17380,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>2022</v>
       </c>
@@ -17412,7 +17411,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2022</v>
       </c>
@@ -17443,7 +17442,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2022</v>
       </c>
@@ -17474,7 +17473,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2022</v>
       </c>
@@ -17505,7 +17504,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2022</v>
       </c>
@@ -17536,7 +17535,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2022</v>
       </c>
@@ -17570,7 +17569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2022</v>
       </c>
@@ -17601,7 +17600,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>2022</v>
       </c>
@@ -17632,7 +17631,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>2022</v>
       </c>
@@ -17663,7 +17662,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>2022</v>
       </c>
@@ -17694,7 +17693,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>2022</v>
       </c>
@@ -17725,7 +17724,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2022</v>
       </c>
@@ -17756,7 +17755,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2022</v>
       </c>
@@ -17787,7 +17786,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2022</v>
       </c>
@@ -17818,7 +17817,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2022</v>
       </c>
@@ -17849,7 +17848,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2022</v>
       </c>
@@ -17880,7 +17879,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2022</v>
       </c>
@@ -17911,7 +17910,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2022</v>
       </c>
@@ -17945,7 +17944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2022</v>
       </c>
@@ -17976,7 +17975,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2022</v>
       </c>
@@ -18007,7 +18006,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>2022</v>
       </c>
@@ -18038,7 +18037,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2022</v>
       </c>
@@ -18069,7 +18068,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>2022</v>
       </c>
@@ -18100,7 +18099,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>2022</v>
       </c>
@@ -18131,7 +18130,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>2022</v>
       </c>
@@ -18162,7 +18161,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>2022</v>
       </c>
@@ -18193,7 +18192,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>2022</v>
       </c>
@@ -18224,7 +18223,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>2022</v>
       </c>
@@ -18255,7 +18254,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>2022</v>
       </c>
@@ -18286,7 +18285,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>2022</v>
       </c>
@@ -18320,7 +18319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>2022</v>
       </c>
@@ -18351,7 +18350,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>2022</v>
       </c>
@@ -18382,7 +18381,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2022</v>
       </c>
@@ -18413,7 +18412,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2022</v>
       </c>
@@ -18444,7 +18443,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>2022</v>
       </c>
@@ -18475,7 +18474,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2022</v>
       </c>
@@ -18506,7 +18505,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>2022</v>
       </c>
@@ -18537,7 +18536,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2022</v>
       </c>
@@ -18568,7 +18567,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>2022</v>
       </c>
@@ -18599,7 +18598,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>2022</v>
       </c>
@@ -18630,7 +18629,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>2022</v>
       </c>
@@ -18661,7 +18660,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>2022</v>
       </c>
@@ -18695,7 +18694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>2022</v>
       </c>
@@ -18726,7 +18725,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>2022</v>
       </c>
@@ -18757,7 +18756,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>2022</v>
       </c>
@@ -18788,7 +18787,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>2022</v>
       </c>
@@ -18819,7 +18818,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>2022</v>
       </c>
@@ -18850,7 +18849,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>2022</v>
       </c>
@@ -18881,7 +18880,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>2022</v>
       </c>
@@ -18912,7 +18911,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>2022</v>
       </c>
@@ -18943,7 +18942,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>2022</v>
       </c>
@@ -18974,7 +18973,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>2022</v>
       </c>
@@ -19005,7 +19004,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>2022</v>
       </c>
@@ -19036,7 +19035,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>2022</v>
       </c>
@@ -19070,7 +19069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>2022</v>
       </c>
@@ -19101,7 +19100,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>2022</v>
       </c>
@@ -19132,7 +19131,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>2022</v>
       </c>
@@ -19163,7 +19162,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>2022</v>
       </c>
@@ -19194,7 +19193,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>2022</v>
       </c>
@@ -19225,7 +19224,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>2022</v>
       </c>
@@ -19256,7 +19255,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>2022</v>
       </c>
@@ -19287,7 +19286,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>2022</v>
       </c>
@@ -19318,7 +19317,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>2022</v>
       </c>
@@ -19349,7 +19348,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>2022</v>
       </c>
@@ -19380,7 +19379,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>2022</v>
       </c>
@@ -19411,7 +19410,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>2022</v>
       </c>
@@ -19445,7 +19444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>2022</v>
       </c>
@@ -19476,7 +19475,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>2022</v>
       </c>
@@ -19507,7 +19506,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>2022</v>
       </c>
@@ -19538,7 +19537,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>2022</v>
       </c>
@@ -19569,7 +19568,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>2022</v>
       </c>
@@ -19600,7 +19599,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>2023</v>
       </c>
@@ -19631,7 +19630,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>2023</v>
       </c>
@@ -19662,7 +19661,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>2023</v>
       </c>
@@ -19693,7 +19692,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>2023</v>
       </c>
@@ -19724,7 +19723,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>2023</v>
       </c>
@@ -19755,7 +19754,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>2023</v>
       </c>
@@ -19786,7 +19785,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>2023</v>
       </c>
@@ -19820,7 +19819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>2023</v>
       </c>
@@ -19851,7 +19850,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>2023</v>
       </c>
@@ -19882,7 +19881,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>2023</v>
       </c>
@@ -19913,7 +19912,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>2023</v>
       </c>
@@ -19944,7 +19943,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>2023</v>
       </c>
@@ -19975,7 +19974,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>2023</v>
       </c>
@@ -20006,7 +20005,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>2023</v>
       </c>
@@ -20037,7 +20036,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>2023</v>
       </c>
@@ -20068,7 +20067,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>2023</v>
       </c>
@@ -20099,7 +20098,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>2023</v>
       </c>
@@ -20130,7 +20129,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>2023</v>
       </c>
@@ -20161,7 +20160,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>2023</v>
       </c>
@@ -20195,7 +20194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>2023</v>
       </c>
@@ -20226,7 +20225,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>2023</v>
       </c>
@@ -20257,7 +20256,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>2023</v>
       </c>
@@ -20288,7 +20287,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>2023</v>
       </c>
@@ -20319,7 +20318,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>2023</v>
       </c>
@@ -20350,7 +20349,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>2023</v>
       </c>
@@ -20381,7 +20380,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>2023</v>
       </c>
@@ -20412,7 +20411,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>2023</v>
       </c>
@@ -20443,7 +20442,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>2023</v>
       </c>
@@ -20474,7 +20473,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>2023</v>
       </c>
@@ -20505,7 +20504,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>2023</v>
       </c>
@@ -20536,7 +20535,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>2023</v>
       </c>
@@ -20570,7 +20569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>2023</v>
       </c>
@@ -20601,7 +20600,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>2023</v>
       </c>
@@ -20632,7 +20631,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>2023</v>
       </c>
@@ -20663,7 +20662,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>2023</v>
       </c>
@@ -20694,7 +20693,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>2023</v>
       </c>
@@ -20725,7 +20724,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>2023</v>
       </c>
@@ -20756,7 +20755,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>2023</v>
       </c>
@@ -20787,7 +20786,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>2023</v>
       </c>
@@ -20818,7 +20817,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>2023</v>
       </c>
@@ -20849,7 +20848,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>2023</v>
       </c>
@@ -20880,7 +20879,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>2023</v>
       </c>
@@ -20911,7 +20910,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>2023</v>
       </c>
@@ -20945,7 +20944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>2023</v>
       </c>
@@ -20976,7 +20975,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>2023</v>
       </c>
@@ -21007,7 +21006,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>2023</v>
       </c>
@@ -21038,7 +21037,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>2023</v>
       </c>
@@ -21069,7 +21068,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>2023</v>
       </c>
@@ -21100,7 +21099,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>2023</v>
       </c>
@@ -21131,7 +21130,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>2023</v>
       </c>
@@ -21162,7 +21161,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>2023</v>
       </c>
@@ -21193,7 +21192,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>2023</v>
       </c>
@@ -21224,7 +21223,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>2023</v>
       </c>
@@ -21255,7 +21254,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>2023</v>
       </c>
@@ -21286,7 +21285,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>2023</v>
       </c>
@@ -21320,7 +21319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>2023</v>
       </c>
@@ -21351,7 +21350,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>2023</v>
       </c>
@@ -21382,7 +21381,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>2023</v>
       </c>
@@ -21413,7 +21412,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>2023</v>
       </c>
@@ -21444,7 +21443,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>2023</v>
       </c>
@@ -21475,7 +21474,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>2023</v>
       </c>
@@ -21506,7 +21505,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>2023</v>
       </c>
@@ -21537,7 +21536,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>2023</v>
       </c>
@@ -21568,7 +21567,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>2023</v>
       </c>
@@ -21599,7 +21598,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>2023</v>
       </c>
@@ -21630,7 +21629,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>2023</v>
       </c>
@@ -21661,7 +21660,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>2023</v>
       </c>
@@ -21693,7 +21692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>2023</v>
       </c>
@@ -21724,7 +21723,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>2023</v>
       </c>
@@ -21755,7 +21754,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>2023</v>
       </c>
@@ -21786,7 +21785,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>2023</v>
       </c>
@@ -21817,7 +21816,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>2023</v>
       </c>
@@ -21848,7 +21847,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>2023</v>
       </c>
@@ -21879,7 +21878,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>2023</v>
       </c>
@@ -21910,7 +21909,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>2023</v>
       </c>
@@ -21941,7 +21940,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>2023</v>
       </c>
@@ -21972,7 +21971,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>2023</v>
       </c>
@@ -22003,7 +22002,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>2023</v>
       </c>
@@ -22034,7 +22033,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>2023</v>
       </c>
@@ -22068,7 +22067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>2023</v>
       </c>
@@ -22099,7 +22098,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>2023</v>
       </c>
@@ -22130,7 +22129,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>2023</v>
       </c>
@@ -22161,7 +22160,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>2023</v>
       </c>
@@ -22192,7 +22191,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>2023</v>
       </c>
@@ -22223,7 +22222,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>2023</v>
       </c>
@@ -22254,7 +22253,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>2023</v>
       </c>
@@ -22285,7 +22284,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>2023</v>
       </c>
@@ -22316,7 +22315,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>2023</v>
       </c>
@@ -22347,7 +22346,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>2023</v>
       </c>
@@ -22378,7 +22377,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>2023</v>
       </c>
@@ -22409,7 +22408,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>2023</v>
       </c>
@@ -22443,7 +22442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>2023</v>
       </c>
@@ -22474,7 +22473,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>2023</v>
       </c>
@@ -22505,7 +22504,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>2023</v>
       </c>
@@ -22536,7 +22535,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>2023</v>
       </c>
@@ -22567,7 +22566,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>2023</v>
       </c>
@@ -22598,7 +22597,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>2023</v>
       </c>
@@ -22629,7 +22628,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>2023</v>
       </c>
@@ -22660,7 +22659,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>2023</v>
       </c>
@@ -22691,7 +22690,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>2023</v>
       </c>
@@ -22722,7 +22721,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>2023</v>
       </c>
@@ -22753,7 +22752,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>2023</v>
       </c>
@@ -22784,7 +22783,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>2023</v>
       </c>
@@ -22818,7 +22817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>2023</v>
       </c>
@@ -22849,7 +22848,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>2023</v>
       </c>
@@ -22880,7 +22879,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>2023</v>
       </c>
@@ -22911,7 +22910,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>2023</v>
       </c>
@@ -22942,7 +22941,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>2023</v>
       </c>
@@ -22973,7 +22972,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>2024</v>
       </c>
@@ -23004,7 +23003,7 @@
         <v>63.880126182965299</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>2024</v>
       </c>
@@ -23035,7 +23034,7 @@
         <v>75.238095238095241</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>2024</v>
       </c>
@@ -23066,7 +23065,7 @@
         <v>81.104033970276006</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>2024</v>
       </c>
@@ -23097,7 +23096,7 @@
         <v>81.744749596122773</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>2024</v>
       </c>
@@ -23128,7 +23127,7 @@
         <v>76.573426573426573</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>2024</v>
       </c>
@@ -23159,7 +23158,7 @@
         <v>83.720930232558132</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>2024</v>
       </c>
@@ -23193,7 +23192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>2024</v>
       </c>
@@ -23224,7 +23223,7 @@
         <v>78.89908256880733</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>2024</v>
       </c>
@@ -23255,7 +23254,7 @@
         <v>79.968203497615264</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>2024</v>
       </c>
@@ -23286,7 +23285,7 @@
         <v>75.958702064896755</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>2024</v>
       </c>
@@ -23317,7 +23316,7 @@
         <v>77.871621621621628</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>2024</v>
       </c>
@@ -23348,7 +23347,7 @@
         <v>51.892744479495271</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>2024</v>
       </c>
@@ -23379,7 +23378,7 @@
         <v>67.777777777777786</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>2024</v>
       </c>
@@ -23410,7 +23409,7 @@
         <v>70.824524312896415</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>2024</v>
       </c>
@@ -23441,7 +23440,7 @@
         <v>74.110032362459549</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>2024</v>
       </c>
@@ -23472,7 +23471,7 @@
         <v>70.877192982456137</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>2024</v>
       </c>
@@ -23503,7 +23502,7 @@
         <v>76.207513416815743</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>2024</v>
       </c>
@@ -23537,7 +23536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>2024</v>
       </c>
@@ -23568,7 +23567,7 @@
         <v>70.257966616084971</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>2024</v>
       </c>
@@ -23599,7 +23598,7 @@
         <v>74.203821656050948</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>2024</v>
       </c>
@@ -23630,7 +23629,7 @@
         <v>71.32352941176471</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>2024</v>
       </c>
@@ -23661,7 +23660,7 @@
         <v>67.003367003367003</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>2024</v>
       </c>
@@ -23692,7 +23691,7 @@
         <v>61.189358372456958</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>2024</v>
       </c>
@@ -23723,7 +23722,7 @@
         <v>72.65500794912559</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>2024</v>
       </c>
@@ -23754,7 +23753,7 @@
         <v>77.167019027484145</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>2024</v>
       </c>
@@ -23785,7 +23784,7 @@
         <v>77.600000000000009</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>2024</v>
       </c>
@@ -23816,7 +23815,7 @@
         <v>74.650349650349639</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>2024</v>
       </c>
@@ -23847,7 +23846,7 @@
         <v>81.105169340463462</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>2024</v>
       </c>
@@ -23881,7 +23880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>2024</v>
       </c>
@@ -23912,7 +23911,7 @@
         <v>77.828054298642542</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>2024</v>
       </c>
@@ -23943,7 +23942,7 @@
         <v>80.317460317460316</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>2024</v>
       </c>
@@ -23974,7 +23973,7 @@
         <v>78.005865102639291</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>2024</v>
       </c>
@@ -24005,7 +24004,7 @@
         <v>75.12605042016807</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>2024</v>
       </c>
@@ -24036,7 +24035,7 @@
         <v>55.521472392638039</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>2024</v>
       </c>
@@ -24067,7 +24066,7 @@
         <v>66.984126984126988</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>2024</v>
       </c>
@@ -24098,7 +24097,7 @@
         <v>71.15789473684211</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>2024</v>
       </c>
@@ -24129,7 +24128,7 @@
         <v>71.118012422360238</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>2024</v>
       </c>
@@ -24160,7 +24159,7 @@
         <v>70.537261698440219</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>2024</v>
       </c>
@@ -24191,7 +24190,7 @@
         <v>76.470588235294116</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>2024</v>
       </c>
@@ -24225,7 +24224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>2024</v>
       </c>
@@ -24256,7 +24255,7 @@
         <v>75.037369207772798</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>2024</v>
       </c>
@@ -24287,7 +24286,7 @@
         <v>78.996865203761757</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>2024</v>
       </c>
@@ -24318,7 +24317,7 @@
         <v>76.169590643274859</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>2024</v>
       </c>
@@ -24349,7 +24348,7 @@
         <v>69.191919191919197</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>2024</v>
       </c>
@@ -24380,7 +24379,7 @@
         <v>51.940298507462693</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>2024</v>
       </c>
@@ -24411,7 +24410,7 @@
         <v>64.055299539170505</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>2024</v>
       </c>
@@ -24442,7 +24441,7 @@
         <v>66.869918699186996</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>2024</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>67.819548872180448</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>2024</v>
       </c>
@@ -24504,7 +24503,7 @@
         <v>68.907563025210081</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>2024</v>
       </c>
@@ -24535,7 +24534,7 @@
         <v>73.321858864027533</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>2024</v>
       </c>
@@ -24569,7 +24568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>2024</v>
       </c>
@@ -24600,7 +24599,7 @@
         <v>72.937771345875532</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>2024</v>
       </c>
@@ -24631,7 +24630,7 @@
         <v>76.783004552352054</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>2024</v>
       </c>
@@ -24662,7 +24661,7 @@
         <v>73.587570621468927</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>2024</v>
       </c>
@@ -24693,7 +24692,7 @@
         <v>70.358306188925084</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>2024</v>
       </c>
@@ -24724,7 +24723,7 @@
         <v>52.16095380029806</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>2024</v>
       </c>
@@ -24755,7 +24754,7 @@
         <v>60.643185298621738</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>2024</v>
       </c>
@@ -24786,7 +24785,7 @@
         <v>73.410404624277461</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>2024</v>
       </c>
@@ -24817,7 +24816,7 @@
         <v>65.315315315315317</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>2024</v>
       </c>
@@ -24848,7 +24847,7 @@
         <v>64.87394957983193</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>2024</v>
       </c>
@@ -24879,7 +24878,7 @@
         <v>70.446735395188995</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>2024</v>
       </c>
@@ -24913,7 +24912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>2024</v>
       </c>
@@ -24944,7 +24943,7 @@
         <v>70.332850940665708</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>2024</v>
       </c>
@@ -24975,7 +24974,7 @@
         <v>73.873873873873876</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>2024</v>
       </c>
@@ -25006,7 +25005,7 @@
         <v>71.791255289139627</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>2024</v>
       </c>
@@ -25037,7 +25036,7 @@
         <v>70.731707317073173</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>2024</v>
       </c>
@@ -25068,7 +25067,7 @@
         <v>50.55467511885896</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>2024</v>
       </c>
@@ -25099,7 +25098,7 @@
         <v>61.550632911392398</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>2024</v>
       </c>
@@ -25130,7 +25129,7 @@
         <v>71.96819085487077</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>2024</v>
       </c>
@@ -25161,7 +25160,7 @@
         <v>62.945736434108525</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>2024</v>
       </c>
@@ -25192,7 +25191,7 @@
         <v>61.979166666666671</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>2024</v>
       </c>
@@ -25223,7 +25222,7 @@
         <v>66.72597864768683</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>2024</v>
       </c>
@@ -25257,7 +25256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>2024</v>
       </c>
@@ -25288,7 +25287,7 @@
         <v>62.182361733931238</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>2024</v>
       </c>
@@ -25319,7 +25318,7 @@
         <v>68.217054263565885</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>2024</v>
       </c>
@@ -25350,7 +25349,7 @@
         <v>67.540029112081513</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>2024</v>
       </c>
@@ -25381,7 +25380,7 @@
         <v>62.521008403361343</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>2024</v>
       </c>
@@ -25412,7 +25411,7 @@
         <v>59.692307692307686</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>2024</v>
       </c>
@@ -25443,7 +25442,7 @@
         <v>73.692551505546746</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>2024</v>
       </c>
@@ -25474,7 +25473,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>2024</v>
       </c>
@@ -25505,7 +25504,7 @@
         <v>69.922480620155042</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>2024</v>
       </c>
@@ -25536,7 +25535,7 @@
         <v>69.097222222222214</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>2024</v>
       </c>
@@ -25567,7 +25566,7 @@
         <v>76.827094474153299</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>2024</v>
       </c>
@@ -25601,7 +25600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>2024</v>
       </c>
@@ -25632,7 +25631,7 @@
         <v>73.134328358208961</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>2024</v>
       </c>
@@ -25663,7 +25662,7 @@
         <v>73.602484472049696</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>2024</v>
       </c>
@@ -25694,7 +25693,7 @@
         <v>75.691411935953425</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>2024</v>
       </c>
@@ -25726,7 +25725,7 @@
       </c>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>2024</v>
       </c>
@@ -25758,7 +25757,7 @@
       </c>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>2024</v>
       </c>
@@ -25790,7 +25789,7 @@
       </c>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>2024</v>
       </c>
@@ -25822,7 +25821,7 @@
       </c>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>2024</v>
       </c>
@@ -25854,7 +25853,7 @@
       </c>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>2024</v>
       </c>
@@ -25886,7 +25885,7 @@
       </c>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>2024</v>
       </c>
@@ -25918,7 +25917,7 @@
       </c>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>2024</v>
       </c>
@@ -25953,7 +25952,7 @@
       </c>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>2024</v>
       </c>
@@ -25985,7 +25984,7 @@
       </c>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>2024</v>
       </c>
@@ -26017,7 +26016,7 @@
       </c>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>2024</v>
       </c>
@@ -26049,7 +26048,7 @@
       </c>
       <c r="O639" s="6"/>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>2024</v>
       </c>
@@ -26081,7 +26080,7 @@
       </c>
       <c r="O640" s="6"/>
     </row>
-    <row r="641" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
         <v>2024</v>
       </c>
@@ -26113,7 +26112,7 @@
       </c>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
         <v>2024</v>
       </c>
@@ -26145,7 +26144,7 @@
       </c>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
         <v>2024</v>
       </c>
@@ -26177,7 +26176,7 @@
       </c>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A644" s="4">
         <v>2024</v>
       </c>
@@ -26209,7 +26208,7 @@
       </c>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A645" s="4">
         <v>2024</v>
       </c>
@@ -26241,7 +26240,7 @@
       </c>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
         <v>2024</v>
       </c>
@@ -26273,7 +26272,7 @@
       </c>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A647" s="4">
         <v>2024</v>
       </c>
@@ -26304,7 +26303,7 @@
         <v>75.705329153605021</v>
       </c>
     </row>
-    <row r="648" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A648" s="4">
         <v>2024</v>
       </c>
@@ -26354,7 +26353,7 @@
       <c r="AI648" s="3"/>
       <c r="AJ648" s="3"/>
     </row>
-    <row r="649" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A649" s="4">
         <v>2024</v>
       </c>
@@ -26385,7 +26384,7 @@
         <v>82.426127527216181</v>
       </c>
     </row>
-    <row r="650" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
         <v>2025</v>
       </c>
@@ -26414,7 +26413,7 @@
         <v>81.804733727810657</v>
       </c>
     </row>
-    <row r="651" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A651" s="4">
         <v>2025</v>
       </c>
@@ -26443,7 +26442,7 @@
         <v>74.370370370370381</v>
       </c>
     </row>
-    <row r="652" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
         <v>2025</v>
       </c>
@@ -26472,7 +26471,7 @@
         <v>79.239766081871338</v>
       </c>
     </row>
-    <row r="653" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
         <v>2025</v>
       </c>
@@ -26501,7 +26500,7 @@
         <v>74.963820549927647</v>
       </c>
     </row>
-    <row r="654" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A654" s="4">
         <v>2025</v>
       </c>
@@ -26530,7 +26529,7 @@
         <v>72.829131652661076</v>
       </c>
     </row>
-    <row r="655" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A655" s="4">
         <v>2025</v>
       </c>
@@ -26559,7 +26558,7 @@
         <v>72.331460674157299</v>
       </c>
     </row>
-    <row r="656" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A656" s="4">
         <v>2025</v>
       </c>
@@ -26588,7 +26587,7 @@
         <v>61.32756132756132</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" s="4">
         <v>2025</v>
       </c>
@@ -26617,7 +26616,7 @@
         <v>69.696969696969703</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" s="4">
         <v>2025</v>
       </c>
@@ -26646,11 +26645,11 @@
         <v>68.214804063860669</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659" s="4">
         <v>2025</v>
       </c>
-      <c r="B659" s="10" t="s">
+      <c r="B659" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C659" s="2">
@@ -26677,11 +26676,11 @@
         <v>87.301587301587304</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" s="4">
         <v>2025</v>
       </c>
-      <c r="B660" s="10" t="s">
+      <c r="B660" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C660" s="2">
@@ -26708,11 +26707,11 @@
         <v>80.379746835443044</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" s="4">
         <v>2025</v>
       </c>
-      <c r="B661" s="10" t="s">
+      <c r="B661" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C661" s="2">
@@ -26739,11 +26738,11 @@
         <v>85.308056872037923</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662" s="4">
         <v>2025</v>
       </c>
-      <c r="B662" s="10" t="s">
+      <c r="B662" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C662" s="2">
@@ -26770,11 +26769,11 @@
         <v>81.072555205047323</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663" s="4">
         <v>2025</v>
       </c>
-      <c r="B663" s="10" t="s">
+      <c r="B663" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C663" s="2">
@@ -26801,11 +26800,11 @@
         <v>79.019908116385906</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" s="4">
         <v>2025</v>
       </c>
-      <c r="B664" s="10" t="s">
+      <c r="B664" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C664" s="6">
@@ -26832,11 +26831,11 @@
         <v>78.407350689127114</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" s="4">
         <v>2025</v>
       </c>
-      <c r="B665" s="10" t="s">
+      <c r="B665" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C665" s="2">
@@ -26863,11 +26862,11 @@
         <v>63.70839936608558</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" s="4">
         <v>2025</v>
       </c>
-      <c r="B666" s="10" t="s">
+      <c r="B666" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C666" s="2">
@@ -26894,11 +26893,11 @@
         <v>68.789808917197462</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" s="4">
         <v>2025</v>
       </c>
-      <c r="B667" s="10" t="s">
+      <c r="B667" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C667" s="2">
@@ -26925,45 +26924,284 @@
         <v>72.527472527472526</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A668" s="4"/>
-      <c r="B668" s="10"/>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A668" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C668" s="2">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="D668" s="2">
+        <v>84.112149532710276</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F668" s="3">
+        <v>648</v>
+      </c>
+      <c r="G668" s="3">
+        <v>660</v>
+      </c>
       <c r="H668" s="3"/>
       <c r="I668" s="2"/>
-    </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A669" s="4"/>
-      <c r="B669" s="10"/>
+      <c r="M668" s="2">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="N668" s="2">
+        <v>84.112149532710276</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A669" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C669" s="2">
+        <v>92.26100151745068</v>
+      </c>
+      <c r="D669" s="2">
+        <v>74.650077760497666</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F669" s="3">
+        <v>659</v>
+      </c>
+      <c r="G669" s="3">
+        <v>646</v>
+      </c>
       <c r="H669" s="3"/>
       <c r="I669" s="6"/>
-    </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M669" s="2">
+        <v>92.26100151745068</v>
+      </c>
+      <c r="N669" s="2">
+        <v>74.650077760497666</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A670" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C670" s="2">
+        <v>91.553544494720967</v>
+      </c>
+      <c r="D670" s="2">
+        <v>81.578947368421055</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F670" s="3">
+        <v>663</v>
+      </c>
+      <c r="G670" s="3">
+        <v>651</v>
+      </c>
       <c r="H670" s="3"/>
       <c r="I670" s="6"/>
-    </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M670" s="2">
+        <v>91.553544494720967</v>
+      </c>
+      <c r="N670" s="2">
+        <v>81.578947368421055</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A671" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C671" s="2">
+        <v>88.450292397660817</v>
+      </c>
+      <c r="D671" s="2">
+        <v>75.192604006163322</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F671" s="3">
+        <v>684</v>
+      </c>
+      <c r="G671" s="3">
+        <v>671</v>
+      </c>
       <c r="H671" s="3"/>
       <c r="I671" s="2"/>
-    </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M671" s="2">
+        <v>88.450292397660817</v>
+      </c>
+      <c r="N671" s="2">
+        <v>75.192604006163322</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A672" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C672" s="2">
+        <v>85.777126099706749</v>
+      </c>
+      <c r="D672" s="2">
+        <v>72.28017883755588</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F672" s="3">
+        <v>683</v>
+      </c>
+      <c r="G672" s="3">
+        <v>671</v>
+      </c>
       <c r="H672" s="3"/>
       <c r="I672" s="2"/>
-    </row>
-    <row r="673" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="M672" s="2">
+        <v>85.777126099706749</v>
+      </c>
+      <c r="N672" s="2">
+        <v>72.28017883755588</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A673" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C673" s="6">
+        <v>85.520361990950221</v>
+      </c>
+      <c r="D673" s="6">
+        <v>72.131147540983605</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F673" s="3">
+        <v>685</v>
+      </c>
+      <c r="G673" s="3">
+        <v>678</v>
+      </c>
       <c r="H673" s="3"/>
       <c r="I673" s="2"/>
-    </row>
-    <row r="674" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="M673" s="6">
+        <v>85.520361990950221</v>
+      </c>
+      <c r="N673" s="6">
+        <v>72.131147540983605</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A674" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C674" s="2">
+        <v>84.638554216867462</v>
+      </c>
+      <c r="D674" s="2">
+        <v>59.969558599695596</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F674" s="3">
+        <v>665</v>
+      </c>
+      <c r="G674" s="3">
+        <v>657</v>
+      </c>
       <c r="H674" s="3"/>
       <c r="I674" s="2"/>
-    </row>
-    <row r="675" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="M674" s="2">
+        <v>84.638554216867462</v>
+      </c>
+      <c r="N674" s="2">
+        <v>59.969558599695596</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A675" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C675" s="2">
+        <v>79.638009049773757</v>
+      </c>
+      <c r="D675" s="2">
+        <v>69.254185692541853</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F675" s="3">
+        <v>663</v>
+      </c>
+      <c r="G675" s="3">
+        <v>657</v>
+      </c>
       <c r="H675" s="3"/>
       <c r="I675" s="2"/>
-    </row>
-    <row r="676" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="M675" s="2">
+        <v>79.638009049773757</v>
+      </c>
+      <c r="N675" s="2">
+        <v>69.254185692541853</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A676" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C676" s="2">
+        <v>77.424242424242422</v>
+      </c>
+      <c r="D676" s="2">
+        <v>72.740963855421683</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F676" s="3">
+        <v>662</v>
+      </c>
+      <c r="G676" s="3">
+        <v>664</v>
+      </c>
       <c r="H676" s="3"/>
       <c r="I676" s="2"/>
+      <c r="M676" s="2">
+        <v>77.424242424242422</v>
+      </c>
+      <c r="N676" s="2">
+        <v>72.740963855421683</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -26983,9 +27221,9 @@
       <selection activeCell="A75" sqref="A75:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -27043,7 +27281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -27087,7 +27325,7 @@
       </c>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2019</v>
       </c>
@@ -27149,7 +27387,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -27209,7 +27447,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -27269,7 +27507,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -27329,7 +27567,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -27389,7 +27627,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -27449,7 +27687,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -27509,7 +27747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -27569,7 +27807,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
@@ -27629,7 +27867,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -27689,7 +27927,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -27749,7 +27987,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -27809,7 +28047,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2020</v>
       </c>
@@ -27871,7 +28109,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -27931,7 +28169,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -27991,7 +28229,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -28051,7 +28289,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -28111,7 +28349,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -28171,7 +28409,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -28231,7 +28469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -28291,7 +28529,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>21</v>
@@ -28351,7 +28589,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -28411,7 +28649,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -28471,7 +28709,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -28531,7 +28769,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
@@ -28593,7 +28831,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -28653,7 +28891,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>15</v>
@@ -28713,7 +28951,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
@@ -28773,7 +29011,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -28833,7 +29071,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
@@ -28893,7 +29131,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
@@ -28953,7 +29191,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>20</v>
@@ -29013,7 +29251,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>21</v>
@@ -29073,7 +29311,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>22</v>
@@ -29133,7 +29371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>23</v>
@@ -29193,7 +29431,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>24</v>
@@ -29253,7 +29491,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>2022</v>
       </c>
@@ -29315,7 +29553,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
@@ -29375,7 +29613,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -29435,7 +29673,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>16</v>
@@ -29495,7 +29733,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -29555,7 +29793,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
@@ -29615,7 +29853,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="1" t="s">
         <v>19</v>
@@ -29675,7 +29913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>20</v>
@@ -29735,7 +29973,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>21</v>
@@ -29795,7 +30033,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
@@ -29855,7 +30093,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>23</v>
@@ -29915,7 +30153,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>24</v>
@@ -29975,7 +30213,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>2023</v>
       </c>
@@ -30037,7 +30275,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>14</v>
@@ -30097,7 +30335,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>15</v>
@@ -30157,7 +30395,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>16</v>
@@ -30217,7 +30455,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>17</v>
@@ -30277,7 +30515,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>18</v>
@@ -30337,7 +30575,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>19</v>
@@ -30397,7 +30635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>20</v>
@@ -30457,7 +30695,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>21</v>
@@ -30517,7 +30755,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>22</v>
@@ -30577,7 +30815,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
@@ -30637,7 +30875,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>24</v>
@@ -30697,7 +30935,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>2024</v>
       </c>
@@ -30759,7 +30997,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
@@ -30819,7 +31057,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
@@ -30879,7 +31117,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
         <v>16</v>
@@ -30939,7 +31177,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="1" t="s">
         <v>17</v>
@@ -30999,7 +31237,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
         <v>18</v>
@@ -31059,7 +31297,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
         <v>19</v>
@@ -31119,7 +31357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
         <v>20</v>
@@ -31179,7 +31417,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
         <v>21</v>
@@ -31239,7 +31477,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="1" t="s">
         <v>22</v>
@@ -31299,7 +31537,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="1" t="s">
         <v>23</v>
@@ -31359,7 +31597,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="4" t="s">
         <v>24</v>
@@ -31419,7 +31657,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2025</v>
       </c>
@@ -31483,11 +31721,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -31498,6 +31731,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31509,6 +31747,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -31763,27 +32021,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31800,23 +32057,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A1597BF-626F-4197-ABC9-963D891AC08B}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0AFABB9-1D4F-421E-80A0-7C6AE3458632}"/>
   <bookViews>
-    <workbookView xWindow="67095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="39">
   <si>
     <t>År</t>
   </si>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -261,6 +261,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5158,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ676"/>
+  <dimension ref="A1:AJ700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H676" sqref="H676"/>
+    <sheetView tabSelected="1" topLeftCell="A656" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I685" sqref="I685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27079,7 +27085,7 @@
         <v>72.28017883755588</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" s="4">
         <v>2025</v>
       </c>
@@ -27110,7 +27116,7 @@
         <v>72.131147540983605</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" s="4">
         <v>2025</v>
       </c>
@@ -27141,7 +27147,7 @@
         <v>59.969558599695596</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" s="4">
         <v>2025</v>
       </c>
@@ -27172,7 +27178,7 @@
         <v>69.254185692541853</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" s="4">
         <v>2025</v>
       </c>
@@ -27202,6 +27208,570 @@
       <c r="N676" s="2">
         <v>72.740963855421683</v>
       </c>
+    </row>
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A677" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C677" s="10">
+        <v>93.12714776632302</v>
+      </c>
+      <c r="D677" s="10">
+        <v>81.993006993006986</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F677" s="11">
+        <v>582</v>
+      </c>
+      <c r="G677" s="11">
+        <v>572</v>
+      </c>
+      <c r="M677" s="10">
+        <v>81.993006993006986</v>
+      </c>
+      <c r="N677" s="10">
+        <v>93.12714776632302</v>
+      </c>
+      <c r="O677" s="1"/>
+    </row>
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A678" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C678" s="10">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="D678" s="10">
+        <v>75.087108013937282</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F678" s="11">
+        <v>585</v>
+      </c>
+      <c r="G678" s="11">
+        <v>574</v>
+      </c>
+      <c r="M678" s="10">
+        <v>75.087108013937282</v>
+      </c>
+      <c r="N678" s="10">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="O678" s="1"/>
+    </row>
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A679" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C679" s="10">
+        <v>88.717948717948715</v>
+      </c>
+      <c r="D679" s="10">
+        <v>80.313588850174213</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F679" s="11">
+        <v>585</v>
+      </c>
+      <c r="G679" s="11">
+        <v>583</v>
+      </c>
+      <c r="M679" s="10">
+        <v>80.313588850174213</v>
+      </c>
+      <c r="N679" s="10">
+        <v>88.717948717948715</v>
+      </c>
+      <c r="O679" s="1"/>
+    </row>
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A680" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C680" s="10">
+        <v>87.251655629139066</v>
+      </c>
+      <c r="D680" s="10">
+        <v>73.684210526315795</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F680" s="11">
+        <v>604</v>
+      </c>
+      <c r="G680" s="11">
+        <v>604</v>
+      </c>
+      <c r="M680" s="10">
+        <v>73.684210526315795</v>
+      </c>
+      <c r="N680" s="10">
+        <v>87.251655629139066</v>
+      </c>
+      <c r="O680" s="1"/>
+    </row>
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A681" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C681" s="10">
+        <v>85.264900662251648</v>
+      </c>
+      <c r="D681" s="10">
+        <v>70.149253731343293</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F681" s="11">
+        <v>604</v>
+      </c>
+      <c r="G681" s="11">
+        <v>604</v>
+      </c>
+      <c r="J681" s="11"/>
+      <c r="K681" s="11"/>
+      <c r="M681" s="10">
+        <v>70.149253731343293</v>
+      </c>
+      <c r="N681" s="10">
+        <v>85.264900662251648</v>
+      </c>
+      <c r="O681" s="1"/>
+    </row>
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A682" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C682" s="10">
+        <v>79.436152570480928</v>
+      </c>
+      <c r="D682" s="10">
+        <v>70.930232558139522</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F682" s="11">
+        <v>603</v>
+      </c>
+      <c r="G682" s="11">
+        <v>602</v>
+      </c>
+      <c r="J682" s="11"/>
+      <c r="K682" s="11"/>
+      <c r="M682" s="10">
+        <v>70.930232558139522</v>
+      </c>
+      <c r="N682" s="10">
+        <v>79.436152570480928</v>
+      </c>
+      <c r="O682" s="1"/>
+    </row>
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A683" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C683" s="10">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="D683" s="10">
+        <v>70.978441127694865</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F683" s="11">
+        <v>603</v>
+      </c>
+      <c r="G683" s="11">
+        <v>603</v>
+      </c>
+      <c r="J683" s="11"/>
+      <c r="K683" s="11"/>
+      <c r="M683" s="10">
+        <v>70.978441127694865</v>
+      </c>
+      <c r="N683" s="10">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="O683" s="1"/>
+    </row>
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A684" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C684" s="10">
+        <v>75.384615384615387</v>
+      </c>
+      <c r="D684" s="10">
+        <v>64.615384615384613</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F684" s="11">
+        <v>585</v>
+      </c>
+      <c r="G684" s="11">
+        <v>585</v>
+      </c>
+      <c r="J684" s="11"/>
+      <c r="K684" s="11"/>
+      <c r="M684" s="10">
+        <v>64.615384615384613</v>
+      </c>
+      <c r="N684" s="10">
+        <v>75.384615384615387</v>
+      </c>
+      <c r="O684" s="1"/>
+    </row>
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A685" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C685" s="2"/>
+      <c r="D685" s="2"/>
+      <c r="E685" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G685" s="10"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="11"/>
+      <c r="M685" s="2"/>
+      <c r="N685" s="2"/>
+      <c r="O685" s="1"/>
+    </row>
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A686" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C686" s="10">
+        <v>93.84615384615384</v>
+      </c>
+      <c r="D686" s="10">
+        <v>82.432432432432435</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F686" s="11">
+        <v>592</v>
+      </c>
+      <c r="G686" s="11">
+        <v>585</v>
+      </c>
+      <c r="J686" s="11"/>
+      <c r="K686" s="11"/>
+      <c r="M686" s="10">
+        <v>82.432432432432435</v>
+      </c>
+      <c r="N686" s="10">
+        <v>93.84615384615384</v>
+      </c>
+      <c r="O686" s="1"/>
+    </row>
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A687" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C687" s="10">
+        <v>91.062394603709947</v>
+      </c>
+      <c r="D687" s="10">
+        <v>75.462184873949582</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F687" s="11">
+        <v>595</v>
+      </c>
+      <c r="G687" s="11">
+        <v>593</v>
+      </c>
+      <c r="J687" s="11"/>
+      <c r="K687" s="11"/>
+      <c r="M687" s="10">
+        <v>75.462184873949582</v>
+      </c>
+      <c r="N687" s="10">
+        <v>91.062394603709947</v>
+      </c>
+      <c r="O687" s="1"/>
+    </row>
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A688" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C688" s="10">
+        <v>91.245791245791239</v>
+      </c>
+      <c r="D688" s="10">
+        <v>81.711409395973149</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F688" s="11">
+        <v>596</v>
+      </c>
+      <c r="G688" s="11">
+        <v>594</v>
+      </c>
+      <c r="J688" s="11"/>
+      <c r="K688" s="11"/>
+      <c r="M688" s="10">
+        <v>81.711409395973149</v>
+      </c>
+      <c r="N688" s="10">
+        <v>91.245791245791239</v>
+      </c>
+      <c r="O688" s="1"/>
+    </row>
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A689" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C689" s="10">
+        <v>89.344262295081961</v>
+      </c>
+      <c r="D689" s="10">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F689" s="11">
+        <v>613</v>
+      </c>
+      <c r="G689" s="11">
+        <v>610</v>
+      </c>
+      <c r="J689" s="11"/>
+      <c r="K689" s="11"/>
+      <c r="M689" s="10">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="N689" s="10">
+        <v>89.344262295081961</v>
+      </c>
+      <c r="O689" s="1"/>
+    </row>
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A690" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C690" s="10">
+        <v>87.72504091653029</v>
+      </c>
+      <c r="D690" s="10">
+        <v>75.326797385620921</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F690" s="11">
+        <v>612</v>
+      </c>
+      <c r="G690" s="11">
+        <v>611</v>
+      </c>
+      <c r="J690" s="11"/>
+      <c r="K690" s="11"/>
+      <c r="M690" s="10">
+        <v>75.326797385620921</v>
+      </c>
+      <c r="N690" s="10">
+        <v>87.72504091653029</v>
+      </c>
+      <c r="O690" s="1"/>
+    </row>
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A691" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C691" s="10">
+        <v>84.349258649093912</v>
+      </c>
+      <c r="D691" s="10">
+        <v>76.80921052631578</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F691" s="11">
+        <v>609</v>
+      </c>
+      <c r="G691" s="11">
+        <v>607</v>
+      </c>
+      <c r="J691" s="11"/>
+      <c r="K691" s="11"/>
+      <c r="M691" s="10">
+        <v>76.80921052631578</v>
+      </c>
+      <c r="N691" s="10">
+        <v>84.349258649093912</v>
+      </c>
+      <c r="O691" s="1"/>
+    </row>
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A692" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C692" s="10">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="D692" s="10">
+        <v>75.862068965517238</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F692" s="11">
+        <v>612</v>
+      </c>
+      <c r="G692" s="11">
+        <v>606</v>
+      </c>
+      <c r="J692" s="11"/>
+      <c r="K692" s="11"/>
+      <c r="M692" s="10">
+        <v>75.862068965517238</v>
+      </c>
+      <c r="N692" s="10">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="O692" s="1"/>
+    </row>
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A693" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C693" s="10">
+        <v>81.144781144781149</v>
+      </c>
+      <c r="D693" s="10">
+        <v>68.844221105527637</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F693" s="11">
+        <v>597</v>
+      </c>
+      <c r="G693" s="11">
+        <v>594</v>
+      </c>
+      <c r="J693" s="11"/>
+      <c r="K693" s="11"/>
+      <c r="M693" s="10">
+        <v>68.844221105527637</v>
+      </c>
+      <c r="N693" s="10">
+        <v>81.144781144781149</v>
+      </c>
+      <c r="O693" s="1"/>
+    </row>
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A694" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C694" s="2"/>
+      <c r="D694" s="2"/>
+      <c r="E694" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G694" s="10"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="11"/>
+      <c r="M694" s="2"/>
+      <c r="N694" s="2"/>
+      <c r="O694" s="1"/>
+    </row>
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G695" s="10"/>
+      <c r="J695" s="11"/>
+      <c r="K695" s="11"/>
+    </row>
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G696" s="10"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="11"/>
+    </row>
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G697" s="10"/>
+    </row>
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G698" s="10"/>
+    </row>
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G699" s="10"/>
+    </row>
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G700" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -31721,6 +32291,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -31731,11 +32306,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31747,26 +32317,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -32021,26 +32571,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32057,4 +32608,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0AFABB9-1D4F-421E-80A0-7C6AE3458632}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24F9AFD-96B2-464E-A692-A5425F19CCF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -254,6 +254,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,12 +267,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5166,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
   <dimension ref="A1:AJ700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A656" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I685" sqref="I685"/>
+    <sheetView tabSelected="1" topLeftCell="A658" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J687" sqref="J687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27216,26 +27216,27 @@
       <c r="B677" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C677" s="10">
+      <c r="C677" s="7">
         <v>93.12714776632302</v>
       </c>
-      <c r="D677" s="10">
+      <c r="D677" s="7">
         <v>81.993006993006986</v>
       </c>
       <c r="E677" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F677" s="11">
+      <c r="F677" s="8">
         <v>582</v>
       </c>
-      <c r="G677" s="11">
+      <c r="G677" s="8">
         <v>572</v>
       </c>
-      <c r="M677" s="10">
+      <c r="L677" s="7"/>
+      <c r="M677" s="7">
+        <v>93.12714776632302</v>
+      </c>
+      <c r="N677" s="7">
         <v>81.993006993006986</v>
-      </c>
-      <c r="N677" s="10">
-        <v>93.12714776632302</v>
       </c>
       <c r="O677" s="1"/>
     </row>
@@ -27246,26 +27247,27 @@
       <c r="B678" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C678" s="10">
+      <c r="C678" s="7">
         <v>91.111111111111114</v>
       </c>
-      <c r="D678" s="10">
+      <c r="D678" s="7">
         <v>75.087108013937282</v>
       </c>
       <c r="E678" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F678" s="11">
+      <c r="F678" s="8">
         <v>585</v>
       </c>
-      <c r="G678" s="11">
+      <c r="G678" s="8">
         <v>574</v>
       </c>
-      <c r="M678" s="10">
+      <c r="L678" s="7"/>
+      <c r="M678" s="7">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="N678" s="7">
         <v>75.087108013937282</v>
-      </c>
-      <c r="N678" s="10">
-        <v>91.111111111111114</v>
       </c>
       <c r="O678" s="1"/>
     </row>
@@ -27276,26 +27278,27 @@
       <c r="B679" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C679" s="10">
+      <c r="C679" s="7">
         <v>88.717948717948715</v>
       </c>
-      <c r="D679" s="10">
+      <c r="D679" s="7">
         <v>80.313588850174213</v>
       </c>
       <c r="E679" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F679" s="11">
+      <c r="F679" s="8">
         <v>585</v>
       </c>
-      <c r="G679" s="11">
+      <c r="G679" s="8">
         <v>583</v>
       </c>
-      <c r="M679" s="10">
+      <c r="L679" s="7"/>
+      <c r="M679" s="7">
+        <v>88.717948717948715</v>
+      </c>
+      <c r="N679" s="7">
         <v>80.313588850174213</v>
-      </c>
-      <c r="N679" s="10">
-        <v>88.717948717948715</v>
       </c>
       <c r="O679" s="1"/>
     </row>
@@ -27306,26 +27309,27 @@
       <c r="B680" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C680" s="10">
+      <c r="C680" s="7">
         <v>87.251655629139066</v>
       </c>
-      <c r="D680" s="10">
+      <c r="D680" s="7">
         <v>73.684210526315795</v>
       </c>
       <c r="E680" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F680" s="11">
+      <c r="F680" s="8">
         <v>604</v>
       </c>
-      <c r="G680" s="11">
+      <c r="G680" s="8">
         <v>604</v>
       </c>
-      <c r="M680" s="10">
+      <c r="L680" s="7"/>
+      <c r="M680" s="7">
+        <v>87.251655629139066</v>
+      </c>
+      <c r="N680" s="7">
         <v>73.684210526315795</v>
-      </c>
-      <c r="N680" s="10">
-        <v>87.251655629139066</v>
       </c>
       <c r="O680" s="1"/>
     </row>
@@ -27336,28 +27340,29 @@
       <c r="B681" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C681" s="10">
+      <c r="C681" s="7">
         <v>85.264900662251648</v>
       </c>
-      <c r="D681" s="10">
+      <c r="D681" s="7">
         <v>70.149253731343293</v>
       </c>
       <c r="E681" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F681" s="11">
+      <c r="F681" s="8">
         <v>604</v>
       </c>
-      <c r="G681" s="11">
+      <c r="G681" s="8">
         <v>604</v>
       </c>
-      <c r="J681" s="11"/>
-      <c r="K681" s="11"/>
-      <c r="M681" s="10">
+      <c r="J681" s="8"/>
+      <c r="K681" s="8"/>
+      <c r="L681" s="7"/>
+      <c r="M681" s="7">
+        <v>85.264900662251648</v>
+      </c>
+      <c r="N681" s="7">
         <v>70.149253731343293</v>
-      </c>
-      <c r="N681" s="10">
-        <v>85.264900662251648</v>
       </c>
       <c r="O681" s="1"/>
     </row>
@@ -27368,28 +27373,29 @@
       <c r="B682" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C682" s="10">
+      <c r="C682" s="7">
         <v>79.436152570480928</v>
       </c>
-      <c r="D682" s="10">
+      <c r="D682" s="7">
         <v>70.930232558139522</v>
       </c>
       <c r="E682" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F682" s="11">
+      <c r="F682" s="8">
         <v>603</v>
       </c>
-      <c r="G682" s="11">
+      <c r="G682" s="8">
         <v>602</v>
       </c>
-      <c r="J682" s="11"/>
-      <c r="K682" s="11"/>
-      <c r="M682" s="10">
+      <c r="J682" s="8"/>
+      <c r="K682" s="8"/>
+      <c r="L682" s="7"/>
+      <c r="M682" s="7">
+        <v>79.436152570480928</v>
+      </c>
+      <c r="N682" s="7">
         <v>70.930232558139522</v>
-      </c>
-      <c r="N682" s="10">
-        <v>79.436152570480928</v>
       </c>
       <c r="O682" s="1"/>
     </row>
@@ -27400,28 +27406,29 @@
       <c r="B683" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C683" s="10">
+      <c r="C683" s="7">
         <v>94.736842105263165</v>
       </c>
-      <c r="D683" s="10">
+      <c r="D683" s="7">
         <v>70.978441127694865</v>
       </c>
       <c r="E683" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F683" s="11">
+      <c r="F683" s="8">
         <v>603</v>
       </c>
-      <c r="G683" s="11">
+      <c r="G683" s="8">
         <v>603</v>
       </c>
-      <c r="J683" s="11"/>
-      <c r="K683" s="11"/>
-      <c r="M683" s="10">
+      <c r="J683" s="8"/>
+      <c r="K683" s="8"/>
+      <c r="L683" s="7"/>
+      <c r="M683" s="7">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="N683" s="7">
         <v>70.978441127694865</v>
-      </c>
-      <c r="N683" s="10">
-        <v>94.736842105263165</v>
       </c>
       <c r="O683" s="1"/>
     </row>
@@ -27432,28 +27439,29 @@
       <c r="B684" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C684" s="10">
+      <c r="C684" s="7">
         <v>75.384615384615387</v>
       </c>
-      <c r="D684" s="10">
+      <c r="D684" s="7">
         <v>64.615384615384613</v>
       </c>
       <c r="E684" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F684" s="11">
+      <c r="F684" s="8">
         <v>585</v>
       </c>
-      <c r="G684" s="11">
+      <c r="G684" s="8">
         <v>585</v>
       </c>
-      <c r="J684" s="11"/>
-      <c r="K684" s="11"/>
-      <c r="M684" s="10">
+      <c r="J684" s="8"/>
+      <c r="K684" s="8"/>
+      <c r="L684" s="7"/>
+      <c r="M684" s="7">
+        <v>75.384615384615387</v>
+      </c>
+      <c r="N684" s="7">
         <v>64.615384615384613</v>
-      </c>
-      <c r="N684" s="10">
-        <v>75.384615384615387</v>
       </c>
       <c r="O684" s="1"/>
     </row>
@@ -27469,9 +27477,10 @@
       <c r="E685" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G685" s="10"/>
-      <c r="J685" s="11"/>
-      <c r="K685" s="11"/>
+      <c r="G685" s="7"/>
+      <c r="J685" s="8"/>
+      <c r="K685" s="8"/>
+      <c r="L685" s="2"/>
       <c r="M685" s="2"/>
       <c r="N685" s="2"/>
       <c r="O685" s="1"/>
@@ -27483,28 +27492,29 @@
       <c r="B686" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C686" s="10">
+      <c r="C686" s="7">
         <v>93.84615384615384</v>
       </c>
-      <c r="D686" s="10">
+      <c r="D686" s="7">
         <v>82.432432432432435</v>
       </c>
       <c r="E686" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F686" s="11">
+      <c r="F686" s="8">
         <v>592</v>
       </c>
-      <c r="G686" s="11">
+      <c r="G686" s="8">
         <v>585</v>
       </c>
-      <c r="J686" s="11"/>
-      <c r="K686" s="11"/>
-      <c r="M686" s="10">
+      <c r="J686" s="8"/>
+      <c r="K686" s="8"/>
+      <c r="L686" s="7"/>
+      <c r="M686" s="7">
+        <v>93.84615384615384</v>
+      </c>
+      <c r="N686" s="7">
         <v>82.432432432432435</v>
-      </c>
-      <c r="N686" s="10">
-        <v>93.84615384615384</v>
       </c>
       <c r="O686" s="1"/>
     </row>
@@ -27515,28 +27525,29 @@
       <c r="B687" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C687" s="10">
+      <c r="C687" s="7">
         <v>91.062394603709947</v>
       </c>
-      <c r="D687" s="10">
+      <c r="D687" s="7">
         <v>75.462184873949582</v>
       </c>
       <c r="E687" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F687" s="11">
+      <c r="F687" s="8">
         <v>595</v>
       </c>
-      <c r="G687" s="11">
+      <c r="G687" s="8">
         <v>593</v>
       </c>
-      <c r="J687" s="11"/>
-      <c r="K687" s="11"/>
-      <c r="M687" s="10">
+      <c r="J687" s="8"/>
+      <c r="K687" s="8"/>
+      <c r="L687" s="7"/>
+      <c r="M687" s="7">
+        <v>91.062394603709947</v>
+      </c>
+      <c r="N687" s="7">
         <v>75.462184873949582</v>
-      </c>
-      <c r="N687" s="10">
-        <v>91.062394603709947</v>
       </c>
       <c r="O687" s="1"/>
     </row>
@@ -27547,28 +27558,29 @@
       <c r="B688" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C688" s="10">
+      <c r="C688" s="7">
         <v>91.245791245791239</v>
       </c>
-      <c r="D688" s="10">
+      <c r="D688" s="7">
         <v>81.711409395973149</v>
       </c>
       <c r="E688" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F688" s="11">
+      <c r="F688" s="8">
         <v>596</v>
       </c>
-      <c r="G688" s="11">
+      <c r="G688" s="8">
         <v>594</v>
       </c>
-      <c r="J688" s="11"/>
-      <c r="K688" s="11"/>
-      <c r="M688" s="10">
+      <c r="J688" s="8"/>
+      <c r="K688" s="8"/>
+      <c r="L688" s="7"/>
+      <c r="M688" s="7">
+        <v>91.245791245791239</v>
+      </c>
+      <c r="N688" s="7">
         <v>81.711409395973149</v>
-      </c>
-      <c r="N688" s="10">
-        <v>91.245791245791239</v>
       </c>
       <c r="O688" s="1"/>
     </row>
@@ -27579,28 +27591,29 @@
       <c r="B689" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C689" s="10">
+      <c r="C689" s="7">
         <v>89.344262295081961</v>
       </c>
-      <c r="D689" s="10">
+      <c r="D689" s="7">
         <v>76.470588235294116</v>
       </c>
       <c r="E689" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F689" s="11">
+      <c r="F689" s="8">
         <v>613</v>
       </c>
-      <c r="G689" s="11">
+      <c r="G689" s="8">
         <v>610</v>
       </c>
-      <c r="J689" s="11"/>
-      <c r="K689" s="11"/>
-      <c r="M689" s="10">
+      <c r="J689" s="8"/>
+      <c r="K689" s="8"/>
+      <c r="L689" s="7"/>
+      <c r="M689" s="7">
+        <v>89.344262295081961</v>
+      </c>
+      <c r="N689" s="7">
         <v>76.470588235294116</v>
-      </c>
-      <c r="N689" s="10">
-        <v>89.344262295081961</v>
       </c>
       <c r="O689" s="1"/>
     </row>
@@ -27611,28 +27624,29 @@
       <c r="B690" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C690" s="10">
+      <c r="C690" s="7">
         <v>87.72504091653029</v>
       </c>
-      <c r="D690" s="10">
+      <c r="D690" s="7">
         <v>75.326797385620921</v>
       </c>
       <c r="E690" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F690" s="11">
+      <c r="F690" s="8">
         <v>612</v>
       </c>
-      <c r="G690" s="11">
+      <c r="G690" s="8">
         <v>611</v>
       </c>
-      <c r="J690" s="11"/>
-      <c r="K690" s="11"/>
-      <c r="M690" s="10">
+      <c r="J690" s="8"/>
+      <c r="K690" s="8"/>
+      <c r="L690" s="7"/>
+      <c r="M690" s="7">
+        <v>87.72504091653029</v>
+      </c>
+      <c r="N690" s="7">
         <v>75.326797385620921</v>
-      </c>
-      <c r="N690" s="10">
-        <v>87.72504091653029</v>
       </c>
       <c r="O690" s="1"/>
     </row>
@@ -27643,28 +27657,29 @@
       <c r="B691" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C691" s="10">
+      <c r="C691" s="7">
         <v>84.349258649093912</v>
       </c>
-      <c r="D691" s="10">
+      <c r="D691" s="7">
         <v>76.80921052631578</v>
       </c>
       <c r="E691" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F691" s="11">
+      <c r="F691" s="8">
         <v>609</v>
       </c>
-      <c r="G691" s="11">
+      <c r="G691" s="8">
         <v>607</v>
       </c>
-      <c r="J691" s="11"/>
-      <c r="K691" s="11"/>
-      <c r="M691" s="10">
+      <c r="J691" s="8"/>
+      <c r="K691" s="8"/>
+      <c r="L691" s="7"/>
+      <c r="M691" s="7">
+        <v>84.349258649093912</v>
+      </c>
+      <c r="N691" s="7">
         <v>76.80921052631578</v>
-      </c>
-      <c r="N691" s="10">
-        <v>84.349258649093912</v>
       </c>
       <c r="O691" s="1"/>
     </row>
@@ -27675,28 +27690,29 @@
       <c r="B692" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C692" s="10">
+      <c r="C692" s="7">
         <v>88.235294117647058</v>
       </c>
-      <c r="D692" s="10">
+      <c r="D692" s="7">
         <v>75.862068965517238</v>
       </c>
       <c r="E692" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F692" s="11">
+      <c r="F692" s="8">
         <v>612</v>
       </c>
-      <c r="G692" s="11">
+      <c r="G692" s="8">
         <v>606</v>
       </c>
-      <c r="J692" s="11"/>
-      <c r="K692" s="11"/>
-      <c r="M692" s="10">
+      <c r="J692" s="8"/>
+      <c r="K692" s="8"/>
+      <c r="L692" s="7"/>
+      <c r="M692" s="7">
+        <v>88.235294117647058</v>
+      </c>
+      <c r="N692" s="7">
         <v>75.862068965517238</v>
-      </c>
-      <c r="N692" s="10">
-        <v>88.235294117647058</v>
       </c>
       <c r="O692" s="1"/>
     </row>
@@ -27707,28 +27723,29 @@
       <c r="B693" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C693" s="10">
+      <c r="C693" s="7">
         <v>81.144781144781149</v>
       </c>
-      <c r="D693" s="10">
+      <c r="D693" s="7">
         <v>68.844221105527637</v>
       </c>
       <c r="E693" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F693" s="11">
+      <c r="F693" s="8">
         <v>597</v>
       </c>
-      <c r="G693" s="11">
+      <c r="G693" s="8">
         <v>594</v>
       </c>
-      <c r="J693" s="11"/>
-      <c r="K693" s="11"/>
-      <c r="M693" s="10">
+      <c r="J693" s="8"/>
+      <c r="K693" s="8"/>
+      <c r="L693" s="7"/>
+      <c r="M693" s="7">
+        <v>81.144781144781149</v>
+      </c>
+      <c r="N693" s="7">
         <v>68.844221105527637</v>
-      </c>
-      <c r="N693" s="10">
-        <v>81.144781144781149</v>
       </c>
       <c r="O693" s="1"/>
     </row>
@@ -27744,31 +27761,31 @@
       <c r="E694" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G694" s="10"/>
-      <c r="J694" s="11"/>
-      <c r="K694" s="11"/>
+      <c r="G694" s="7"/>
+      <c r="J694" s="8"/>
+      <c r="K694" s="8"/>
       <c r="M694" s="2"/>
       <c r="N694" s="2"/>
       <c r="O694" s="1"/>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G695" s="10"/>
-      <c r="J695" s="11"/>
-      <c r="K695" s="11"/>
+      <c r="G695" s="7"/>
+      <c r="J695" s="8"/>
+      <c r="K695" s="8"/>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G696" s="10"/>
-      <c r="J696" s="11"/>
-      <c r="K696" s="11"/>
+      <c r="G696" s="7"/>
+      <c r="J696" s="8"/>
+      <c r="K696" s="8"/>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G697" s="10"/>
+      <c r="G697" s="7"/>
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G698" s="10"/>
+      <c r="G698" s="7"/>
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G699" s="10"/>
+      <c r="G699" s="7"/>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G700" s="2"/>
@@ -27858,45 +27875,45 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -27958,7 +27975,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -28018,7 +28035,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -28078,7 +28095,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -28138,7 +28155,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -28198,7 +28215,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -28258,7 +28275,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -28318,7 +28335,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -28378,7 +28395,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -28438,7 +28455,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -28498,7 +28515,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -28558,7 +28575,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -28618,7 +28635,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -28680,7 +28697,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -28740,7 +28757,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -28800,7 +28817,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -28860,7 +28877,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -28920,7 +28937,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -28980,7 +28997,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -29040,7 +29057,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -29100,7 +29117,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -29160,7 +29177,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -29220,7 +29237,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -29280,7 +29297,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -29340,7 +29357,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="9">
         <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -29402,7 +29419,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -29462,7 +29479,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -29522,7 +29539,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
@@ -29582,7 +29599,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
@@ -29642,7 +29659,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -29702,7 +29719,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -29762,7 +29779,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
@@ -29822,7 +29839,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -29882,7 +29899,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
@@ -29942,7 +29959,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
@@ -30002,7 +30019,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -30062,7 +30079,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="9">
         <v>2022</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -30124,7 +30141,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -30184,7 +30201,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -30244,7 +30261,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -30304,7 +30321,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -30364,7 +30381,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -30424,7 +30441,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -30484,7 +30501,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -30544,7 +30561,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
@@ -30604,7 +30621,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
@@ -30664,7 +30681,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
@@ -30724,7 +30741,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -30784,7 +30801,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="9">
         <v>2023</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -30846,7 +30863,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
@@ -30906,7 +30923,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -30966,7 +30983,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
@@ -31026,7 +31043,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
@@ -31086,7 +31103,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -31146,7 +31163,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
@@ -31206,7 +31223,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
@@ -31266,7 +31283,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
@@ -31326,7 +31343,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
@@ -31386,7 +31403,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
@@ -31446,7 +31463,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
@@ -31506,7 +31523,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="10">
         <v>2024</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -31568,7 +31585,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
@@ -31628,7 +31645,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -31688,7 +31705,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="1" t="s">
         <v>16</v>
       </c>
@@ -31748,7 +31765,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
@@ -31808,7 +31825,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
@@ -31868,7 +31885,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
@@ -31928,7 +31945,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
@@ -31988,7 +32005,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
@@ -32048,7 +32065,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
@@ -32108,7 +32125,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
@@ -32168,7 +32185,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
         <v>24</v>
       </c>
@@ -32291,11 +32308,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -32306,6 +32318,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32317,6 +32334,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -32571,27 +32608,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32608,23 +32644,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:AJ700"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A658" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J687" sqref="J687"/>
+      <selection activeCell="M693" sqref="M693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32308,6 +32308,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -32318,11 +32323,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32334,26 +32334,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -32608,26 +32588,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32644,4 +32625,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24F9AFD-96B2-464E-A692-A5425F19CCF2}"/>
+  <xr:revisionPtr revIDLastSave="481" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6C2F70-53DB-40E2-9417-ADB7BB75CB8F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="40">
   <si>
     <t>År</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Fra Oslo 25</t>
+  </si>
+  <si>
+    <t>ju</t>
   </si>
 </sst>
 </file>
@@ -5164,10 +5167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ700"/>
+  <dimension ref="A1:AJ721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A658" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M693" sqref="M693"/>
+    <sheetView tabSelected="1" topLeftCell="A663" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H700" sqref="H700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27769,26 +27772,311 @@
       <c r="O694" s="1"/>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A695" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G695" s="7"/>
       <c r="J695" s="8"/>
       <c r="K695" s="8"/>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A696" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G696" s="7"/>
       <c r="J696" s="8"/>
       <c r="K696" s="8"/>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A697" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="G697" s="7"/>
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A698" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G698" s="7"/>
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A699" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G699" s="7"/>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A700" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G700" s="2"/>
+    </row>
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A701" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A702" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A703" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A704" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -32308,11 +32596,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -32323,6 +32606,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32334,6 +32622,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -32588,27 +32896,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32625,23 +32932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6C2F70-53DB-40E2-9417-ADB7BB75CB8F}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6784623-8259-479C-BD5E-FB5806462746}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -272,6 +272,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A61B44F-32A1-498F-A001-7F97A32A16A6}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:T2"/>
     </sheetView>
   </sheetViews>
@@ -5169,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
   <dimension ref="A1:AJ721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H700" sqref="H700"/>
+    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I716" sqref="I716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27778,12 +27780,29 @@
       <c r="B695" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C695" s="12">
+        <v>93.9443535188216</v>
+      </c>
+      <c r="D695" s="12">
+        <v>82.544861337683528</v>
+      </c>
       <c r="E695" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G695" s="7"/>
+      <c r="F695" s="13">
+        <v>611</v>
+      </c>
+      <c r="G695" s="13">
+        <v>613</v>
+      </c>
       <c r="J695" s="8"/>
       <c r="K695" s="8"/>
+      <c r="M695" s="12">
+        <v>93.9443535188216</v>
+      </c>
+      <c r="N695" s="12">
+        <v>82.544861337683528</v>
+      </c>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" s="4">
@@ -27792,12 +27811,29 @@
       <c r="B696" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C696" s="12">
+        <v>91.787439613526573</v>
+      </c>
+      <c r="D696" s="12">
+        <v>72.285251215559157</v>
+      </c>
       <c r="E696" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G696" s="7"/>
+      <c r="F696" s="13">
+        <v>621</v>
+      </c>
+      <c r="G696" s="13">
+        <v>621</v>
+      </c>
       <c r="J696" s="8"/>
       <c r="K696" s="8"/>
+      <c r="M696" s="12">
+        <v>91.787439613526573</v>
+      </c>
+      <c r="N696" s="12">
+        <v>72.285251215559157</v>
+      </c>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" s="4">
@@ -27806,10 +27842,27 @@
       <c r="B697" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C697" s="12">
+        <v>90.690208667736755</v>
+      </c>
+      <c r="D697" s="12">
+        <v>80.676328502415458</v>
+      </c>
       <c r="E697" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G697" s="7"/>
+      <c r="F697" s="13">
+        <v>623</v>
+      </c>
+      <c r="G697" s="13">
+        <v>623</v>
+      </c>
+      <c r="M697" s="12">
+        <v>90.690208667736755</v>
+      </c>
+      <c r="N697" s="12">
+        <v>80.676328502415458</v>
+      </c>
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" s="4">
@@ -27818,10 +27871,27 @@
       <c r="B698" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C698" s="12">
+        <v>90.031152647975077</v>
+      </c>
+      <c r="D698" s="12">
+        <v>78.94736842105263</v>
+      </c>
       <c r="E698" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G698" s="7"/>
+      <c r="F698" s="13">
+        <v>642</v>
+      </c>
+      <c r="G698" s="13">
+        <v>642</v>
+      </c>
+      <c r="M698" s="12">
+        <v>90.031152647975077</v>
+      </c>
+      <c r="N698" s="12">
+        <v>78.94736842105263</v>
+      </c>
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" s="4">
@@ -27830,10 +27900,27 @@
       <c r="B699" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C699" s="12">
+        <v>100</v>
+      </c>
+      <c r="D699" s="12">
+        <v>70.716510903426794</v>
+      </c>
       <c r="E699" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G699" s="7"/>
+      <c r="F699" s="13">
+        <v>641</v>
+      </c>
+      <c r="G699" s="13">
+        <v>642</v>
+      </c>
+      <c r="M699" s="12">
+        <v>100</v>
+      </c>
+      <c r="N699" s="12">
+        <v>70.716510903426794</v>
+      </c>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" s="4">
@@ -27842,10 +27929,27 @@
       <c r="B700" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C700" s="12">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="D700" s="12">
+        <v>68.367346938775512</v>
+      </c>
       <c r="E700" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G700" s="2"/>
+      <c r="F700" s="13">
+        <v>586</v>
+      </c>
+      <c r="G700" s="13">
+        <v>588</v>
+      </c>
+      <c r="M700" s="12">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="N700" s="12">
+        <v>68.367346938775512</v>
+      </c>
     </row>
     <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" s="4">
@@ -27854,8 +27958,26 @@
       <c r="B701" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C701" s="12">
+        <v>79.68197879858657</v>
+      </c>
+      <c r="D701" s="12">
+        <v>54.657293497363789</v>
+      </c>
       <c r="E701" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F701" s="13">
+        <v>566</v>
+      </c>
+      <c r="G701" s="13">
+        <v>569</v>
+      </c>
+      <c r="M701" s="12">
+        <v>79.68197879858657</v>
+      </c>
+      <c r="N701" s="12">
+        <v>54.657293497363789</v>
       </c>
     </row>
     <row r="702" spans="1:15" x14ac:dyDescent="0.25">
@@ -27865,8 +27987,26 @@
       <c r="B702" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C702" s="12">
+        <v>75.13227513227514</v>
+      </c>
+      <c r="D702" s="12">
+        <v>63.093145869947278</v>
+      </c>
       <c r="E702" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F702" s="13">
+        <v>567</v>
+      </c>
+      <c r="G702" s="13">
+        <v>569</v>
+      </c>
+      <c r="M702" s="12">
+        <v>75.13227513227514</v>
+      </c>
+      <c r="N702" s="12">
+        <v>63.093145869947278</v>
       </c>
     </row>
     <row r="703" spans="1:15" x14ac:dyDescent="0.25">
@@ -27887,55 +28027,145 @@
       <c r="B704" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C704" s="12">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D704" s="12">
+        <v>94.5518453427065</v>
+      </c>
       <c r="E704" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F704" s="13">
+        <v>567</v>
+      </c>
+      <c r="G704" s="13">
+        <v>569</v>
+      </c>
+      <c r="M704" s="12">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="N704" s="12">
+        <v>94.5518453427065</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A705" s="4">
         <v>2025</v>
       </c>
       <c r="B705" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C705" s="12">
+        <v>94.270833333333343</v>
+      </c>
+      <c r="D705" s="12">
+        <v>93.169877408056038</v>
+      </c>
       <c r="E705" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F705" s="13">
+        <v>576</v>
+      </c>
+      <c r="G705" s="13">
+        <v>572</v>
+      </c>
+      <c r="M705" s="12">
+        <v>94.270833333333343</v>
+      </c>
+      <c r="N705" s="12">
+        <v>93.169877408056038</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A706" s="4">
         <v>2025</v>
       </c>
       <c r="B706" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C706" s="12">
+        <v>95.81151832460732</v>
+      </c>
+      <c r="D706" s="12">
+        <v>94.764397905759168</v>
+      </c>
       <c r="E706" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F706" s="13">
+        <v>576</v>
+      </c>
+      <c r="G706" s="13">
+        <v>573</v>
+      </c>
+      <c r="M706" s="12">
+        <v>95.81151832460732</v>
+      </c>
+      <c r="N706" s="12">
+        <v>94.764397905759168</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A707" s="4">
         <v>2025</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C707" s="12">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="D707" s="12">
+        <v>95.27145359019265</v>
+      </c>
       <c r="E707" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F707" s="13">
+        <v>573</v>
+      </c>
+      <c r="G707" s="13">
+        <v>571</v>
+      </c>
+      <c r="M707" s="12">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="N707" s="12">
+        <v>95.27145359019265</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A708" s="4">
         <v>2025</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C708" s="12">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="D708" s="12">
+        <v>95.921985815602838</v>
+      </c>
       <c r="E708" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F708" s="13">
+        <v>565</v>
+      </c>
+      <c r="G708" s="13">
+        <v>564</v>
+      </c>
+      <c r="M708" s="12">
+        <v>96.283185840707958</v>
+      </c>
+      <c r="N708" s="12">
+        <v>95.921985815602838</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A709" s="4">
         <v>2025</v>
       </c>
@@ -27946,7 +28176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A710" s="4">
         <v>2025</v>
       </c>
@@ -27957,7 +28187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A711" s="4">
         <v>2025</v>
       </c>
@@ -27968,7 +28198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A712" s="4">
         <v>2025</v>
       </c>
@@ -27979,92 +28209,236 @@
         <v>12</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A713" s="4">
         <v>2025</v>
       </c>
       <c r="B713" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C713" s="12">
+        <v>98.412698412698418</v>
+      </c>
+      <c r="D713" s="12">
+        <v>92.913385826771659</v>
+      </c>
       <c r="E713" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F713" s="13">
+        <v>126</v>
+      </c>
+      <c r="G713" s="13">
+        <v>127</v>
+      </c>
+      <c r="M713" s="12">
+        <v>98.412698412698418</v>
+      </c>
+      <c r="N713" s="12">
+        <v>92.913385826771659</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A714" s="4">
         <v>2025</v>
       </c>
       <c r="B714" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C714" s="12">
+        <v>93.650793650793645</v>
+      </c>
+      <c r="D714" s="12">
+        <v>84.251968503937007</v>
+      </c>
       <c r="E714" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F714" s="13">
+        <v>126</v>
+      </c>
+      <c r="G714" s="13">
+        <v>127</v>
+      </c>
+      <c r="M714" s="12">
+        <v>93.650793650793645</v>
+      </c>
+      <c r="N714" s="12">
+        <v>84.251968503937007</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A715" s="4">
         <v>2025</v>
       </c>
       <c r="B715" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C715" s="12">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="D715" s="12">
+        <v>87.4015748031496</v>
+      </c>
       <c r="E715" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F715" s="13">
+        <v>126</v>
+      </c>
+      <c r="G715" s="13">
+        <v>127</v>
+      </c>
+      <c r="M715" s="12">
+        <v>91.269841269841265</v>
+      </c>
+      <c r="N715" s="12">
+        <v>87.4015748031496</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A716" s="4">
         <v>2025</v>
       </c>
       <c r="B716" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C716" s="12">
+        <v>88.095238095238088</v>
+      </c>
+      <c r="D716" s="12">
+        <v>93.7007874015748</v>
+      </c>
       <c r="E716" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F716" s="13">
+        <v>126</v>
+      </c>
+      <c r="G716" s="13">
+        <v>127</v>
+      </c>
+      <c r="M716" s="12">
+        <v>88.095238095238088</v>
+      </c>
+      <c r="N716" s="12">
+        <v>93.7007874015748</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A717" s="4">
         <v>2025</v>
       </c>
       <c r="B717" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C717" s="12">
+        <v>95.604395604395606</v>
+      </c>
+      <c r="D717" s="12">
+        <v>90.551181102362193</v>
+      </c>
       <c r="E717" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F717" s="13">
+        <v>126</v>
+      </c>
+      <c r="G717" s="13">
+        <v>127</v>
+      </c>
+      <c r="M717" s="12">
+        <v>95.604395604395606</v>
+      </c>
+      <c r="N717" s="12">
+        <v>90.551181102362193</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A718" s="4">
         <v>2025</v>
       </c>
       <c r="B718" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C718" s="12">
+        <v>80</v>
+      </c>
+      <c r="D718" s="12">
+        <v>85.294117647058826</v>
+      </c>
       <c r="E718" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F718" s="13">
+        <v>35</v>
+      </c>
+      <c r="G718" s="13">
+        <v>34</v>
+      </c>
+      <c r="M718" s="12">
+        <v>80</v>
+      </c>
+      <c r="N718" s="12">
+        <v>85.294117647058826</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A719" s="4">
         <v>2025</v>
       </c>
       <c r="B719" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C719" s="12">
+        <v>74.285714285714292</v>
+      </c>
+      <c r="D719" s="12">
+        <v>70</v>
+      </c>
       <c r="E719" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F719" s="13">
+        <v>35</v>
+      </c>
+      <c r="G719" s="13">
+        <v>20</v>
+      </c>
+      <c r="M719" s="12">
+        <v>74.285714285714292</v>
+      </c>
+      <c r="N719" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A720" s="4">
         <v>2025</v>
       </c>
       <c r="B720" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C720" s="12">
+        <v>73.529411764705884</v>
+      </c>
+      <c r="D720" s="12">
+        <v>85</v>
+      </c>
       <c r="E720" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F720" s="13">
+        <v>35</v>
+      </c>
+      <c r="G720" s="13">
+        <v>20</v>
+      </c>
+      <c r="M720" s="12">
+        <v>73.529411764705884</v>
+      </c>
+      <c r="N720" s="12">
+        <v>85</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -32596,6 +32970,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -32606,11 +32985,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32622,26 +32996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -32896,26 +33250,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32932,4 +33287,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6784623-8259-479C-BD5E-FB5806462746}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F78FBB12-BE7E-449D-B9A0-CCF829D27887}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="67095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="40">
   <si>
     <t>År</t>
   </si>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -263,6 +263,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,8 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5169,10 +5170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ721"/>
+  <dimension ref="A1:AJ732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I716" sqref="I716"/>
+    <sheetView tabSelected="1" topLeftCell="A655" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G723" sqref="G723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27780,27 +27781,27 @@
       <c r="B695" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C695" s="12">
+      <c r="C695" s="9">
         <v>93.9443535188216</v>
       </c>
-      <c r="D695" s="12">
+      <c r="D695" s="9">
         <v>82.544861337683528</v>
       </c>
       <c r="E695" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F695" s="13">
+      <c r="F695" s="10">
         <v>611</v>
       </c>
-      <c r="G695" s="13">
+      <c r="G695" s="10">
         <v>613</v>
       </c>
       <c r="J695" s="8"/>
       <c r="K695" s="8"/>
-      <c r="M695" s="12">
+      <c r="M695" s="9">
         <v>93.9443535188216</v>
       </c>
-      <c r="N695" s="12">
+      <c r="N695" s="9">
         <v>82.544861337683528</v>
       </c>
     </row>
@@ -27811,27 +27812,27 @@
       <c r="B696" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C696" s="12">
+      <c r="C696" s="9">
         <v>91.787439613526573</v>
       </c>
-      <c r="D696" s="12">
+      <c r="D696" s="9">
         <v>72.285251215559157</v>
       </c>
       <c r="E696" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F696" s="13">
+      <c r="F696" s="10">
         <v>621</v>
       </c>
-      <c r="G696" s="13">
+      <c r="G696" s="10">
         <v>621</v>
       </c>
       <c r="J696" s="8"/>
       <c r="K696" s="8"/>
-      <c r="M696" s="12">
+      <c r="M696" s="9">
         <v>91.787439613526573</v>
       </c>
-      <c r="N696" s="12">
+      <c r="N696" s="9">
         <v>72.285251215559157</v>
       </c>
     </row>
@@ -27842,25 +27843,25 @@
       <c r="B697" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C697" s="12">
+      <c r="C697" s="9">
         <v>90.690208667736755</v>
       </c>
-      <c r="D697" s="12">
+      <c r="D697" s="9">
         <v>80.676328502415458</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F697" s="13">
+      <c r="F697" s="10">
         <v>623</v>
       </c>
-      <c r="G697" s="13">
+      <c r="G697" s="10">
         <v>623</v>
       </c>
-      <c r="M697" s="12">
+      <c r="M697" s="9">
         <v>90.690208667736755</v>
       </c>
-      <c r="N697" s="12">
+      <c r="N697" s="9">
         <v>80.676328502415458</v>
       </c>
     </row>
@@ -27871,25 +27872,25 @@
       <c r="B698" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C698" s="12">
+      <c r="C698" s="9">
         <v>90.031152647975077</v>
       </c>
-      <c r="D698" s="12">
+      <c r="D698" s="9">
         <v>78.94736842105263</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F698" s="13">
+      <c r="F698" s="10">
         <v>642</v>
       </c>
-      <c r="G698" s="13">
+      <c r="G698" s="10">
         <v>642</v>
       </c>
-      <c r="M698" s="12">
+      <c r="M698" s="9">
         <v>90.031152647975077</v>
       </c>
-      <c r="N698" s="12">
+      <c r="N698" s="9">
         <v>78.94736842105263</v>
       </c>
     </row>
@@ -27900,25 +27901,25 @@
       <c r="B699" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C699" s="12">
+      <c r="C699" s="9">
         <v>100</v>
       </c>
-      <c r="D699" s="12">
+      <c r="D699" s="9">
         <v>70.716510903426794</v>
       </c>
       <c r="E699" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F699" s="13">
+      <c r="F699" s="10">
         <v>641</v>
       </c>
-      <c r="G699" s="13">
+      <c r="G699" s="10">
         <v>642</v>
       </c>
-      <c r="M699" s="12">
+      <c r="M699" s="9">
         <v>100</v>
       </c>
-      <c r="N699" s="12">
+      <c r="N699" s="9">
         <v>70.716510903426794</v>
       </c>
     </row>
@@ -27929,25 +27930,25 @@
       <c r="B700" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C700" s="12">
+      <c r="C700" s="9">
         <v>94.736842105263165</v>
       </c>
-      <c r="D700" s="12">
+      <c r="D700" s="9">
         <v>68.367346938775512</v>
       </c>
       <c r="E700" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F700" s="13">
+      <c r="F700" s="10">
         <v>586</v>
       </c>
-      <c r="G700" s="13">
+      <c r="G700" s="10">
         <v>588</v>
       </c>
-      <c r="M700" s="12">
+      <c r="M700" s="9">
         <v>94.736842105263165</v>
       </c>
-      <c r="N700" s="12">
+      <c r="N700" s="9">
         <v>68.367346938775512</v>
       </c>
     </row>
@@ -27958,25 +27959,25 @@
       <c r="B701" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C701" s="12">
+      <c r="C701" s="9">
         <v>79.68197879858657</v>
       </c>
-      <c r="D701" s="12">
+      <c r="D701" s="9">
         <v>54.657293497363789</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F701" s="13">
+      <c r="F701" s="10">
         <v>566</v>
       </c>
-      <c r="G701" s="13">
+      <c r="G701" s="10">
         <v>569</v>
       </c>
-      <c r="M701" s="12">
+      <c r="M701" s="9">
         <v>79.68197879858657</v>
       </c>
-      <c r="N701" s="12">
+      <c r="N701" s="9">
         <v>54.657293497363789</v>
       </c>
     </row>
@@ -27987,25 +27988,25 @@
       <c r="B702" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C702" s="12">
+      <c r="C702" s="9">
         <v>75.13227513227514</v>
       </c>
-      <c r="D702" s="12">
+      <c r="D702" s="9">
         <v>63.093145869947278</v>
       </c>
       <c r="E702" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F702" s="13">
+      <c r="F702" s="10">
         <v>567</v>
       </c>
-      <c r="G702" s="13">
+      <c r="G702" s="10">
         <v>569</v>
       </c>
-      <c r="M702" s="12">
+      <c r="M702" s="9">
         <v>75.13227513227514</v>
       </c>
-      <c r="N702" s="12">
+      <c r="N702" s="9">
         <v>63.093145869947278</v>
       </c>
     </row>
@@ -28027,25 +28028,25 @@
       <c r="B704" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C704" s="12">
+      <c r="C704" s="9">
         <v>97.53086419753086</v>
       </c>
-      <c r="D704" s="12">
+      <c r="D704" s="9">
         <v>94.5518453427065</v>
       </c>
       <c r="E704" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F704" s="13">
+      <c r="F704" s="10">
         <v>567</v>
       </c>
-      <c r="G704" s="13">
+      <c r="G704" s="10">
         <v>569</v>
       </c>
-      <c r="M704" s="12">
+      <c r="M704" s="9">
         <v>97.53086419753086</v>
       </c>
-      <c r="N704" s="12">
+      <c r="N704" s="9">
         <v>94.5518453427065</v>
       </c>
     </row>
@@ -28056,25 +28057,25 @@
       <c r="B705" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C705" s="12">
+      <c r="C705" s="9">
         <v>94.270833333333343</v>
       </c>
-      <c r="D705" s="12">
+      <c r="D705" s="9">
         <v>93.169877408056038</v>
       </c>
       <c r="E705" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F705" s="13">
+      <c r="F705" s="10">
         <v>576</v>
       </c>
-      <c r="G705" s="13">
+      <c r="G705" s="10">
         <v>572</v>
       </c>
-      <c r="M705" s="12">
+      <c r="M705" s="9">
         <v>94.270833333333343</v>
       </c>
-      <c r="N705" s="12">
+      <c r="N705" s="9">
         <v>93.169877408056038</v>
       </c>
     </row>
@@ -28085,25 +28086,25 @@
       <c r="B706" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C706" s="12">
+      <c r="C706" s="9">
         <v>95.81151832460732</v>
       </c>
-      <c r="D706" s="12">
+      <c r="D706" s="9">
         <v>94.764397905759168</v>
       </c>
       <c r="E706" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F706" s="13">
+      <c r="F706" s="10">
         <v>576</v>
       </c>
-      <c r="G706" s="13">
+      <c r="G706" s="10">
         <v>573</v>
       </c>
-      <c r="M706" s="12">
+      <c r="M706" s="9">
         <v>95.81151832460732</v>
       </c>
-      <c r="N706" s="12">
+      <c r="N706" s="9">
         <v>94.764397905759168</v>
       </c>
     </row>
@@ -28114,25 +28115,25 @@
       <c r="B707" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C707" s="12">
+      <c r="C707" s="9">
         <v>95.061728395061735</v>
       </c>
-      <c r="D707" s="12">
+      <c r="D707" s="9">
         <v>95.27145359019265</v>
       </c>
       <c r="E707" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F707" s="13">
+      <c r="F707" s="10">
         <v>573</v>
       </c>
-      <c r="G707" s="13">
+      <c r="G707" s="10">
         <v>571</v>
       </c>
-      <c r="M707" s="12">
+      <c r="M707" s="9">
         <v>95.061728395061735</v>
       </c>
-      <c r="N707" s="12">
+      <c r="N707" s="9">
         <v>95.27145359019265</v>
       </c>
     </row>
@@ -28143,25 +28144,25 @@
       <c r="B708" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C708" s="12">
+      <c r="C708" s="9">
         <v>96.283185840707958</v>
       </c>
-      <c r="D708" s="12">
+      <c r="D708" s="9">
         <v>95.921985815602838</v>
       </c>
       <c r="E708" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F708" s="13">
+      <c r="F708" s="10">
         <v>565</v>
       </c>
-      <c r="G708" s="13">
+      <c r="G708" s="10">
         <v>564</v>
       </c>
-      <c r="M708" s="12">
+      <c r="M708" s="9">
         <v>96.283185840707958</v>
       </c>
-      <c r="N708" s="12">
+      <c r="N708" s="9">
         <v>95.921985815602838</v>
       </c>
     </row>
@@ -28216,25 +28217,25 @@
       <c r="B713" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C713" s="12">
+      <c r="C713" s="9">
         <v>98.412698412698418</v>
       </c>
-      <c r="D713" s="12">
+      <c r="D713" s="9">
         <v>92.913385826771659</v>
       </c>
       <c r="E713" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F713" s="13">
+      <c r="F713" s="10">
         <v>126</v>
       </c>
-      <c r="G713" s="13">
+      <c r="G713" s="10">
         <v>127</v>
       </c>
-      <c r="M713" s="12">
+      <c r="M713" s="9">
         <v>98.412698412698418</v>
       </c>
-      <c r="N713" s="12">
+      <c r="N713" s="9">
         <v>92.913385826771659</v>
       </c>
     </row>
@@ -28245,25 +28246,25 @@
       <c r="B714" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C714" s="12">
+      <c r="C714" s="9">
         <v>93.650793650793645</v>
       </c>
-      <c r="D714" s="12">
+      <c r="D714" s="9">
         <v>84.251968503937007</v>
       </c>
       <c r="E714" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F714" s="13">
+      <c r="F714" s="10">
         <v>126</v>
       </c>
-      <c r="G714" s="13">
+      <c r="G714" s="10">
         <v>127</v>
       </c>
-      <c r="M714" s="12">
+      <c r="M714" s="9">
         <v>93.650793650793645</v>
       </c>
-      <c r="N714" s="12">
+      <c r="N714" s="9">
         <v>84.251968503937007</v>
       </c>
     </row>
@@ -28274,25 +28275,25 @@
       <c r="B715" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C715" s="12">
+      <c r="C715" s="9">
         <v>91.269841269841265</v>
       </c>
-      <c r="D715" s="12">
+      <c r="D715" s="9">
         <v>87.4015748031496</v>
       </c>
       <c r="E715" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F715" s="13">
+      <c r="F715" s="10">
         <v>126</v>
       </c>
-      <c r="G715" s="13">
+      <c r="G715" s="10">
         <v>127</v>
       </c>
-      <c r="M715" s="12">
+      <c r="M715" s="9">
         <v>91.269841269841265</v>
       </c>
-      <c r="N715" s="12">
+      <c r="N715" s="9">
         <v>87.4015748031496</v>
       </c>
     </row>
@@ -28303,25 +28304,25 @@
       <c r="B716" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C716" s="12">
+      <c r="C716" s="9">
         <v>88.095238095238088</v>
       </c>
-      <c r="D716" s="12">
+      <c r="D716" s="9">
         <v>93.7007874015748</v>
       </c>
       <c r="E716" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F716" s="13">
+      <c r="F716" s="10">
         <v>126</v>
       </c>
-      <c r="G716" s="13">
+      <c r="G716" s="10">
         <v>127</v>
       </c>
-      <c r="M716" s="12">
+      <c r="M716" s="9">
         <v>88.095238095238088</v>
       </c>
-      <c r="N716" s="12">
+      <c r="N716" s="9">
         <v>93.7007874015748</v>
       </c>
     </row>
@@ -28332,25 +28333,25 @@
       <c r="B717" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C717" s="12">
+      <c r="C717" s="9">
         <v>95.604395604395606</v>
       </c>
-      <c r="D717" s="12">
+      <c r="D717" s="9">
         <v>90.551181102362193</v>
       </c>
       <c r="E717" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F717" s="13">
+      <c r="F717" s="10">
         <v>126</v>
       </c>
-      <c r="G717" s="13">
+      <c r="G717" s="10">
         <v>127</v>
       </c>
-      <c r="M717" s="12">
+      <c r="M717" s="9">
         <v>95.604395604395606</v>
       </c>
-      <c r="N717" s="12">
+      <c r="N717" s="9">
         <v>90.551181102362193</v>
       </c>
     </row>
@@ -28361,25 +28362,25 @@
       <c r="B718" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C718" s="12">
+      <c r="C718" s="9">
         <v>80</v>
       </c>
-      <c r="D718" s="12">
+      <c r="D718" s="9">
         <v>85.294117647058826</v>
       </c>
       <c r="E718" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F718" s="13">
+      <c r="F718" s="10">
         <v>35</v>
       </c>
-      <c r="G718" s="13">
+      <c r="G718" s="10">
         <v>34</v>
       </c>
-      <c r="M718" s="12">
+      <c r="M718" s="9">
         <v>80</v>
       </c>
-      <c r="N718" s="12">
+      <c r="N718" s="9">
         <v>85.294117647058826</v>
       </c>
     </row>
@@ -28390,25 +28391,25 @@
       <c r="B719" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C719" s="12">
+      <c r="C719" s="9">
         <v>74.285714285714292</v>
       </c>
-      <c r="D719" s="12">
+      <c r="D719" s="9">
         <v>70</v>
       </c>
       <c r="E719" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F719" s="13">
+      <c r="F719" s="10">
         <v>35</v>
       </c>
-      <c r="G719" s="13">
+      <c r="G719" s="10">
         <v>20</v>
       </c>
-      <c r="M719" s="12">
+      <c r="M719" s="9">
         <v>74.285714285714292</v>
       </c>
-      <c r="N719" s="12">
+      <c r="N719" s="9">
         <v>70</v>
       </c>
     </row>
@@ -28419,29 +28420,29 @@
       <c r="B720" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C720" s="12">
+      <c r="C720" s="9">
         <v>73.529411764705884</v>
       </c>
-      <c r="D720" s="12">
+      <c r="D720" s="9">
         <v>85</v>
       </c>
       <c r="E720" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F720" s="13">
+      <c r="F720" s="10">
         <v>35</v>
       </c>
-      <c r="G720" s="13">
+      <c r="G720" s="10">
         <v>20</v>
       </c>
-      <c r="M720" s="12">
+      <c r="M720" s="9">
         <v>73.529411764705884</v>
       </c>
-      <c r="N720" s="12">
+      <c r="N720" s="9">
         <v>85</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721" s="4">
         <v>2025</v>
       </c>
@@ -28451,6 +28452,256 @@
       <c r="E721" s="1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A722" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B722" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C722" s="9">
+        <v>90.205371248025273</v>
+      </c>
+      <c r="D722" s="9">
+        <v>80.476190476190482</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F722" s="10">
+        <v>633</v>
+      </c>
+      <c r="G722" s="10">
+        <v>630</v>
+      </c>
+      <c r="M722" s="9">
+        <v>90.205371248025273</v>
+      </c>
+      <c r="N722" s="9">
+        <v>80.476190476190482</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A723" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B723" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C723" s="9">
+        <v>86.068111455108351</v>
+      </c>
+      <c r="D723" s="9">
+        <v>72.511848341232238</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F723" s="10">
+        <v>646</v>
+      </c>
+      <c r="G723" s="10">
+        <v>637</v>
+      </c>
+      <c r="M723" s="9">
+        <v>86.068111455108351</v>
+      </c>
+      <c r="N723" s="9">
+        <v>72.511848341232238</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A724" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B724" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C724" s="9">
+        <v>86.461538461538453</v>
+      </c>
+      <c r="D724" s="9">
+        <v>76.056338028169009</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F724" s="10">
+        <v>652</v>
+      </c>
+      <c r="G724" s="10">
+        <v>651</v>
+      </c>
+      <c r="M724" s="9">
+        <v>86.461538461538453</v>
+      </c>
+      <c r="N724" s="9">
+        <v>76.056338028169009</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A725" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B725" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C725" s="9">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="D725" s="9">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F725" s="10">
+        <v>673</v>
+      </c>
+      <c r="G725" s="10">
+        <v>673</v>
+      </c>
+      <c r="M725" s="9">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="N725" s="9">
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A726" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B726" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C726" s="9">
+        <v>81.99404761904762</v>
+      </c>
+      <c r="D726" s="9">
+        <v>72.172619047619051</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F726" s="10">
+        <v>673</v>
+      </c>
+      <c r="G726" s="10">
+        <v>674</v>
+      </c>
+      <c r="M726" s="9">
+        <v>81.99404761904762</v>
+      </c>
+      <c r="N726" s="9">
+        <v>72.172619047619051</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A727" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B727" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C727" s="9">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D727" s="9">
+        <v>78.074074074074076</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F727" s="10">
+        <v>675</v>
+      </c>
+      <c r="G727" s="10">
+        <v>676</v>
+      </c>
+      <c r="M727" s="9">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="N727" s="9">
+        <v>78.074074074074076</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A728" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B728" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C728" s="9">
+        <v>77.947932618682998</v>
+      </c>
+      <c r="D728" s="9">
+        <v>68.091603053435108</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F728" s="10">
+        <v>653</v>
+      </c>
+      <c r="G728" s="10">
+        <v>655</v>
+      </c>
+      <c r="M728" s="9">
+        <v>77.947932618682998</v>
+      </c>
+      <c r="N728" s="9">
+        <v>68.091603053435108</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A729" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B729" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C729" s="9">
+        <v>73.660030627871365</v>
+      </c>
+      <c r="D729" s="9">
+        <v>77.251908396946561</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F729" s="10">
+        <v>653</v>
+      </c>
+      <c r="G729" s="10">
+        <v>655</v>
+      </c>
+      <c r="M729" s="9">
+        <v>73.660030627871365</v>
+      </c>
+      <c r="N729" s="9">
+        <v>77.251908396946561</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A730" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B730" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A731" s="4"/>
+      <c r="B731" s="14"/>
+    </row>
+    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A732" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -28537,45 +28788,45 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="9"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -28637,7 +28888,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -28697,7 +28948,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -28757,7 +29008,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -28817,7 +29068,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -28877,7 +29128,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -28937,7 +29188,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -28997,7 +29248,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -29057,7 +29308,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -29117,7 +29368,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -29177,7 +29428,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -29237,7 +29488,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -29297,7 +29548,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -29359,7 +29610,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -29419,7 +29670,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -29479,7 +29730,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -29539,7 +29790,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -29599,7 +29850,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -29659,7 +29910,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -29719,7 +29970,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -29779,7 +30030,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -29839,7 +30090,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -29899,7 +30150,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -29959,7 +30210,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -30019,7 +30270,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="11">
         <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -30081,7 +30332,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -30141,7 +30392,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -30201,7 +30452,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
@@ -30261,7 +30512,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
@@ -30321,7 +30572,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -30381,7 +30632,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -30441,7 +30692,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
@@ -30501,7 +30752,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -30561,7 +30812,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
@@ -30621,7 +30872,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
@@ -30681,7 +30932,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -30741,7 +30992,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="11">
         <v>2022</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -30803,7 +31054,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -30863,7 +31114,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -30923,7 +31174,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -30983,7 +31234,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -31043,7 +31294,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -31103,7 +31354,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -31163,7 +31414,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -31223,7 +31474,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
@@ -31283,7 +31534,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
@@ -31343,7 +31594,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
@@ -31403,7 +31654,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -31463,7 +31714,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="11">
         <v>2023</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -31525,7 +31776,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
@@ -31585,7 +31836,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -31645,7 +31896,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
@@ -31705,7 +31956,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
@@ -31765,7 +32016,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -31825,7 +32076,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
@@ -31885,7 +32136,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
@@ -31945,7 +32196,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
@@ -32005,7 +32256,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
@@ -32065,7 +32316,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
@@ -32125,7 +32376,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
@@ -32185,7 +32436,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="12">
         <v>2024</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -32247,7 +32498,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
@@ -32307,7 +32558,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -32367,7 +32618,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="1" t="s">
         <v>16</v>
       </c>
@@ -32427,7 +32678,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
@@ -32487,7 +32738,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
@@ -32547,7 +32798,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
@@ -32607,7 +32858,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
@@ -32667,7 +32918,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
@@ -32727,7 +32978,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
@@ -32787,7 +33038,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
@@ -32847,7 +33098,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="4" t="s">
         <v>24</v>
       </c>
@@ -32970,11 +33221,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -32985,6 +33231,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33251,15 +33502,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
@@ -33268,6 +33510,15 @@
     <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33290,14 +33541,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -33306,4 +33549,12 @@
     <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F78FBB12-BE7E-449D-B9A0-CCF829D27887}"/>
+  <xr:revisionPtr revIDLastSave="540" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3801E49-6C75-4518-A1A6-7BFD8A7FD4D1}"/>
   <bookViews>
-    <workbookView xWindow="67095" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="41">
   <si>
     <t>År</t>
   </si>
@@ -162,6 +162,9 @@
   <si>
     <t>ju</t>
   </si>
+  <si>
+    <t>Sem</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5170,10 +5173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ732"/>
+  <dimension ref="A1:AJ742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G723" sqref="G723"/>
+    <sheetView tabSelected="1" topLeftCell="A715" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W748" sqref="W748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28442,7 +28445,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A721" s="4">
         <v>2025</v>
       </c>
@@ -28453,11 +28456,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A722" s="4">
         <v>2025</v>
       </c>
-      <c r="B722" s="14" t="s">
+      <c r="B722" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C722" s="9">
@@ -28482,11 +28485,11 @@
         <v>80.476190476190482</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A723" s="4">
         <v>2025</v>
       </c>
-      <c r="B723" s="14" t="s">
+      <c r="B723" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C723" s="9">
@@ -28511,11 +28514,11 @@
         <v>72.511848341232238</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A724" s="4">
         <v>2025</v>
       </c>
-      <c r="B724" s="14" t="s">
+      <c r="B724" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C724" s="9">
@@ -28540,11 +28543,11 @@
         <v>76.056338028169009</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A725" s="4">
         <v>2025</v>
       </c>
-      <c r="B725" s="14" t="s">
+      <c r="B725" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C725" s="9">
@@ -28569,11 +28572,11 @@
         <v>63.636363636363633</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A726" s="4">
         <v>2025</v>
       </c>
-      <c r="B726" s="14" t="s">
+      <c r="B726" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C726" s="9">
@@ -28598,11 +28601,11 @@
         <v>72.172619047619051</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A727" s="4">
         <v>2025</v>
       </c>
-      <c r="B727" s="14" t="s">
+      <c r="B727" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C727" s="9">
@@ -28626,12 +28629,15 @@
       <c r="N727" s="9">
         <v>78.074074074074076</v>
       </c>
-    </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W727" s="14"/>
+      <c r="Z727" s="9"/>
+      <c r="AA727" s="10"/>
+    </row>
+    <row r="728" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A728" s="4">
         <v>2025</v>
       </c>
-      <c r="B728" s="14" t="s">
+      <c r="B728" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C728" s="9">
@@ -28655,12 +28661,15 @@
       <c r="N728" s="9">
         <v>68.091603053435108</v>
       </c>
-    </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W728" s="14"/>
+      <c r="Z728" s="9"/>
+      <c r="AA728" s="10"/>
+    </row>
+    <row r="729" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A729" s="4">
         <v>2025</v>
       </c>
-      <c r="B729" s="14" t="s">
+      <c r="B729" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C729" s="9">
@@ -28684,24 +28693,326 @@
       <c r="N729" s="9">
         <v>77.251908396946561</v>
       </c>
-    </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="W729" s="14"/>
+      <c r="Z729" s="9"/>
+      <c r="AA729" s="10"/>
+    </row>
+    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A730" s="4">
         <v>2025</v>
       </c>
-      <c r="B730" s="14" t="s">
+      <c r="B730" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E730" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A731" s="4"/>
-      <c r="B731" s="14"/>
-    </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A732" s="4"/>
+      <c r="W730" s="14"/>
+      <c r="Z730" s="9"/>
+      <c r="AA730" s="10"/>
+    </row>
+    <row r="731" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A731" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C731" s="9">
+        <v>91.591591591591595</v>
+      </c>
+      <c r="D731" s="9">
+        <v>79.017857142857139</v>
+      </c>
+      <c r="E731" t="s">
+        <v>4</v>
+      </c>
+      <c r="F731" s="10">
+        <v>666</v>
+      </c>
+      <c r="G731" s="10">
+        <v>672</v>
+      </c>
+      <c r="M731" s="9">
+        <v>91.591591591591595</v>
+      </c>
+      <c r="N731" s="9">
+        <v>79.017857142857139</v>
+      </c>
+      <c r="W731" s="14"/>
+      <c r="Z731" s="9"/>
+      <c r="AA731" s="10"/>
+    </row>
+    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A732" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C732" s="9">
+        <v>88.017751479289942</v>
+      </c>
+      <c r="D732" s="9">
+        <v>72.362555720653788</v>
+      </c>
+      <c r="E732" t="s">
+        <v>5</v>
+      </c>
+      <c r="F732" s="10">
+        <v>676</v>
+      </c>
+      <c r="G732" s="10">
+        <v>675</v>
+      </c>
+      <c r="M732" s="9">
+        <v>88.017751479289942</v>
+      </c>
+      <c r="N732" s="9">
+        <v>72.362555720653788</v>
+      </c>
+      <c r="W732" s="14"/>
+      <c r="Z732" s="9"/>
+      <c r="AA732" s="10"/>
+    </row>
+    <row r="733" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A733" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C733" s="9">
+        <v>88.67647058823529</v>
+      </c>
+      <c r="D733" s="9">
+        <v>78.10650887573965</v>
+      </c>
+      <c r="E733" t="s">
+        <v>6</v>
+      </c>
+      <c r="F733" s="10">
+        <v>680</v>
+      </c>
+      <c r="G733" s="10">
+        <v>679</v>
+      </c>
+      <c r="M733" s="9">
+        <v>88.67647058823529</v>
+      </c>
+      <c r="N733" s="9">
+        <v>78.10650887573965</v>
+      </c>
+      <c r="W733" s="14"/>
+      <c r="Z733" s="9"/>
+      <c r="AA733" s="10"/>
+    </row>
+    <row r="734" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A734" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C734" s="9">
+        <v>88.034188034188034</v>
+      </c>
+      <c r="D734" s="9">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="E734" t="s">
+        <v>7</v>
+      </c>
+      <c r="F734" s="10">
+        <v>703</v>
+      </c>
+      <c r="G734" s="10">
+        <v>702</v>
+      </c>
+      <c r="M734" s="9">
+        <v>88.034188034188034</v>
+      </c>
+      <c r="N734" s="9">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="W734" s="14"/>
+      <c r="Z734" s="9"/>
+      <c r="AA734" s="10"/>
+    </row>
+    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A735" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C735" s="9">
+        <v>83.78378378378379</v>
+      </c>
+      <c r="D735" s="9">
+        <v>73.219373219373225</v>
+      </c>
+      <c r="E735" t="s">
+        <v>8</v>
+      </c>
+      <c r="F735" s="10">
+        <v>703</v>
+      </c>
+      <c r="G735" s="10">
+        <v>702</v>
+      </c>
+      <c r="M735" s="9">
+        <v>83.78378378378379</v>
+      </c>
+      <c r="N735" s="9">
+        <v>73.219373219373225</v>
+      </c>
+      <c r="W735" s="14"/>
+      <c r="Z735" s="9"/>
+      <c r="AA735" s="10"/>
+    </row>
+    <row r="736" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A736" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C736" s="9">
+        <v>79.26136363636364</v>
+      </c>
+      <c r="D736" s="9">
+        <v>75.320970042796006</v>
+      </c>
+      <c r="E736" t="s">
+        <v>40</v>
+      </c>
+      <c r="F736" s="10">
+        <v>704</v>
+      </c>
+      <c r="G736" s="10">
+        <v>702</v>
+      </c>
+      <c r="M736" s="9">
+        <v>79.26136363636364</v>
+      </c>
+      <c r="N736" s="9">
+        <v>75.320970042796006</v>
+      </c>
+      <c r="W736" s="14"/>
+      <c r="Z736" s="9"/>
+      <c r="AA736" s="10"/>
+    </row>
+    <row r="737" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A737" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C737" s="9">
+        <v>95.833333333333343</v>
+      </c>
+      <c r="D737" s="9">
+        <v>76.714285714285708</v>
+      </c>
+      <c r="E737" t="s">
+        <v>9</v>
+      </c>
+      <c r="F737" s="10">
+        <v>703</v>
+      </c>
+      <c r="G737" s="10">
+        <v>702</v>
+      </c>
+      <c r="M737" s="9">
+        <v>95.833333333333343</v>
+      </c>
+      <c r="N737" s="9">
+        <v>76.714285714285708</v>
+      </c>
+      <c r="W737" s="14"/>
+      <c r="Z737" s="9"/>
+      <c r="AA737" s="10"/>
+    </row>
+    <row r="738" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A738" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C738" s="9">
+        <v>81.547619047619051</v>
+      </c>
+      <c r="D738" s="9">
+        <v>68.00595238095238</v>
+      </c>
+      <c r="E738" t="s">
+        <v>10</v>
+      </c>
+      <c r="F738" s="10">
+        <v>672</v>
+      </c>
+      <c r="G738" s="10">
+        <v>672</v>
+      </c>
+      <c r="M738" s="9">
+        <v>81.547619047619051</v>
+      </c>
+      <c r="N738" s="9">
+        <v>68.00595238095238</v>
+      </c>
+      <c r="W738" s="14"/>
+      <c r="Z738" s="9"/>
+      <c r="AA738" s="10"/>
+    </row>
+    <row r="739" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A739" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C739" s="9">
+        <v>76.583210603829158</v>
+      </c>
+      <c r="D739" s="9">
+        <v>74.002954209748893</v>
+      </c>
+      <c r="E739" t="s">
+        <v>11</v>
+      </c>
+      <c r="F739" s="10">
+        <v>679</v>
+      </c>
+      <c r="G739" s="10">
+        <v>680</v>
+      </c>
+      <c r="M739" s="9">
+        <v>76.583210603829158</v>
+      </c>
+      <c r="N739" s="9">
+        <v>74.002954209748893</v>
+      </c>
+      <c r="W739" s="14"/>
+      <c r="Z739" s="9"/>
+      <c r="AA739" s="10"/>
+    </row>
+    <row r="740" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W740" s="14"/>
+      <c r="Z740" s="9"/>
+      <c r="AA740" s="10"/>
+    </row>
+    <row r="741" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W741" s="14"/>
+      <c r="Z741" s="9"/>
+      <c r="AA741" s="10"/>
+    </row>
+    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W742" s="14"/>
+      <c r="Z742" s="9"/>
+      <c r="AA742" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -33221,6 +33532,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -33231,11 +33547,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33502,6 +33813,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
@@ -33510,15 +33830,6 @@
     <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33541,6 +33852,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -33549,12 +33868,4 @@
     <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3801E49-6C75-4518-A1A6-7BFD8A7FD4D1}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7628E01-3B3D-4D19-A150-3FEE3743EE41}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="40">
   <si>
     <t>År</t>
   </si>
@@ -162,9 +162,6 @@
   <si>
     <t>ju</t>
   </si>
-  <si>
-    <t>Sem</t>
-  </si>
 </sst>
 </file>
 
@@ -268,6 +265,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,7 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5173,10 +5170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ742"/>
+  <dimension ref="A1:AJ741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A715" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W748" sqref="W748"/>
+    <sheetView tabSelected="1" topLeftCell="A721" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E735" sqref="E735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28629,7 +28626,7 @@
       <c r="N727" s="9">
         <v>78.074074074074076</v>
       </c>
-      <c r="W727" s="14"/>
+      <c r="W727" s="11"/>
       <c r="Z727" s="9"/>
       <c r="AA727" s="10"/>
     </row>
@@ -28661,7 +28658,7 @@
       <c r="N728" s="9">
         <v>68.091603053435108</v>
       </c>
-      <c r="W728" s="14"/>
+      <c r="W728" s="11"/>
       <c r="Z728" s="9"/>
       <c r="AA728" s="10"/>
     </row>
@@ -28693,7 +28690,7 @@
       <c r="N729" s="9">
         <v>77.251908396946561</v>
       </c>
-      <c r="W729" s="14"/>
+      <c r="W729" s="11"/>
       <c r="Z729" s="9"/>
       <c r="AA729" s="10"/>
     </row>
@@ -28707,7 +28704,7 @@
       <c r="E730" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W730" s="14"/>
+      <c r="W730" s="11"/>
       <c r="Z730" s="9"/>
       <c r="AA730" s="10"/>
     </row>
@@ -28739,7 +28736,7 @@
       <c r="N731" s="9">
         <v>79.017857142857139</v>
       </c>
-      <c r="W731" s="14"/>
+      <c r="W731" s="11"/>
       <c r="Z731" s="9"/>
       <c r="AA731" s="10"/>
     </row>
@@ -28771,7 +28768,7 @@
       <c r="N732" s="9">
         <v>72.362555720653788</v>
       </c>
-      <c r="W732" s="14"/>
+      <c r="W732" s="11"/>
       <c r="Z732" s="9"/>
       <c r="AA732" s="10"/>
     </row>
@@ -28803,7 +28800,7 @@
       <c r="N733" s="9">
         <v>78.10650887573965</v>
       </c>
-      <c r="W733" s="14"/>
+      <c r="W733" s="11"/>
       <c r="Z733" s="9"/>
       <c r="AA733" s="10"/>
     </row>
@@ -28835,7 +28832,7 @@
       <c r="N734" s="9">
         <v>65.217391304347828</v>
       </c>
-      <c r="W734" s="14"/>
+      <c r="W734" s="11"/>
       <c r="Z734" s="9"/>
       <c r="AA734" s="10"/>
     </row>
@@ -28867,7 +28864,7 @@
       <c r="N735" s="9">
         <v>73.219373219373225</v>
       </c>
-      <c r="W735" s="14"/>
+      <c r="W735" s="11"/>
       <c r="Z735" s="9"/>
       <c r="AA735" s="10"/>
     </row>
@@ -28879,27 +28876,27 @@
         <v>22</v>
       </c>
       <c r="C736" s="9">
-        <v>79.26136363636364</v>
+        <v>95.833333333333343</v>
       </c>
       <c r="D736" s="9">
-        <v>75.320970042796006</v>
+        <v>76.714285714285708</v>
       </c>
       <c r="E736" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F736" s="10">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G736" s="10">
         <v>702</v>
       </c>
       <c r="M736" s="9">
-        <v>79.26136363636364</v>
+        <v>95.833333333333343</v>
       </c>
       <c r="N736" s="9">
-        <v>75.320970042796006</v>
-      </c>
-      <c r="W736" s="14"/>
+        <v>76.714285714285708</v>
+      </c>
+      <c r="W736" s="11"/>
       <c r="Z736" s="9"/>
       <c r="AA736" s="10"/>
     </row>
@@ -28911,27 +28908,27 @@
         <v>22</v>
       </c>
       <c r="C737" s="9">
-        <v>95.833333333333343</v>
+        <v>81.547619047619051</v>
       </c>
       <c r="D737" s="9">
-        <v>76.714285714285708</v>
+        <v>68.00595238095238</v>
       </c>
       <c r="E737" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F737" s="10">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="G737" s="10">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="M737" s="9">
-        <v>95.833333333333343</v>
+        <v>81.547619047619051</v>
       </c>
       <c r="N737" s="9">
-        <v>76.714285714285708</v>
-      </c>
-      <c r="W737" s="14"/>
+        <v>68.00595238095238</v>
+      </c>
+      <c r="W737" s="11"/>
       <c r="Z737" s="9"/>
       <c r="AA737" s="10"/>
     </row>
@@ -28943,76 +28940,47 @@
         <v>22</v>
       </c>
       <c r="C738" s="9">
-        <v>81.547619047619051</v>
+        <v>76.583210603829158</v>
       </c>
       <c r="D738" s="9">
-        <v>68.00595238095238</v>
+        <v>74.002954209748893</v>
       </c>
       <c r="E738" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F738" s="10">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="G738" s="10">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="M738" s="9">
-        <v>81.547619047619051</v>
+        <v>76.583210603829158</v>
       </c>
       <c r="N738" s="9">
-        <v>68.00595238095238</v>
-      </c>
-      <c r="W738" s="14"/>
+        <v>74.002954209748893</v>
+      </c>
+      <c r="W738" s="11"/>
       <c r="Z738" s="9"/>
       <c r="AA738" s="10"/>
     </row>
     <row r="739" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A739" s="4">
-        <v>2025</v>
-      </c>
-      <c r="B739" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C739" s="9">
-        <v>76.583210603829158</v>
-      </c>
-      <c r="D739" s="9">
-        <v>74.002954209748893</v>
-      </c>
       <c r="E739" t="s">
-        <v>11</v>
-      </c>
-      <c r="F739" s="10">
-        <v>679</v>
-      </c>
-      <c r="G739" s="10">
-        <v>680</v>
-      </c>
-      <c r="M739" s="9">
-        <v>76.583210603829158</v>
-      </c>
-      <c r="N739" s="9">
-        <v>74.002954209748893</v>
-      </c>
-      <c r="W739" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="W739" s="11"/>
       <c r="Z739" s="9"/>
       <c r="AA739" s="10"/>
     </row>
     <row r="740" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W740" s="14"/>
+      <c r="W740" s="11"/>
       <c r="Z740" s="9"/>
       <c r="AA740" s="10"/>
     </row>
     <row r="741" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W741" s="14"/>
+      <c r="W741" s="11"/>
       <c r="Z741" s="9"/>
       <c r="AA741" s="10"/>
-    </row>
-    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="W742" s="14"/>
-      <c r="Z742" s="9"/>
-      <c r="AA742" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -29099,45 +29067,45 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="11"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -29199,7 +29167,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -29259,7 +29227,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -29319,7 +29287,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -29379,7 +29347,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -29439,7 +29407,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -29499,7 +29467,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -29559,7 +29527,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -29619,7 +29587,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -29679,7 +29647,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -29739,7 +29707,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -29799,7 +29767,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -29859,7 +29827,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -29921,7 +29889,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -29981,7 +29949,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -30041,7 +30009,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -30101,7 +30069,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -30161,7 +30129,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -30221,7 +30189,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -30281,7 +30249,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -30341,7 +30309,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -30401,7 +30369,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -30461,7 +30429,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -30521,7 +30489,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -30581,7 +30549,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -30643,7 +30611,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -30703,7 +30671,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -30763,7 +30731,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
@@ -30823,7 +30791,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
@@ -30883,7 +30851,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -30943,7 +30911,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -31003,7 +30971,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
@@ -31063,7 +31031,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -31123,7 +31091,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
@@ -31183,7 +31151,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
@@ -31243,7 +31211,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -31303,7 +31271,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>2022</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -31365,7 +31333,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
@@ -31425,7 +31393,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -31485,7 +31453,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
@@ -31545,7 +31513,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
@@ -31605,7 +31573,7 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -31665,7 +31633,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -31725,7 +31693,7 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -31785,7 +31753,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
@@ -31845,7 +31813,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
@@ -31905,7 +31873,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
@@ -31965,7 +31933,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
@@ -32025,7 +31993,7 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="12">
         <v>2023</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -32087,7 +32055,7 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
@@ -32147,7 +32115,7 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -32207,7 +32175,7 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
@@ -32267,7 +32235,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
@@ -32327,7 +32295,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
@@ -32387,7 +32355,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
@@ -32447,7 +32415,7 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
@@ -32507,7 +32475,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
@@ -32567,7 +32535,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
@@ -32627,7 +32595,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
@@ -32687,7 +32655,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
@@ -32747,7 +32715,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="A63" s="13">
         <v>2024</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -32809,7 +32777,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
@@ -32869,7 +32837,7 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -32929,7 +32897,7 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="1" t="s">
         <v>16</v>
       </c>
@@ -32989,7 +32957,7 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
@@ -33049,7 +33017,7 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
@@ -33109,7 +33077,7 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
@@ -33169,7 +33137,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
@@ -33229,7 +33197,7 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
@@ -33289,7 +33257,7 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
@@ -33349,7 +33317,7 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
@@ -33409,7 +33377,7 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="4" t="s">
         <v>24</v>
       </c>
@@ -33532,11 +33500,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -33547,6 +33510,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33558,6 +33526,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -33812,27 +33800,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33849,23 +33836,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -5172,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
   <dimension ref="A1:AJ741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A721" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E735" sqref="E735"/>
+    <sheetView tabSelected="1" topLeftCell="A724" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D738" sqref="D738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33500,6 +33500,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -33510,11 +33515,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33526,26 +33526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -33800,26 +33780,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33836,4 +33817,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Punktlighet_tog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7628E01-3B3D-4D19-A150-3FEE3743EE41}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="8_{840FB08B-DE99-453E-B629-E89AADE1FD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718C63AD-381C-4862-9D11-CEA624D7B3CC}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" activeTab="1" xr2:uid="{505C7C03-B5C0-43C5-A197-1F7CDBCB9E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Punktlighet" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="40">
   <si>
     <t>År</t>
   </si>
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,11 +245,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -275,6 +284,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5170,10 +5181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}">
-  <dimension ref="A1:AJ741"/>
+  <dimension ref="A1:AJ811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D738" sqref="D738"/>
+    <sheetView tabSelected="1" topLeftCell="A722" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D760" sqref="D760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28965,22 +28976,1007 @@
       <c r="AA738" s="10"/>
     </row>
     <row r="739" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A739" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C739" s="9">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="D739" s="9">
+        <v>86.312399355877616</v>
+      </c>
       <c r="E739" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F739" s="10">
+        <v>624</v>
+      </c>
+      <c r="G739" s="10">
+        <v>621</v>
+      </c>
+      <c r="M739" s="9">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="N739" s="9">
+        <v>86.312399355877616</v>
       </c>
       <c r="W739" s="11"/>
       <c r="Z739" s="9"/>
       <c r="AA739" s="10"/>
     </row>
     <row r="740" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A740" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C740" s="9">
+        <v>90.56</v>
+      </c>
+      <c r="D740" s="9">
+        <v>77.652733118971057</v>
+      </c>
+      <c r="E740" t="s">
+        <v>5</v>
+      </c>
+      <c r="F740" s="10">
+        <v>628</v>
+      </c>
+      <c r="G740" s="10">
+        <v>624</v>
+      </c>
+      <c r="M740" s="9">
+        <v>90.56</v>
+      </c>
+      <c r="N740" s="9">
+        <v>77.652733118971057</v>
+      </c>
       <c r="W740" s="11"/>
       <c r="Z740" s="9"/>
       <c r="AA740" s="10"/>
     </row>
     <row r="741" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A741" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C741" s="9">
+        <v>90.078740157480325</v>
+      </c>
+      <c r="D741" s="9">
+        <v>84.935897435897431</v>
+      </c>
+      <c r="E741" t="s">
+        <v>6</v>
+      </c>
+      <c r="F741" s="10">
+        <v>635</v>
+      </c>
+      <c r="G741" s="10">
+        <v>631</v>
+      </c>
+      <c r="M741" s="9">
+        <v>90.078740157480325</v>
+      </c>
+      <c r="N741" s="9">
+        <v>84.935897435897431</v>
+      </c>
       <c r="W741" s="11"/>
       <c r="Z741" s="9"/>
       <c r="AA741" s="10"/>
+    </row>
+    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A742" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C742" s="9">
+        <v>86.564885496183209</v>
+      </c>
+      <c r="D742" s="9">
+        <v>70</v>
+      </c>
+      <c r="E742" t="s">
+        <v>7</v>
+      </c>
+      <c r="F742" s="10">
+        <v>657</v>
+      </c>
+      <c r="G742" s="10">
+        <v>652</v>
+      </c>
+      <c r="M742" s="9">
+        <v>86.564885496183209</v>
+      </c>
+      <c r="N742" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="743" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A743" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C743" s="9">
+        <v>83.717357910906301</v>
+      </c>
+      <c r="D743" s="9">
+        <v>77.950310559006212</v>
+      </c>
+      <c r="E743" t="s">
+        <v>8</v>
+      </c>
+      <c r="F743" s="10">
+        <v>651</v>
+      </c>
+      <c r="G743" s="10">
+        <v>648</v>
+      </c>
+      <c r="M743" s="9">
+        <v>83.717357910906301</v>
+      </c>
+      <c r="N743" s="9">
+        <v>77.950310559006212</v>
+      </c>
+    </row>
+    <row r="744" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A744" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C744" s="9">
+        <v>85</v>
+      </c>
+      <c r="D744" s="9">
+        <v>82.94930875576037</v>
+      </c>
+      <c r="E744" t="s">
+        <v>9</v>
+      </c>
+      <c r="F744" s="10">
+        <v>655</v>
+      </c>
+      <c r="G744" s="10">
+        <v>653</v>
+      </c>
+      <c r="M744" s="9">
+        <v>85</v>
+      </c>
+      <c r="N744" s="9">
+        <v>82.94930875576037</v>
+      </c>
+    </row>
+    <row r="745" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A745" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C745" s="9">
+        <v>80.472440944881882</v>
+      </c>
+      <c r="D745" s="9">
+        <v>77.251184834123222</v>
+      </c>
+      <c r="E745" t="s">
+        <v>10</v>
+      </c>
+      <c r="F745" s="10">
+        <v>635</v>
+      </c>
+      <c r="G745" s="10">
+        <v>633</v>
+      </c>
+      <c r="M745" s="9">
+        <v>80.472440944881882</v>
+      </c>
+      <c r="N745" s="9">
+        <v>77.251184834123222</v>
+      </c>
+    </row>
+    <row r="746" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A746" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C746" s="9">
+        <v>77.165354330708652</v>
+      </c>
+      <c r="D746" s="9">
+        <v>85.466034755134274</v>
+      </c>
+      <c r="E746" t="s">
+        <v>11</v>
+      </c>
+      <c r="F746" s="10">
+        <v>635</v>
+      </c>
+      <c r="G746" s="10">
+        <v>633</v>
+      </c>
+      <c r="M746" s="9">
+        <v>77.165354330708652</v>
+      </c>
+      <c r="N746" s="9">
+        <v>85.466034755134274</v>
+      </c>
+    </row>
+    <row r="747" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A747" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B747" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C747" s="9">
+        <v>96.385542168674704</v>
+      </c>
+      <c r="D747" s="9">
+        <v>89.955022488755617</v>
+      </c>
+      <c r="E747" t="s">
+        <v>4</v>
+      </c>
+      <c r="F747" s="10">
+        <v>664</v>
+      </c>
+      <c r="G747" s="10">
+        <v>667</v>
+      </c>
+      <c r="M747" s="9">
+        <v>96.385542168674704</v>
+      </c>
+      <c r="N747" s="9">
+        <v>89.955022488755617</v>
+      </c>
+      <c r="O747" s="15"/>
+      <c r="P747" s="15"/>
+      <c r="Q747" s="15"/>
+      <c r="R747" s="15"/>
+      <c r="S747" s="15"/>
+      <c r="T747" s="15"/>
+      <c r="U747" s="15"/>
+      <c r="V747" s="15"/>
+    </row>
+    <row r="748" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A748" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B748" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C748" s="9">
+        <v>94.319880418535135</v>
+      </c>
+      <c r="D748" s="9">
+        <v>82.238805970149258</v>
+      </c>
+      <c r="E748" t="s">
+        <v>5</v>
+      </c>
+      <c r="F748" s="10">
+        <v>669</v>
+      </c>
+      <c r="G748" s="10">
+        <v>670</v>
+      </c>
+      <c r="M748" s="9">
+        <v>94.319880418535135</v>
+      </c>
+      <c r="N748" s="9">
+        <v>82.238805970149258</v>
+      </c>
+      <c r="R748" s="11"/>
+      <c r="U748" s="9"/>
+      <c r="V748" s="10"/>
+    </row>
+    <row r="749" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A749" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B749" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C749" s="9">
+        <v>93.572496263079216</v>
+      </c>
+      <c r="D749" s="9">
+        <v>88.358208955223887</v>
+      </c>
+      <c r="E749" t="s">
+        <v>6</v>
+      </c>
+      <c r="F749" s="10">
+        <v>669</v>
+      </c>
+      <c r="G749" s="10">
+        <v>670</v>
+      </c>
+      <c r="M749" s="9">
+        <v>93.572496263079216</v>
+      </c>
+      <c r="N749" s="9">
+        <v>88.358208955223887</v>
+      </c>
+      <c r="R749" s="11"/>
+      <c r="U749" s="9"/>
+      <c r="V749" s="10"/>
+    </row>
+    <row r="750" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A750" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B750" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C750" s="9">
+        <v>94.476744186046517</v>
+      </c>
+      <c r="D750" s="9">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="E750" t="s">
+        <v>7</v>
+      </c>
+      <c r="F750" s="10">
+        <v>688</v>
+      </c>
+      <c r="G750" s="10">
+        <v>689</v>
+      </c>
+      <c r="M750" s="9">
+        <v>94.476744186046517</v>
+      </c>
+      <c r="N750" s="9">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="R750" s="11"/>
+      <c r="U750" s="9"/>
+      <c r="V750" s="10"/>
+    </row>
+    <row r="751" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A751" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B751" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C751" s="9">
+        <v>92.441860465116278</v>
+      </c>
+      <c r="D751" s="9">
+        <v>84.32510885341074</v>
+      </c>
+      <c r="E751" t="s">
+        <v>8</v>
+      </c>
+      <c r="F751" s="10">
+        <v>688</v>
+      </c>
+      <c r="G751" s="10">
+        <v>689</v>
+      </c>
+      <c r="M751" s="9">
+        <v>92.441860465116278</v>
+      </c>
+      <c r="N751" s="9">
+        <v>84.32510885341074</v>
+      </c>
+      <c r="R751" s="11"/>
+      <c r="U751" s="9"/>
+      <c r="V751" s="10"/>
+    </row>
+    <row r="752" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A752" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B752" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C752" s="9">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="D752" s="9">
+        <v>87.808417997097237</v>
+      </c>
+      <c r="E752" t="s">
+        <v>9</v>
+      </c>
+      <c r="F752" s="10">
+        <v>688</v>
+      </c>
+      <c r="G752" s="10">
+        <v>689</v>
+      </c>
+      <c r="M752" s="9">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="N752" s="9">
+        <v>87.808417997097237</v>
+      </c>
+      <c r="R752" s="11"/>
+      <c r="U752" s="9"/>
+      <c r="V752" s="10"/>
+    </row>
+    <row r="753" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A753" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B753" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C753" s="9">
+        <v>90.568862275449106</v>
+      </c>
+      <c r="D753" s="9">
+        <v>82.835820895522389</v>
+      </c>
+      <c r="E753" t="s">
+        <v>10</v>
+      </c>
+      <c r="F753" s="10">
+        <v>669</v>
+      </c>
+      <c r="G753" s="10">
+        <v>670</v>
+      </c>
+      <c r="M753" s="9">
+        <v>90.568862275449106</v>
+      </c>
+      <c r="N753" s="9">
+        <v>82.835820895522389</v>
+      </c>
+      <c r="R753" s="11"/>
+      <c r="U753" s="9"/>
+      <c r="V753" s="10"/>
+    </row>
+    <row r="754" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A754" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B754" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C754" s="9">
+        <v>88.340807174887885</v>
+      </c>
+      <c r="D754" s="9">
+        <v>88.041853512705529</v>
+      </c>
+      <c r="E754" t="s">
+        <v>11</v>
+      </c>
+      <c r="F754" s="10">
+        <v>669</v>
+      </c>
+      <c r="G754" s="10">
+        <v>669</v>
+      </c>
+      <c r="M754" s="9">
+        <v>88.340807174887885</v>
+      </c>
+      <c r="N754" s="9">
+        <v>88.041853512705529</v>
+      </c>
+      <c r="R754" s="11"/>
+      <c r="U754" s="9"/>
+      <c r="V754" s="10"/>
+    </row>
+    <row r="755" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A755" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B755" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C755" s="9">
+        <v>93.075684380032214</v>
+      </c>
+      <c r="D755" s="9">
+        <v>83.788121990369177</v>
+      </c>
+      <c r="E755" t="s">
+        <v>4</v>
+      </c>
+      <c r="F755" s="10">
+        <v>621</v>
+      </c>
+      <c r="G755" s="10">
+        <v>623</v>
+      </c>
+      <c r="M755" s="9">
+        <v>93.075684380032214</v>
+      </c>
+      <c r="N755" s="9">
+        <v>83.788121990369177</v>
+      </c>
+      <c r="R755" s="11"/>
+      <c r="U755" s="9"/>
+      <c r="V755" s="10"/>
+    </row>
+    <row r="756" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A756" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B756" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C756" s="9">
+        <v>89.92</v>
+      </c>
+      <c r="D756" s="9">
+        <v>76.48</v>
+      </c>
+      <c r="E756" t="s">
+        <v>5</v>
+      </c>
+      <c r="F756" s="10">
+        <v>625</v>
+      </c>
+      <c r="G756" s="10">
+        <v>626</v>
+      </c>
+      <c r="M756" s="9">
+        <v>89.92</v>
+      </c>
+      <c r="N756" s="9">
+        <v>76.48</v>
+      </c>
+      <c r="R756" s="11"/>
+      <c r="U756" s="9"/>
+      <c r="V756" s="10"/>
+    </row>
+    <row r="757" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A757" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B757" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C757" s="9">
+        <v>89.154704944178633</v>
+      </c>
+      <c r="D757" s="9">
+        <v>83.546325878594246</v>
+      </c>
+      <c r="E757" t="s">
+        <v>6</v>
+      </c>
+      <c r="F757" s="10">
+        <v>627</v>
+      </c>
+      <c r="G757" s="10">
+        <v>629</v>
+      </c>
+      <c r="M757" s="9">
+        <v>89.154704944178633</v>
+      </c>
+      <c r="N757" s="9">
+        <v>83.546325878594246</v>
+      </c>
+      <c r="R757" s="11"/>
+      <c r="U757" s="9"/>
+      <c r="V757" s="10"/>
+    </row>
+    <row r="758" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A758" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B758" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" s="9">
+        <v>89.644513137557951</v>
+      </c>
+      <c r="D758" s="9">
+        <v>85.714285714285722</v>
+      </c>
+      <c r="E758" t="s">
+        <v>7</v>
+      </c>
+      <c r="F758" s="10">
+        <v>649</v>
+      </c>
+      <c r="G758" s="10">
+        <v>650</v>
+      </c>
+      <c r="M758" s="9">
+        <v>89.644513137557951</v>
+      </c>
+      <c r="N758" s="9">
+        <v>85.714285714285722</v>
+      </c>
+      <c r="R758" s="11"/>
+      <c r="U758" s="9"/>
+      <c r="V758" s="10"/>
+    </row>
+    <row r="759" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A759" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B759" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C759" s="9">
+        <v>88.580246913580254</v>
+      </c>
+      <c r="D759" s="9">
+        <v>81.047765793528498</v>
+      </c>
+      <c r="E759" t="s">
+        <v>8</v>
+      </c>
+      <c r="F759" s="10">
+        <v>648</v>
+      </c>
+      <c r="G759" s="10">
+        <v>650</v>
+      </c>
+      <c r="M759" s="9">
+        <v>88.580246913580254</v>
+      </c>
+      <c r="N759" s="9">
+        <v>81.047765793528498</v>
+      </c>
+      <c r="R759" s="11"/>
+      <c r="U759" s="9"/>
+      <c r="V759" s="10"/>
+    </row>
+    <row r="760" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A760" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B760" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C760" s="9">
+        <v>85.714285714285722</v>
+      </c>
+      <c r="D760" s="9">
+        <v>84.104938271604937</v>
+      </c>
+      <c r="E760" t="s">
+        <v>9</v>
+      </c>
+      <c r="F760" s="10">
+        <v>650</v>
+      </c>
+      <c r="G760" s="10">
+        <v>650</v>
+      </c>
+      <c r="M760" s="9">
+        <v>85.714285714285722</v>
+      </c>
+      <c r="N760" s="9">
+        <v>84.104938271604937</v>
+      </c>
+      <c r="R760" s="11"/>
+      <c r="U760" s="9"/>
+      <c r="V760" s="10"/>
+    </row>
+    <row r="761" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A761" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B761" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C761" s="9">
+        <v>89.331210191082803</v>
+      </c>
+      <c r="D761" s="9">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="E761" t="s">
+        <v>10</v>
+      </c>
+      <c r="F761" s="10">
+        <v>629</v>
+      </c>
+      <c r="G761" s="10">
+        <v>629</v>
+      </c>
+      <c r="M761" s="9">
+        <v>89.331210191082803</v>
+      </c>
+      <c r="N761" s="9">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="R761" s="11"/>
+      <c r="U761" s="9"/>
+      <c r="V761" s="10"/>
+    </row>
+    <row r="762" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A762" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B762" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C762" s="9">
+        <v>87.898089171974519</v>
+      </c>
+      <c r="D762" s="9">
+        <v>78.378378378378372</v>
+      </c>
+      <c r="E762" t="s">
+        <v>11</v>
+      </c>
+      <c r="F762" s="10">
+        <v>628</v>
+      </c>
+      <c r="G762" s="10">
+        <v>629</v>
+      </c>
+      <c r="M762" s="9">
+        <v>87.898089171974519</v>
+      </c>
+      <c r="N762" s="9">
+        <v>78.378378378378372</v>
+      </c>
+      <c r="R762" s="11"/>
+      <c r="U762" s="9"/>
+      <c r="V762" s="10"/>
+    </row>
+    <row r="763" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R763" s="11"/>
+      <c r="U763" s="9"/>
+      <c r="V763" s="10"/>
+    </row>
+    <row r="764" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R764" s="11"/>
+      <c r="U764" s="9"/>
+      <c r="V764" s="10"/>
+    </row>
+    <row r="765" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R765" s="11"/>
+      <c r="U765" s="9"/>
+      <c r="V765" s="10"/>
+    </row>
+    <row r="766" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R766" s="11"/>
+      <c r="U766" s="9"/>
+      <c r="V766" s="10"/>
+    </row>
+    <row r="767" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R767" s="11"/>
+      <c r="U767" s="9"/>
+      <c r="V767" s="10"/>
+    </row>
+    <row r="768" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R768" s="11"/>
+      <c r="U768" s="9"/>
+      <c r="V768" s="10"/>
+    </row>
+    <row r="769" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R769" s="11"/>
+      <c r="U769" s="9"/>
+      <c r="V769" s="10"/>
+    </row>
+    <row r="770" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R770" s="11"/>
+      <c r="U770" s="9"/>
+      <c r="V770" s="10"/>
+    </row>
+    <row r="771" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R771" s="11"/>
+      <c r="U771" s="9"/>
+      <c r="V771" s="10"/>
+    </row>
+    <row r="772" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R772" s="11"/>
+      <c r="U772" s="9"/>
+      <c r="V772" s="10"/>
+    </row>
+    <row r="773" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R773" s="11"/>
+      <c r="U773" s="9"/>
+      <c r="V773" s="10"/>
+    </row>
+    <row r="774" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R774" s="11"/>
+      <c r="U774" s="9"/>
+      <c r="V774" s="10"/>
+    </row>
+    <row r="775" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R775" s="11"/>
+      <c r="U775" s="9"/>
+      <c r="V775" s="10"/>
+    </row>
+    <row r="776" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R776" s="11"/>
+      <c r="U776" s="9"/>
+      <c r="V776" s="10"/>
+    </row>
+    <row r="777" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R777" s="11"/>
+      <c r="U777" s="9"/>
+      <c r="V777" s="10"/>
+    </row>
+    <row r="778" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R778" s="11"/>
+      <c r="U778" s="9"/>
+      <c r="V778" s="10"/>
+    </row>
+    <row r="779" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R779" s="11"/>
+      <c r="U779" s="9"/>
+      <c r="V779" s="10"/>
+    </row>
+    <row r="780" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R780" s="11"/>
+      <c r="U780" s="9"/>
+      <c r="V780" s="10"/>
+    </row>
+    <row r="781" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R781" s="11"/>
+      <c r="U781" s="9"/>
+      <c r="V781" s="10"/>
+    </row>
+    <row r="782" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R782" s="11"/>
+      <c r="U782" s="9"/>
+      <c r="V782" s="10"/>
+    </row>
+    <row r="783" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R783" s="11"/>
+      <c r="U783" s="9"/>
+      <c r="V783" s="10"/>
+    </row>
+    <row r="784" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R784" s="11"/>
+      <c r="U784" s="9"/>
+      <c r="V784" s="10"/>
+    </row>
+    <row r="785" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R785" s="11"/>
+      <c r="U785" s="9"/>
+      <c r="V785" s="10"/>
+    </row>
+    <row r="786" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R786" s="11"/>
+      <c r="U786" s="9"/>
+      <c r="V786" s="10"/>
+    </row>
+    <row r="787" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R787" s="11"/>
+      <c r="U787" s="9"/>
+      <c r="V787" s="10"/>
+    </row>
+    <row r="788" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R788" s="11"/>
+      <c r="U788" s="9"/>
+      <c r="V788" s="10"/>
+    </row>
+    <row r="789" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R789" s="11"/>
+      <c r="U789" s="9"/>
+      <c r="V789" s="10"/>
+    </row>
+    <row r="790" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R790" s="11"/>
+      <c r="U790" s="9"/>
+      <c r="V790" s="10"/>
+    </row>
+    <row r="791" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R791" s="11"/>
+      <c r="U791" s="9"/>
+      <c r="V791" s="10"/>
+    </row>
+    <row r="792" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R792" s="11"/>
+      <c r="U792" s="9"/>
+      <c r="V792" s="10"/>
+    </row>
+    <row r="793" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R793" s="11"/>
+      <c r="U793" s="9"/>
+      <c r="V793" s="10"/>
+    </row>
+    <row r="794" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R794" s="11"/>
+      <c r="U794" s="9"/>
+      <c r="V794" s="10"/>
+    </row>
+    <row r="795" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R795" s="11"/>
+      <c r="U795" s="9"/>
+      <c r="V795" s="10"/>
+    </row>
+    <row r="796" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R796" s="11"/>
+      <c r="U796" s="9"/>
+      <c r="V796" s="10"/>
+    </row>
+    <row r="797" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R797" s="11"/>
+      <c r="U797" s="9"/>
+      <c r="V797" s="10"/>
+    </row>
+    <row r="798" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R798" s="11"/>
+      <c r="U798" s="9"/>
+      <c r="V798" s="10"/>
+    </row>
+    <row r="799" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R799" s="11"/>
+      <c r="U799" s="9"/>
+      <c r="V799" s="10"/>
+    </row>
+    <row r="800" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R800" s="11"/>
+      <c r="U800" s="9"/>
+      <c r="V800" s="10"/>
+    </row>
+    <row r="801" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R801" s="11"/>
+      <c r="U801" s="9"/>
+      <c r="V801" s="10"/>
+    </row>
+    <row r="802" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R802" s="11"/>
+      <c r="U802" s="9"/>
+      <c r="V802" s="10"/>
+    </row>
+    <row r="803" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R803" s="11"/>
+      <c r="U803" s="9"/>
+      <c r="V803" s="10"/>
+    </row>
+    <row r="804" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R804" s="11"/>
+      <c r="U804" s="9"/>
+      <c r="V804" s="10"/>
+    </row>
+    <row r="805" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R805" s="11"/>
+      <c r="U805" s="9"/>
+      <c r="V805" s="10"/>
+    </row>
+    <row r="806" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R806" s="11"/>
+      <c r="U806" s="9"/>
+      <c r="V806" s="10"/>
+    </row>
+    <row r="807" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R807" s="11"/>
+      <c r="U807" s="9"/>
+      <c r="V807" s="10"/>
+    </row>
+    <row r="808" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R808" s="11"/>
+      <c r="U808" s="9"/>
+      <c r="V808" s="10"/>
+    </row>
+    <row r="809" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R809" s="11"/>
+      <c r="U809" s="9"/>
+      <c r="V809" s="10"/>
+    </row>
+    <row r="810" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R810" s="11"/>
+      <c r="U810" s="9"/>
+      <c r="V810" s="10"/>
+    </row>
+    <row r="811" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="R811" s="11"/>
+      <c r="U811" s="9"/>
+      <c r="V811" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E649" xr:uid="{83DB8626-0F1C-45B1-B742-083DABC571E5}"/>
@@ -33500,11 +34496,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A63:A74"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A26"/>
@@ -33515,6 +34506,11 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A63:A74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33526,6 +34522,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BB1C88B026E498516C75AD9D26285" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fb15fa5fb8ec6c836b9d7d5a959bb8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="304c15a9-2ddf-417f-8912-8cf6a1609eab" xmlns:ns3="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddd68b27bb9e6f16d84f1577050cb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
@@ -33780,27 +34796,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
+    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="304c15a9-2ddf-417f-8912-8cf6a1609eab">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAB492D-29AE-4FBB-B174-1C81B2D3C817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33817,23 +34832,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B921E6-00DE-4D0E-B400-431DDE188271}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11171811-4752-42CE-913B-A1196C5C2AA8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="304c15a9-2ddf-417f-8912-8cf6a1609eab"/>
-    <ds:schemaRef ds:uri="ec2c31f6-e4da-4ac2-b928-7a50ed07fae6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>